--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,149 +448,154 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>FONTE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>D.Y</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>P/L</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t xml:space="preserve"> PEG Ratio</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>P/VP</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>EV/EBITDA</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>EV/EBIT</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>P/EBITDA</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>P/EBIT</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>VPA</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>P/Ativo</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>LPA</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>P/SR</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>P/Ativo Circ. Liq.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>petr4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>21.16%</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>21.58%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>-0.15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>30.29</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>6.49</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-42.14</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-41.32</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-0.52</t>
         </is>
       </c>
     </row>
@@ -600,6 +605,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/PL</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBIT</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PL/Ativos</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Passivos/Ativos</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Liq. corrente</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>petr4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FONTE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>M. Bruta</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>M. EBITDA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>M. EBIT</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>M. Líquida</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>petr4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5179</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4589</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -616,205 +784,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>FONTE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Dív. líquida/PL</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBITDA</t>
+          <t>ROE</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBIT</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>PL/Ativos</t>
+          <t>ROIC</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Passivos/Ativos</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Liq. corrente</t>
-        </is>
-      </c>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>petr4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0.2144</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1831</v>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>M. Bruta</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>M. EBITDA</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>M. EBIT</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>M. Líquida</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>petr4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5179</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4589</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3248</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1681</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ROA</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ROIC</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Giro ativos</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>petr4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.2144</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0786</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1831</v>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>0.47</t>
         </is>
@@ -831,7 +846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,32 +857,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>FONTE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>CAGR Receitas 5 anos</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>CAGR Lucros 5 anos</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>petr4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>10.54%</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.2686</v>
       </c>
     </row>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,152 +448,147 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FONTE</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ATIVO</t>
+          <t>D.Y</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>D.Y</t>
+          <t>P/L</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t xml:space="preserve"> PEG Ratio</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PEG Ratio</t>
+          <t>P/VP</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>P/VP</t>
+          <t>EV/EBITDA</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>EV/EBITDA</t>
+          <t>EV/EBIT</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>EV/EBIT</t>
+          <t>P/EBITDA</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>P/EBITDA</t>
+          <t>P/EBIT</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>P/EBIT</t>
+          <t>VPA</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>VPA</t>
+          <t>P/Ativo</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>P/Ativo</t>
+          <t>LPA</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>LPA</t>
+          <t>P/SR</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>P/SR</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
           <t>P/Ativo Circ. Liq.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>petr4</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>21.58%</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>5.64</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>-0.15</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2.07</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>2.92</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>30.29</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>0.44</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>6.49</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0.95</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>-41.32</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>-0.52</t>
         </is>
@@ -610,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,41 +650,54 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>petr4</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>petr4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0062</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0149</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.009399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,7 +722,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FONTE</t>
+          <t>Fonte</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -743,22 +751,41 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>petr4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="B2" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.169</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>petr4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.5179</v>
       </c>
-      <c r="D5" t="n">
+      <c r="C3" t="n">
         <v>0.4589</v>
       </c>
-      <c r="E5" t="n">
+      <c r="D3" t="n">
         <v>0.3248</v>
       </c>
-      <c r="F5" t="n">
+      <c r="E3" t="n">
         <v>0.1681</v>
       </c>
     </row>
@@ -773,7 +800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,7 +811,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FONTE</t>
+          <t>Fonte</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -814,22 +841,53 @@
       </c>
       <c r="G1" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>petr4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C2" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>47.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>petr4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0.2144</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D3" t="n">
         <v>0.0786</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E3" t="n">
         <v>0.1831</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.47</t>
         </is>
@@ -846,7 +904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,37 +915,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FONTE</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ATIVO</t>
+          <t>CAGR Receitas 5 anos</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>CAGR Receitas 5 anos</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>CAGR Lucros 5 anos</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>petr4</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>10.54%</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="C3" t="n">
         <v>0.2686</v>
       </c>
     </row>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,80 +518,54 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>petr4</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>21.58%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>30.29</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0.2136</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.0015</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0209</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3029</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>-41.32</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>-0.52</t>
-        </is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.4175</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.0053</v>
       </c>
     </row>
   </sheetData>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -524,48 +524,48 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2136</v>
+        <v>0.2142</v>
       </c>
       <c r="D3" t="n">
-        <v>0.057</v>
+        <v>0.0562</v>
       </c>
       <c r="E3" t="n">
         <v>-0.0015</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0122</v>
+        <v>0.012</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0326</v>
+        <v>0.0323</v>
       </c>
       <c r="H3" t="n">
-        <v>0.046</v>
+        <v>0.0457</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0209</v>
+        <v>0.0206</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0295</v>
+        <v>0.0291</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3029</v>
+        <v>0.3065</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0649</v>
+        <v>0.06570000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.4175</v>
+        <v>-0.4114</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0053</v>
+        <v>-0.0052</v>
       </c>
     </row>
   </sheetData>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -524,48 +524,48 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2142</v>
+        <v>0.2114</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0562</v>
+        <v>0.05690000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>-0.0015</v>
       </c>
       <c r="F3" t="n">
-        <v>0.012</v>
+        <v>0.0122</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0323</v>
+        <v>0.0327</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0457</v>
+        <v>0.0462</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0206</v>
+        <v>0.0208</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0291</v>
+        <v>0.0294</v>
       </c>
       <c r="K3" t="n">
         <v>0.3065</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>0.06570000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.009399999999999999</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.4114</v>
+        <v>-0.4168</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0052</v>
+        <v>-0.0053</v>
       </c>
     </row>
   </sheetData>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,57 +517,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>petr4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2114</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05690000000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0122</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0327</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0462</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0294</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3065</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>0.06570000000000001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.4168</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-0.0053</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -579,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,56 +573,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>petr4</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>petr4</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0106</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0149</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.009399999999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -685,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,44 +624,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>petr4</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.169</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>petr4</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5179</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4589</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3248</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1681</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -774,7 +635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,58 +676,6 @@
       </c>
       <c r="G1" t="inlineStr"/>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>petr4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>47.0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>petr4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2144</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0786</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1831</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -878,7 +687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,21 +710,6 @@
         <is>
           <t>CAGR Lucros 5 anos</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>petr4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10.54%</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2686</v>
       </c>
     </row>
   </sheetData>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -8,12 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndValuation" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndEndividamento" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiEficiência" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiCrescimento" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndEmpresa" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiEficiência" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,153 +432,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>D.Y</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>P/L</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PEG Ratio</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>P/VP</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>EV/EBITDA</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>EV/EBIT</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>P/EBITDA</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>P/EBIT</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>VPA</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>P/Ativo</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>LPA</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>P/SR</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>P/Ativo Circ. Liq.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Dív. líquida/PL</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Dív. líquida/EBITDA</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Dív. líquida/EBIT</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>PL/Ativos</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Passivos/Ativos</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Liq. corrente</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -627,208 +475,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Fonte</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ROA</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ROIC</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Giro ativos</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CAGR Receitas 5 anos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CAGR Lucros 5 anos</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Valor atual</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Min. 52 semanas</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Max. 52 semanas</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>dividend Yield</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Valorizacao (12m)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>TAG ALONG</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>LIQUIDEZ MEDIA DIARIA</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>PARTICIPACAO NO IBOV</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>MERCADO DE OPCOES</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Patrimonio liquido</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Ativo circulante</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Divida bruta</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Disponibilidade</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Divida liquida</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Valor de mercado</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Valor de firma</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,150 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5179</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4589</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1681</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.169</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ABEV3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5097999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3192</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2392</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1692</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ABEV3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3776</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1273</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1213</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiEficiência" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -619,4 +620,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Fonte</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1831</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2144</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1831</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ABEV3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1421</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09470000000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1638</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ABEV3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1421</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09470000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1638</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiEficiência" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndEndividamento" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,20 +482,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PETR4</t>
+          <t>BBAS3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5179</v>
+        <v>0.3776</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4589</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3248</v>
+        <v>0.1273</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1681</v>
+        <v>0.1213</v>
       </c>
     </row>
     <row r="3">
@@ -505,115 +506,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PETR4</t>
+          <t>BBAS3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.518</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.446</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.169</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ABEV3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5097999999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3192</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2392</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1692</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ABEV3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.213</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.174</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3776</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1273</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1213</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,21 +582,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PETR4</t>
+          <t>BBAS3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2144</v>
+        <v>0.177</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0786</v>
+        <v>0.0131</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1831</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
@@ -703,126 +608,113 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PETR4</t>
+          <t>BBAS3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2144</v>
+        <v>0.199</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0786</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1831</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Fonte</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/PL</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBIT</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PL/Ativos</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Passivos/Ativos</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Liq. corrente</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>StatusInvest</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ABEV3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1421</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09470000000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1638</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ABEV3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1421</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09470000000000001</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1638</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0007000000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1828</v>
       </c>
     </row>
   </sheetData>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiEficiência" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndEndividamento" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndValuation" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,6 +718,188 @@
         <v>0.1828</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Fonte</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>D.Y</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEG Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>EV/EBITDA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>EV/EBIT</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>VPA</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>P/Ativo</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LPA</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>P/SR</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>P/Ativo Circ. Liq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09359999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.0126</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.04769999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.04769999999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3153</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0558</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0209</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.0007000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -8,10 +8,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiEficiência" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndEndividamento" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndValuation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndValuation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndEndividamento" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiEficiência" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiCrescimento" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndEmpresa" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,81 +448,73 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Fonte</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ATIVO</t>
+          <t>D.Y</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>M. Bruta</t>
+          <t>P/L</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>M. EBITDA</t>
+          <t xml:space="preserve"> PEG Ratio</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>M. EBIT</t>
+          <t>P/VP</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>M. Líquida</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3776</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1273</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1213</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
+          <t>EV/EBITDA</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>EV/EBIT</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>VPA</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>P/Ativo</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LPA</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>P/SR</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>P/Ativo Circ. Liq.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -534,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,85 +539,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Fonte</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ATIVO</t>
+          <t>Dív. líquida/PL</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ROE</t>
+          <t>Dív. líquida/EBITDA</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ROA</t>
+          <t>Dív. líquida/EBIT</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ROIC</t>
+          <t>PL/Ativos</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Giro ativos</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.0%</t>
+          <t>Passivos/Ativos</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Liq. corrente</t>
         </is>
       </c>
     </row>
@@ -638,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,103 +595,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Fonte</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ATIVO</t>
+          <t>M. Bruta</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Dív. líquida/PL</t>
+          <t>M. EBITDA</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBITDA</t>
+          <t>M. EBIT</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBIT</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>PL/Ativos</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Passivos/Ativos</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Liq. corrente</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1828</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+          <t>M. Líquida</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -759,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,134 +641,205 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Agrupador</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Fonte</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Indicador</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>valor</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>referencia</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>CAGR Receitas 5 anos</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CAGR Lucros 5 anos</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>ATIVO</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Valor atual</t>
+        </is>
+      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>D.Y</t>
+          <t>Min. 52 semanas</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>Max. 52 semanas</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PEG Ratio</t>
+          <t>dividend Yield</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>P/VP</t>
+          <t>Valorizacao (12m)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>EV/EBITDA</t>
+          <t>Tipo</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>EV/EBIT</t>
+          <t>TAG ALONG</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>P/EBITDA</t>
+          <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>P/EBIT</t>
+          <t>PARTICIPACAO NO IBOV</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>VPA</t>
+          <t>MERCADO DE OPCOES</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>P/Ativo</t>
+          <t>Patrimonio liquido</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>LPA</t>
+          <t>Ativos</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>P/SR</t>
+          <t>Ativo circulante</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>P/Ativo Circ. Liq.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09359999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.0126</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.04769999999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.04769999999999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.3153</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0209</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.0007000000000000001</v>
+          <t>Divida bruta</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Disponibilidade</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Divida liquida</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Valor de mercado</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Valor de firma</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.2146</v>
+        <v>0.2183</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.05599999999999999</v>
+        <v>0.0551</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="E14" s="1" t="n">
-        <v>-0.0015</v>
+        <v>-0.0014</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.012</v>
+        <v>0.0118</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.0322</v>
+        <v>0.0318</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.0455</v>
+        <v>0.0449</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.0205</v>
+        <v>0.0202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.029</v>
+        <v>0.0285</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.0044</v>
+        <v>0.0043</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="E23" s="1" t="n">
-        <v>0.009399999999999999</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-0.0052</v>
+        <v>-0.0051</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.3683</v>
+        <v>0.3619</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="E34" s="1" t="n">
-        <v>5001444589.14</v>
+        <v>4892019162.36</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="E35" s="1" t="n">
-        <v>7444634589.14</v>
+        <v>7335209162.36</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2415,8 +2415,10 @@
           <t>Giro ativos</t>
         </is>
       </c>
-      <c r="E40" s="2" t="n">
-        <v>0.004699999999999999</v>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -712,11 +712,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dív. líquida/PL</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0</v>
+          <t>Div. liquida/PL</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -762,11 +764,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBITDA</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0</v>
+          <t>Div. liquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1016,7 +1020,7 @@
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.2183</v>
+        <v>0.2178</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1066,7 +1070,7 @@
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.0551</v>
+        <v>0.0552</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1366,7 +1370,7 @@
         </is>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.0285</v>
+        <v>0.0286</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1666,7 +1670,7 @@
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.3619</v>
+        <v>0.3628</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2116,7 +2120,7 @@
         </is>
       </c>
       <c r="E34" s="1" t="n">
-        <v>4892019162.36</v>
+        <v>4902276079.7</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2166,7 +2170,7 @@
         </is>
       </c>
       <c r="E35" s="1" t="n">
-        <v>7335209162.36</v>
+        <v>7345466079.7</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="R$ #,##0.00"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,10 +49,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -816,11 +819,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBIT</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0</v>
+          <t>Div. liquida/EBIT</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -869,8 +874,10 @@
           <t>PL/Ativos</t>
         </is>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>0.0037</v>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -919,8 +926,10 @@
           <t>Passivos/Ativos</t>
         </is>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>0.0063</v>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -969,8 +978,10 @@
           <t>Liq. corrente</t>
         </is>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>0.009399999999999999</v>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1069,12 +1080,14 @@
           <t>P/L</t>
         </is>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>0.0552</v>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1119,8 +1132,10 @@
           <t>PEG Ratio</t>
         </is>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>-0.0014</v>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1169,8 +1184,10 @@
           <t>P/VP</t>
         </is>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>0.0118</v>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1219,12 +1236,14 @@
           <t>EV/EBITDA</t>
         </is>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>0.0318</v>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1269,12 +1288,14 @@
           <t>EV/EBIT</t>
         </is>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>0.0449</v>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1319,8 +1340,10 @@
           <t>P/EBITDA</t>
         </is>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>0.0202</v>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1369,8 +1392,10 @@
           <t>P/EBIT</t>
         </is>
       </c>
-      <c r="E19" s="1" t="n">
-        <v>0.0286</v>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1419,12 +1444,14 @@
           <t>VPA</t>
         </is>
       </c>
-      <c r="E20" s="1" t="n">
-        <v>0.3065</v>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1469,8 +1496,10 @@
           <t>P/Ativo</t>
         </is>
       </c>
-      <c r="E21" s="1" t="n">
-        <v>0.0043</v>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1519,12 +1548,14 @@
           <t>LPA</t>
         </is>
       </c>
-      <c r="E22" s="1" t="n">
-        <v>0.06570000000000001</v>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>bom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1569,8 +1600,10 @@
           <t>P/SR</t>
         </is>
       </c>
-      <c r="E23" s="1" t="n">
-        <v>0.009300000000000001</v>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1619,8 +1652,10 @@
           <t>P/Ativo Circ. Liq.</t>
         </is>
       </c>
-      <c r="E24" s="1" t="n">
-        <v>-0.0051</v>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1669,7 +1704,7 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="3" t="n">
         <v>0.3628</v>
       </c>
       <c r="F25" t="inlineStr">

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.2178</v>
+        <v>0.2176</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1705,11 +1705,11 @@
         </is>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.3628</v>
+        <v>36.32</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1754,14 +1754,7 @@
           <t>TAG ALONG</t>
         </is>
       </c>
-      <c r="E26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
+      <c r="E26" s="3" t="n"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1804,8 +1797,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E27" s="1" t="n">
-        <v>9215290.644099999</v>
+      <c r="E27" s="3" t="n">
+        <v>940501603.39</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1854,8 +1847,8 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>3950530000</v>
+      <c r="E28" s="3" t="n">
+        <v>395053000000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1904,8 +1897,8 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E29" s="1" t="n">
-        <v>10778490000</v>
+      <c r="E29" s="3" t="n">
+        <v>1077849000000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1954,8 +1947,8 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E30" s="1" t="n">
-        <v>1673710000</v>
+      <c r="E30" s="3" t="n">
+        <v>167371000000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2004,8 +1997,8 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E31" s="1" t="n">
-        <v>3221570000</v>
+      <c r="E31" s="3" t="n">
+        <v>322157000000</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2054,8 +2047,8 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E32" s="1" t="n">
-        <v>778380000</v>
+      <c r="E32" s="3" t="n">
+        <v>77838000000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2104,8 +2097,8 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E33" s="1" t="n">
-        <v>2443190000</v>
+      <c r="E33" s="3" t="n">
+        <v>244319000000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2154,8 +2147,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E34" s="1" t="n">
-        <v>4902276079.7</v>
+      <c r="E34" s="3" t="n">
+        <v>491264113478</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2204,8 +2197,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E35" s="1" t="n">
-        <v>7345466079.7</v>
+      <c r="E35" s="3" t="n">
+        <v>735583113478</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,6 +496,11 @@
           <t>otimo</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>DESCRIÇÃO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -800,6 +805,11 @@
           <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2473,6 +2483,1992 @@
         </is>
       </c>
       <c r="J40" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>M. Liquida</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>-0.1006</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Valor fora do alcance definido</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>M. EBIT</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>M. EBITDA</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0.09130000000000001</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = 30</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Mínimo = 30, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>M. Bruta</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0.1095</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Div. liquida/PL</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Div. liquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Div. liquida/EBIT</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PL/Ativos</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Passivos/Ativos</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Liq. corrente</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>D.Y</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-1.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Valor fora do alcance definido</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PEG Ratio</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Valor fora do alcance definido</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>EV/EBITDA</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>EV/EBIT</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>VPA</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>P/Ativo</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>LPA</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Valor fora do alcance definido</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>P/SR</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>P/Ativo Circ. Liq.</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Valor fora do alcance definido</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Valor atual</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>TAG ALONG</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="n"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>LIQUIDEZ MEDIA DIARIA</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>4220412.48</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Patrimonio liquido</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>1037685000</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Ativos</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>3580115000</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Ativo circulante</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>2285015000</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Divida bruta</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>1453382000</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Disponibilidade</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>881323000</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Divida liquida</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>572059000</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Valor de mercado</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>336691462</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Valor de firma</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>908750462</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Free Float</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>-0.1691</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Valor fora do alcance definido</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>-0.049</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Valor fora do alcance definido</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
         </is>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="R$ #,##0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +28,28 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00002060"/>
+        <bgColor rgb="00002060"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,10 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -446,59 +463,59 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Agrupador</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Fonte</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Indicador</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>valor</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>referencia</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Referencia</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>DESCRIÇÃO</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
         </is>
       </c>
     </row>
@@ -523,13 +540,8 @@
           <t>M. Liquida</t>
         </is>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.1681</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -573,13 +585,8 @@
           <t>M. EBIT</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.3248</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -623,13 +630,8 @@
           <t>M. EBITDA</t>
         </is>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.4589</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -673,13 +675,8 @@
           <t>M. Bruta</t>
         </is>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.5179</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -723,14 +720,9 @@
           <t>Div. liquida/PL</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>0.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -775,12 +767,12 @@
           <t>Div. liquida/EBITDA</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>1.06</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -832,14 +824,9 @@
           <t>Div. liquida/EBIT</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>1.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -884,14 +871,9 @@
           <t>PL/Ativos</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>0.37</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -936,14 +918,9 @@
           <t>Passivos/Ativos</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>0.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -988,14 +965,9 @@
           <t>Liq. corrente</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>0.94</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1040,13 +1012,8 @@
           <t>D.Y</t>
         </is>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>0.2176</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1090,14 +1057,9 @@
           <t>P/L</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>5.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>regular</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1142,14 +1104,9 @@
           <t>PEG Ratio</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>-0.14</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Valor fora do alcance definido</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1194,14 +1151,9 @@
           <t>P/VP</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>1.19</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1246,14 +1198,9 @@
           <t>EV/EBITDA</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>3.18</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>regular</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1298,14 +1245,9 @@
           <t>EV/EBIT</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>4.49</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>regular</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1350,14 +1292,9 @@
           <t>P/EBITDA</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>2.02</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1402,14 +1339,9 @@
           <t>P/EBIT</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>2.86</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1454,14 +1386,9 @@
           <t>VPA</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>30.65</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>otimo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1506,14 +1433,9 @@
           <t>P/Ativo</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>0.43</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1558,14 +1480,9 @@
           <t>LPA</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>6.57</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>bom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1610,14 +1527,9 @@
           <t>P/SR</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>0.93</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1662,14 +1574,9 @@
           <t>P/Ativo Circ. Liq.</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>-0.51</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Valor fora do alcance definido</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1714,13 +1621,8 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="5" t="n">
         <v>36.32</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1764,7 +1666,7 @@
           <t>TAG ALONG</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n"/>
+      <c r="E26" s="5" t="n"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1807,13 +1709,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n">
-        <v>940501603.39</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
+      <c r="E27" s="5" t="n">
+        <v>927589825.3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1857,13 +1754,8 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="5" t="n">
         <v>395053000000</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1907,13 +1799,8 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="5" t="n">
         <v>1077849000000</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1957,13 +1844,8 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="5" t="n">
         <v>167371000000</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2007,13 +1889,8 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="5" t="n">
         <v>322157000000</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2057,13 +1934,8 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="5" t="n">
         <v>77838000000</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2107,13 +1979,8 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="5" t="n">
         <v>244319000000</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2157,13 +2024,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="5" t="n">
         <v>491264113478</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2207,13 +2069,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="5" t="n">
         <v>735583113478</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2257,13 +2114,8 @@
           <t>Free Float</t>
         </is>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="2" t="n">
         <v>0.6125</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2307,13 +2159,8 @@
           <t>ROE</t>
         </is>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="2" t="n">
         <v>0.2144</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2357,13 +2204,8 @@
           <t>ROA</t>
         </is>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="2" t="n">
         <v>0.0786</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2407,13 +2249,8 @@
           <t>ROIC</t>
         </is>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="2" t="n">
         <v>0.1831</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2457,14 +2294,9 @@
           <t>Giro ativos</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>0.47</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2509,13 +2341,8 @@
           <t>M. Liquida</t>
         </is>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="2" t="n">
         <v>-0.1006</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Valor fora do alcance definido</t>
-        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2559,13 +2386,8 @@
           <t>M. EBIT</t>
         </is>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="2" t="n">
         <v>0.0355</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2609,13 +2431,8 @@
           <t>M. EBITDA</t>
         </is>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="2" t="n">
         <v>0.09130000000000001</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2659,13 +2476,8 @@
           <t>M. Bruta</t>
         </is>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="2" t="n">
         <v>0.1095</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2709,14 +2521,9 @@
           <t>Div. liquida/PL</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>0.55</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2761,14 +2568,9 @@
           <t>Div. liquida/EBITDA</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr">
         <is>
           <t>3.59</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>regular</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2818,14 +2620,9 @@
           <t>Div. liquida/EBIT</t>
         </is>
       </c>
-      <c r="E47" s="2" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>9.24</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>bom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2870,14 +2667,9 @@
           <t>PL/Ativos</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>0.29</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2922,14 +2714,9 @@
           <t>Passivos/Ativos</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr">
         <is>
           <t>0.71</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2974,14 +2761,9 @@
           <t>Liq. corrente</t>
         </is>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" s="3" t="inlineStr">
         <is>
           <t>1.22</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3026,13 +2808,8 @@
           <t>D.Y</t>
         </is>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="2" t="n">
         <v>0</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3076,14 +2853,9 @@
           <t>P/L</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" s="3" t="inlineStr">
         <is>
           <t>-1.92</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Valor fora do alcance definido</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3128,14 +2900,9 @@
           <t>PEG Ratio</t>
         </is>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" s="3" t="inlineStr">
         <is>
           <t>-0.03</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Valor fora do alcance definido</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3180,14 +2947,9 @@
           <t>P/VP</t>
         </is>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>0.32</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3232,14 +2994,9 @@
           <t>EV/EBITDA</t>
         </is>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>5.70</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>regular</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3284,14 +3041,9 @@
           <t>EV/EBIT</t>
         </is>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t>14.69</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>otimo</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3336,14 +3088,9 @@
           <t>P/EBITDA</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="E57" s="3" t="inlineStr">
         <is>
           <t>2.11</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3388,14 +3135,9 @@
           <t>P/EBIT</t>
         </is>
       </c>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="E58" s="3" t="inlineStr">
         <is>
           <t>5.44</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>regular</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3440,14 +3182,9 @@
           <t>VPA</t>
         </is>
       </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>16.70</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>otimo</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3492,14 +3229,9 @@
           <t>P/Ativo</t>
         </is>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>0.09</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3544,14 +3276,9 @@
           <t>LPA</t>
         </is>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>-2.83</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Valor fora do alcance definido</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3596,14 +3323,9 @@
           <t>P/SR</t>
         </is>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>0.19</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3648,14 +3370,9 @@
           <t>P/Ativo Circ. Liq.</t>
         </is>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" s="3" t="inlineStr">
         <is>
           <t>-0.26</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Valor fora do alcance definido</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3700,13 +3417,8 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="E64" s="5" t="n">
         <v>5.42</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3750,7 +3462,7 @@
           <t>TAG ALONG</t>
         </is>
       </c>
-      <c r="E65" s="3" t="n"/>
+      <c r="E65" s="5" t="n"/>
       <c r="G65" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3793,13 +3505,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E66" s="3" t="n">
-        <v>4220412.48</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
+      <c r="E66" s="5" t="n">
+        <v>4044505.57</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3843,13 +3550,8 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" s="5" t="n">
         <v>1037685000</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3893,13 +3595,8 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="5" t="n">
         <v>3580115000</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3943,13 +3640,8 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="5" t="n">
         <v>2285015000</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3993,13 +3685,8 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="5" t="n">
         <v>1453382000</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4043,13 +3730,8 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="5" t="n">
         <v>881323000</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4093,13 +3775,8 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E72" s="3" t="n">
+      <c r="E72" s="5" t="n">
         <v>572059000</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4143,13 +3820,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="5" t="n">
         <v>336691462</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4193,13 +3865,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="5" t="n">
         <v>908750462</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4243,13 +3910,8 @@
           <t>Free Float</t>
         </is>
       </c>
-      <c r="E75" s="1" t="n">
+      <c r="E75" s="2" t="n">
         <v>0.5708</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4293,13 +3955,8 @@
           <t>ROE</t>
         </is>
       </c>
-      <c r="E76" s="1" t="n">
+      <c r="E76" s="2" t="n">
         <v>-0.1691</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Valor fora do alcance definido</t>
-        </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4343,13 +4000,8 @@
           <t>ROA</t>
         </is>
       </c>
-      <c r="E77" s="1" t="n">
+      <c r="E77" s="2" t="n">
         <v>-0.049</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Valor fora do alcance definido</t>
-        </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4393,13 +4045,8 @@
           <t>ROIC</t>
         </is>
       </c>
-      <c r="E78" s="1" t="n">
+      <c r="E78" s="2" t="n">
         <v>0.0118</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4443,14 +4090,9 @@
           <t>Giro ativos</t>
         </is>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" s="3" t="inlineStr">
         <is>
           <t>0.49</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>baixo</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -69,8 +69,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,24 +543,34 @@
       <c r="E2" s="2" t="n">
         <v>0.1681</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -50, Máximo = 5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 5, Máximo = 10</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 10, Máximo = 20</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Uma margem líquida entre 10% e 20% é geralmente considerada boa e indica uma empresa que é eficiente na gestão de suas despesas e custos, resultando em uma rentabilidade sólida. É comum em setores com menos concorrência e mais poder de precificação</t>
         </is>
       </c>
     </row>
@@ -588,24 +598,34 @@
       <c r="E3" s="2" t="n">
         <v>0.3248</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -50, Máximo = 5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 5, Máximo = 10</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 10, Máximo = 20</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Uma margem EBIT acima de 20% sugere alta eficiência operacional e uma forte capacidade de gerar lucro operacional a partir das vendas. Isso pode ser típico de setores com altos margens brutas e controle eficaz dos custos operacionais, como tecnologia, software e alguns serviços especializados</t>
         </is>
       </c>
     </row>
@@ -633,9 +653,14 @@
       <c r="E4" s="2" t="n">
         <v>0.4589</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 10</t>
+          <t>Mínimo = -50, Máximo = 10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -651,6 +676,11 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>Mínimo = 30, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>OTUma margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
         </is>
       </c>
     </row>
@@ -678,24 +708,34 @@
       <c r="E5" s="2" t="n">
         <v>0.5179</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -50, Máximo = 20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 20, Máximo = 40</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 40, Máximo = 60</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 60, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Uma margem bruta entre 40% e 60% indica uma boa eficiência na produção e venda de produtos ou serviços. Isso é comum em setores que têm menos custos variáveis e uma estrutura de custo mais favorável, como serviços e algumas indústrias com alta diferenciação de produtos.</t>
         </is>
       </c>
     </row>
@@ -725,6 +765,11 @@
           <t>0.62</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -743,6 +788,11 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -772,9 +822,9 @@
           <t>1.06</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>baixo</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -799,7 +849,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -829,6 +879,11 @@
           <t>1.49</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -847,6 +902,11 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -876,6 +936,11 @@
           <t>0.37</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -894,6 +959,11 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -923,6 +993,11 @@
           <t>0.63</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -941,6 +1016,11 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -970,6 +1050,11 @@
           <t>0.94</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -988,6 +1073,11 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1103,12 @@
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.2176</v>
+        <v>0.2168</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1033,6 +1128,11 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1159,12 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1080,6 +1185,11 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1216,12 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1127,6 +1242,11 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1156,6 +1276,11 @@
           <t>1.19</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1174,6 +1299,11 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1203,6 +1333,11 @@
           <t>3.18</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1221,6 +1356,11 @@
       <c r="J16" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1250,6 +1390,11 @@
           <t>4.49</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1268,6 +1413,11 @@
       <c r="J17" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1444,12 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1315,6 +1470,11 @@
       <c r="J18" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1501,12 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1362,6 +1527,11 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1391,6 +1561,11 @@
           <t>30.65</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1409,6 +1584,11 @@
       <c r="J20" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1615,12 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1456,6 +1641,11 @@
       <c r="J21" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1485,9 +1675,14 @@
           <t>6.57</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 3</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1503,6 +1698,11 @@
       <c r="J22" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1532,6 +1732,11 @@
           <t>0.93</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1550,6 +1755,11 @@
       <c r="J23" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1786,12 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1597,6 +1812,11 @@
       <c r="J24" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1621,8 +1841,13 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E25" s="5" t="n">
-        <v>36.32</v>
+      <c r="E25" s="4" t="n">
+        <v>36.45</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1642,6 +1867,11 @@
       <c r="J25" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1896,12 @@
           <t>TAG ALONG</t>
         </is>
       </c>
-      <c r="E26" s="5" t="n"/>
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1685,6 +1920,11 @@
       <c r="J26" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1709,9 +1949,14 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="4" t="n">
         <v>927589825.3</v>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1730,6 +1975,11 @@
       <c r="J27" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1754,9 +2004,14 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="4" t="n">
         <v>395053000000</v>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1775,6 +2030,11 @@
       <c r="J28" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1799,9 +2059,14 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="4" t="n">
         <v>1077849000000</v>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1820,6 +2085,11 @@
       <c r="J29" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1844,9 +2114,14 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="4" t="n">
         <v>167371000000</v>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1865,6 +2140,11 @@
       <c r="J30" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1889,9 +2169,14 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="4" t="n">
         <v>322157000000</v>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1910,6 +2195,11 @@
       <c r="J31" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1934,9 +2224,14 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="4" t="n">
         <v>77838000000</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -1955,6 +2250,11 @@
       <c r="J32" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -1979,9 +2279,14 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="4" t="n">
         <v>244319000000</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2000,6 +2305,11 @@
       <c r="J33" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -2024,9 +2334,14 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="4" t="n">
         <v>491264113478</v>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2045,6 +2360,11 @@
       <c r="J34" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -2069,9 +2389,14 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="4" t="n">
         <v>735583113478</v>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2090,6 +2415,11 @@
       <c r="J35" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -2117,6 +2447,11 @@
       <c r="E36" s="2" t="n">
         <v>0.6125</v>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2135,6 +2470,11 @@
       <c r="J36" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -2162,6 +2502,11 @@
       <c r="E37" s="2" t="n">
         <v>0.2144</v>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2180,6 +2525,11 @@
       <c r="J37" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -2207,6 +2557,11 @@
       <c r="E38" s="2" t="n">
         <v>0.0786</v>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2225,6 +2580,11 @@
       <c r="J38" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -2252,6 +2612,11 @@
       <c r="E39" s="2" t="n">
         <v>0.1831</v>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2270,6 +2635,11 @@
       <c r="J39" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -2299,6 +2669,11 @@
           <t>0.47</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2317,6 +2692,11 @@
       <c r="J40" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -2344,24 +2724,34 @@
       <c r="E41" s="2" t="n">
         <v>-0.1006</v>
       </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -50, Máximo = 5</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 5, Máximo = 10</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 10, Máximo = 20</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Uma margem líquida abaixo de 5% sugere que a empresa tem uma margem de lucro relativamente baixa. Isso pode ser típico em setores com alta concorrência e margens reduzidas, como o varejo ou o setor de alimentos e bebidas. Pode indicar baixa eficiência na gestão de custos ou baixa rentabilidade</t>
         </is>
       </c>
     </row>
@@ -2389,24 +2779,34 @@
       <c r="E42" s="2" t="n">
         <v>0.0355</v>
       </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -50, Máximo = 5</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 5, Máximo = 10</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 10, Máximo = 20</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Uma margem EBIT abaixo de 5% sugere que a empresa tem uma baixa eficiência operacional. Isso pode ser comum em setores com alta concorrência e baixos níveis de diferenciação, como o varejo e alguns segmentos industriais. Indica que a empresa pode estar enfrentando desafios significativos em controlar seus custos operacionais</t>
         </is>
       </c>
     </row>
@@ -2434,9 +2834,14 @@
       <c r="E43" s="2" t="n">
         <v>0.09130000000000001</v>
       </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 10</t>
+          <t>Mínimo = -50, Máximo = 10</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2452,6 +2857,11 @@
       <c r="J43" t="inlineStr">
         <is>
           <t>Mínimo = 30, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Uma margem EBITDA abaixo de 10% pode indicar que a empresa tem uma baixa eficiência operacional ou enfrenta altos custos operacionais. Isso pode ser comum em setores com alta concorrência e margens reduzidas, como o varejo ou indústrias com alta estrutura de custos</t>
         </is>
       </c>
     </row>
@@ -2479,24 +2889,34 @@
       <c r="E44" s="2" t="n">
         <v>0.1095</v>
       </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -50, Máximo = 20</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 20, Máximo = 40</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 40, Máximo = 60</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 60, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Uma margem bruta abaixo de 20% pode indicar que a empresa tem um custo de produção relativamente alto em relação à sua receita. Isso é comum em setores com altos custos de matéria-prima ou produção, como o varejo de alimentos e algumas indústrias manufatureiras.</t>
         </is>
       </c>
     </row>
@@ -2526,6 +2946,11 @@
           <t>0.55</t>
         </is>
       </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2544,6 +2969,11 @@
       <c r="J45" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -2573,6 +3003,11 @@
           <t>3.59</t>
         </is>
       </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2595,7 +3030,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -2625,6 +3060,11 @@
           <t>9.24</t>
         </is>
       </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2643,6 +3083,11 @@
       <c r="J47" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -2672,6 +3117,11 @@
           <t>0.29</t>
         </is>
       </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2690,6 +3140,11 @@
       <c r="J48" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -2719,6 +3174,11 @@
           <t>0.71</t>
         </is>
       </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2737,6 +3197,11 @@
       <c r="J49" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -2766,6 +3231,11 @@
           <t>1.22</t>
         </is>
       </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2784,6 +3254,11 @@
       <c r="J50" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -2811,6 +3286,11 @@
       <c r="E51" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2829,6 +3309,11 @@
       <c r="J51" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -2855,7 +3340,12 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>-1.93</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2876,6 +3366,11 @@
       <c r="J52" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -2905,6 +3400,11 @@
           <t>-0.03</t>
         </is>
       </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -2923,6 +3423,11 @@
       <c r="J53" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -2949,7 +3454,12 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2970,6 +3480,11 @@
       <c r="J54" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -2999,6 +3514,11 @@
           <t>5.70</t>
         </is>
       </c>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3017,6 +3537,11 @@
       <c r="J55" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3046,6 +3571,11 @@
           <t>14.69</t>
         </is>
       </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3064,6 +3594,11 @@
       <c r="J56" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3625,12 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3111,6 +3651,11 @@
       <c r="J57" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3682,12 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3158,6 +3708,11 @@
       <c r="J58" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3187,6 +3742,11 @@
           <t>16.70</t>
         </is>
       </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3205,6 +3765,11 @@
       <c r="J59" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3234,6 +3799,11 @@
           <t>0.09</t>
         </is>
       </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3252,6 +3822,11 @@
       <c r="J60" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3281,9 +3856,14 @@
           <t>-2.83</t>
         </is>
       </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 3</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3299,6 +3879,11 @@
       <c r="J61" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3328,6 +3913,11 @@
           <t>0.19</t>
         </is>
       </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3346,6 +3936,11 @@
       <c r="J62" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3375,6 +3970,11 @@
           <t>-0.26</t>
         </is>
       </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3393,6 +3993,11 @@
       <c r="J63" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3417,8 +4022,13 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E64" s="5" t="n">
-        <v>5.42</v>
+      <c r="E64" s="4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3438,6 +4048,11 @@
       <c r="J64" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3462,7 +4077,12 @@
           <t>TAG ALONG</t>
         </is>
       </c>
-      <c r="E65" s="5" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3481,6 +4101,11 @@
       <c r="J65" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3505,9 +4130,14 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E66" s="5" t="n">
+      <c r="E66" s="4" t="n">
         <v>4044505.57</v>
       </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3526,6 +4156,11 @@
       <c r="J66" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3550,9 +4185,14 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E67" s="5" t="n">
+      <c r="E67" s="4" t="n">
         <v>1037685000</v>
       </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3571,6 +4211,11 @@
       <c r="J67" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3595,9 +4240,14 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E68" s="5" t="n">
+      <c r="E68" s="4" t="n">
         <v>3580115000</v>
       </c>
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3616,6 +4266,11 @@
       <c r="J68" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3640,9 +4295,14 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E69" s="5" t="n">
+      <c r="E69" s="4" t="n">
         <v>2285015000</v>
       </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3661,6 +4321,11 @@
       <c r="J69" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3685,9 +4350,14 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E70" s="5" t="n">
+      <c r="E70" s="4" t="n">
         <v>1453382000</v>
       </c>
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3706,6 +4376,11 @@
       <c r="J70" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3730,9 +4405,14 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E71" s="5" t="n">
+      <c r="E71" s="4" t="n">
         <v>881323000</v>
       </c>
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3751,6 +4431,11 @@
       <c r="J71" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3775,9 +4460,14 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E72" s="5" t="n">
+      <c r="E72" s="4" t="n">
         <v>572059000</v>
       </c>
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3796,6 +4486,11 @@
       <c r="J72" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3820,9 +4515,14 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E73" s="5" t="n">
+      <c r="E73" s="4" t="n">
         <v>336691462</v>
       </c>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3841,6 +4541,11 @@
       <c r="J73" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3865,9 +4570,14 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E74" s="5" t="n">
+      <c r="E74" s="4" t="n">
         <v>908750462</v>
       </c>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3886,6 +4596,11 @@
       <c r="J74" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3913,6 +4628,11 @@
       <c r="E75" s="2" t="n">
         <v>0.5708</v>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -3931,6 +4651,11 @@
       <c r="J75" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -4048,6 +4773,11 @@
       <c r="E78" s="2" t="n">
         <v>0.0118</v>
       </c>
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -4066,6 +4796,11 @@
       <c r="J78" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -4095,6 +4830,11 @@
           <t>0.49</t>
         </is>
       </c>
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 3</t>
@@ -4113,6 +4853,11 @@
       <c r="J79" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -56,10 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -443,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,100 +507,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Endividamento</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Div. liquida/PL</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Mínimo = -50, Máximo = 2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Endividamento</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>AERI3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Div. liquida/PL</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Mínimo = -50, Máximo = 2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="R$ #,##0.00"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -30,7 +32,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -41,6 +43,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00002060"/>
         <bgColor rgb="00002060"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -56,9 +64,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -442,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +519,2089 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>M. Liquida</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.1094</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Mínimo = -50, Máximo = 5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Uma margem líquida entre 10% e 20% é geralmente considerada boa e indica uma empresa que é eficiente na gestão de suas despesas e custos, resultando em uma rentabilidade sólida. É comum em setores com menos concorrência e mais poder de precificação</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M. EBIT</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.1253</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Mínimo = -50, Máximo = 5</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Uma margem EBIT entre 10% e 20% indica uma boa eficiência operacional. A empresa consegue gerar uma quantidade significativa de lucro operacional em relação à receita líquida. Esse nível é comum em setores menos intensivos em capital e com uma boa capacidade de controle de custos</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>M. EBITDA</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Mínimo = -50, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = 30</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Mínimo = 30, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Uma margem EBITDA abaixo de 10% pode indicar que a empresa tem uma baixa eficiência operacional ou enfrenta altos custos operacionais. Isso pode ser comum em setores com alta concorrência e margens reduzidas, como o varejo ou indústrias com alta estrutura de custos</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>M. Bruta</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.1776</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mínimo = -50, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = 40</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Mínimo = 40, Máximo = 60</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Mínimo = 60, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Uma margem bruta abaixo de 20% pode indicar que a empresa tem um custo de produção relativamente alto em relação à sua receita. Isso é comum em setores com altos custos de matéria-prima ou produção, como o varejo de alimentos e algumas indústrias manufatureiras.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Div. liquida/PL</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mínimo = -50, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Mínimo = 60, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Div. liquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Div. liquida/EBIT</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PL/Ativos</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Passivos/Ativos</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Liq. corrente</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>D.Y</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.08130000000000001</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>BOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PEG Ratio</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EV/EBITDA</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>EV/EBIT</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VPA</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>P/Ativo</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LPA</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Mínimo = -10, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>P/SR</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P/Ativo Circ. Liq.</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Valor atual</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    'TAG ALONG': {
+        'baixo': {'min': 0, 'max': 3},
+        'regular': {'min': 3, 'max': 6},
+        'bom': {'min': 6, 'max': 10},
+        'otimo': {'min': 10, 'max': float('inf')},
+        'descricao': 'Preço em relação ao lucro. Quanto menor, mais barata a ação.',
+        'agrupador': 'Empresa',
+        'descrbaixo': 'BAIXO',
+        'descregular': 'REGULAR',
+        'descrbom': 'BOM',
+        'descotimo': 'OTIMO'
+    },
+LIQUIDEZ MEDIA DIARIA</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Patrimonio liquido</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>6378306000</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Ativos</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>69206300000</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ativo circulante</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>5331598000</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Divida bruta</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Disponibilidade</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>5331598000</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Divida liquida</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Valor de mercado</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>4954301354</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Valor de firma</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>4954301354</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Free Float</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>0.2987</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>0.1143</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="IndiRentabilidade" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -59,14 +59,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.1574</v>
+        <v>0.1614</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.2469</v>
+        <v>0.2438</v>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.3255</v>
+        <v>0.3234</v>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Otima margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
+          <t>Uma margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.5146000000000001</v>
+        <v>0.5124</v>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.18</v>
+        <v>-0.26</v>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
@@ -806,12 +806,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida.</t>
+          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,12 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.57</v>
+        <v>-0.91</v>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -856,7 +861,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise</t>
         </is>
       </c>
     </row>
@@ -882,16 +892,16 @@
         </is>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>-1.21</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -906,12 +916,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
+          <t>Mínimo = 0, Máximo = 2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentáve</t>
         </is>
       </c>
     </row>
@@ -937,7 +947,12 @@
         </is>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -946,17 +961,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Um índice entre 0,50 e 0,70 indica que a empresa possui uma boa proporção de patrimônio líquido em relação aos ativos, o que sugere uma sólida base financeira e uma menor dependência de dívidas. Empresas com valores nessa faixa geralmente têm uma estrutura de capital mais conservadora e são menos suscetíveis a riscos financeiros</t>
         </is>
       </c>
     </row>
@@ -982,36 +1002,36 @@
         </is>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Um índice nessa faixa sugere uma estrutura de capital com uma proporção razoável de patrimônio líquido em relação aos ativos. A empresa tem um equilíbrio entre o financiamento próprio e o financiamento externo. Esse nível de alavancagem é geralmente considerado moderado e pode ser típico em muitos setores.</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -1037,36 +1057,36 @@
         </is>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F11" s="7" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um múltiplo nesta faixa é geralmente considerado aceitável, significando que a empresa possui ativos circulantes suficientes para cobrir suas obrigações de curto prazo. No entanto, esse nível de liquidez pode ser considerado baixo em setores com alta volatilidade nos fluxos de caixa ou onde os ciclos de pagamento e recebimento são longos.</t>
         </is>
       </c>
     </row>
@@ -1092,11 +1112,11 @@
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.06849999999999999</v>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>0.0584</v>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1121,7 +1141,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1167,7 @@
         </is>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14.71</v>
+        <v>14.87</v>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
@@ -1202,7 +1222,7 @@
         </is>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-29.74</v>
+        <v>-33.32</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1247,9 +1267,9 @@
         </is>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F15" s="7" t="inlineStr">
+        <v>2.16</v>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -1302,7 +1322,7 @@
         </is>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.54</v>
+        <v>6.5</v>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
@@ -1412,7 +1432,7 @@
         </is>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.11</v>
+        <v>7.42</v>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
@@ -1467,7 +1487,7 @@
         </is>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9.380000000000001</v>
+        <v>9.84</v>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
@@ -1522,7 +1542,7 @@
         </is>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6</v>
+        <v>6.32</v>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
@@ -1577,9 +1597,9 @@
         </is>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="F21" s="7" t="inlineStr">
+        <v>1.32</v>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -1634,7 +1654,7 @@
       <c r="E22" s="5" t="n">
         <v>0.92</v>
       </c>
-      <c r="F22" s="7" t="inlineStr">
+      <c r="F22" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -1687,9 +1707,9 @@
         </is>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F23" s="7" t="inlineStr">
+        <v>2.4</v>
+      </c>
+      <c r="F23" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -1742,7 +1762,7 @@
         </is>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.05</v>
+        <v>-1.98</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1787,7 +1807,7 @@
         </is>
       </c>
       <c r="E25" s="8" t="n">
-        <v>13.47</v>
+        <v>13.62</v>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
@@ -1842,7 +1862,7 @@
         </is>
       </c>
       <c r="E26" s="8" t="n">
-        <v>257489327.13</v>
+        <v>463372309.48</v>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
@@ -1897,7 +1917,7 @@
         </is>
       </c>
       <c r="E27" s="8" t="n">
-        <v>94528274000</v>
+        <v>99580514000</v>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
@@ -1952,7 +1972,7 @@
         </is>
       </c>
       <c r="E28" s="8" t="n">
-        <v>147298979000</v>
+        <v>162507949000</v>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
@@ -2007,7 +2027,7 @@
         </is>
       </c>
       <c r="E29" s="8" t="n">
-        <v>43550960000</v>
+        <v>54155784000</v>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
@@ -2062,7 +2082,7 @@
         </is>
       </c>
       <c r="E30" s="8" t="n">
-        <v>3218170000</v>
+        <v>3452728000</v>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
@@ -2117,7 +2137,7 @@
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>20310261000</v>
+        <v>29837667000</v>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
@@ -2172,7 +2192,7 @@
         </is>
       </c>
       <c r="E32" s="8" t="n">
-        <v>-17092091000</v>
+        <v>-26384939000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2217,7 +2237,7 @@
         </is>
       </c>
       <c r="E33" s="8" t="n">
-        <v>212309274043</v>
+        <v>214304139770</v>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
@@ -2272,7 +2292,7 @@
         </is>
       </c>
       <c r="E34" s="8" t="n">
-        <v>195217183043</v>
+        <v>187919200770</v>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
@@ -2327,7 +2347,7 @@
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.2712</v>
+        <v>0.2789</v>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
@@ -2382,7 +2402,7 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.1527</v>
+        <v>0.145</v>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
@@ -2437,7 +2457,7 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.098</v>
+        <v>0.0888</v>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
@@ -2492,7 +2512,7 @@
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.1785</v>
+        <v>0.1666</v>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
@@ -2547,9 +2567,9 @@
         </is>
       </c>
       <c r="E39" s="5" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F39" s="7" t="inlineStr">
+        <v>0.55</v>
+      </c>
+      <c r="F39" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -2602,7 +2622,12 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.8151</v>
+        <v>-0.1006</v>
+      </c>
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2622,6 +2647,11 @@
       <c r="J40" t="inlineStr">
         <is>
           <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Uma margem líquida abaixo de 5% sugere que a empresa tem uma margem de lucro relativamente baixa. Isso pode ser típico em setores com alta concorrência e margens reduzidas, como o varejo ou o setor de alimentos e bebidas. Pode indicar baixa eficiência na gestão de custos ou baixa rentabilidade</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2677,12 @@
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.6354</v>
+        <v>0.0355</v>
+      </c>
+      <c r="F41" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2667,6 +2702,11 @@
       <c r="J41" t="inlineStr">
         <is>
           <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Uma margem EBIT abaixo de 5% sugere que a empresa tem uma baixa eficiência operacional. Isso pode ser comum em setores com alta concorrência e baixos níveis de diferenciação, como o varejo e alguns segmentos industriais. Indica que a empresa pode estar enfrentando desafios significativos em controlar seus custos operacionais</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2732,12 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.5576</v>
+        <v>0.09130000000000001</v>
+      </c>
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2712,6 +2757,11 @@
       <c r="J42" t="inlineStr">
         <is>
           <t>Mínimo = 30, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Uma margem EBITDA abaixo de 10% pode indicar que a empresa tem uma baixa eficiência operacional ou enfrenta altos custos operacionais. Isso pode ser comum em setores com alta concorrência e margens reduzidas, como o varejo ou indústrias com alta estrutura de custos</t>
         </is>
       </c>
     </row>
@@ -2737,9 +2787,9 @@
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.1079</v>
-      </c>
-      <c r="F43" s="7" t="inlineStr">
+        <v>0.1095</v>
+      </c>
+      <c r="F43" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -2792,11 +2842,11 @@
         </is>
       </c>
       <c r="E44" s="5" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="F44" s="7" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>0.55</v>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2816,12 +2866,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ste nível indica que a empresa está altamente alavancada, com um montante significativo de dívida em relação ao patrimônio líquido. Isso pode sinalizar um alto risco financeiro e a possibilidade de dificuldades para cumprir obrigações de dívida, especialmente se a empresa enfrentar quedas nos lucros ou aumento nos custos de financiamento.</t>
+          <t>Um múltiplo nessa faixa sugere que a empresa tem um equilíbrio saudável entre dívida e patrimônio líquido. Isso é comum em empresas que utilizam algum nível de alavancagem para financiar seu crescimento, mas que ainda mantêm um risco financeiro relativamente controlado</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2897,12 @@
         </is>
       </c>
       <c r="E45" s="5" t="n">
-        <v>-2.23</v>
+        <v>3.59</v>
+      </c>
+      <c r="F45" s="7" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2866,7 +2921,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Indica uma alavancagem significativa. Empresas com múltiplos nesta faixa devem ser monitoradas de perto, pois têm menos margem de segurança para lidar com quedas no EBITDA ou aumentos de dívida. Em setores mais voláteis, esse nível de alavancagem pode ser preocupante</t>
         </is>
       </c>
     </row>
@@ -2892,16 +2952,11 @@
         </is>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="F46" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
+        <v>9.24</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2916,12 +2971,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
+          <t>Mínimo = 0, Máximo = 2</t>
         </is>
       </c>
     </row>
@@ -2947,9 +2997,9 @@
         </is>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F47" s="7" t="inlineStr">
+        <v>0.29</v>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -2961,22 +3011,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitávei</t>
         </is>
       </c>
     </row>
@@ -3002,36 +3052,36 @@
         </is>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>0.71</v>
+      </c>
+      <c r="F48" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3057,36 +3107,36 @@
         </is>
       </c>
       <c r="E49" s="5" t="n">
-        <v>0.99</v>
+        <v>1.22</v>
       </c>
       <c r="F49" s="7" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um múltiplo nesta faixa é geralmente considerado aceitável, significando que a empresa possui ativos circulantes suficientes para cobrir suas obrigações de curto prazo. No entanto, esse nível de liquidez pode ser considerado baixo em setores com alta volatilidade nos fluxos de caixa ou onde os ciclos de pagamento e recebimento são longos.</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3164,7 @@
       <c r="E50" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F50" s="7" t="inlineStr">
+      <c r="F50" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -3167,7 +3217,7 @@
         </is>
       </c>
       <c r="E51" s="5" t="n">
-        <v>-0.26</v>
+        <v>-1.45</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3212,12 +3262,7 @@
         </is>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>-0.02</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3237,11 +3282,6 @@
       <c r="J52" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3267,9 +3307,9 @@
         </is>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="F53" s="7" t="inlineStr">
+        <v>0.25</v>
+      </c>
+      <c r="F53" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -3322,7 +3362,12 @@
         </is>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-2.61</v>
+        <v>5.18</v>
+      </c>
+      <c r="F54" s="7" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3342,6 +3387,11 @@
       <c r="J54" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3417,12 @@
         </is>
       </c>
       <c r="E55" s="5" t="n">
-        <v>-2.29</v>
+        <v>13.33</v>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3387,6 +3442,11 @@
       <c r="J55" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3472,12 @@
         </is>
       </c>
       <c r="E56" s="5" t="n">
-        <v>-0.38</v>
+        <v>1.6</v>
+      </c>
+      <c r="F56" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3432,6 +3497,11 @@
       <c r="J56" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3527,12 @@
         </is>
       </c>
       <c r="E57" s="5" t="n">
-        <v>-0.33</v>
+        <v>4.12</v>
+      </c>
+      <c r="F57" s="7" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3477,6 +3552,11 @@
       <c r="J57" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -3502,11 +3582,11 @@
         </is>
       </c>
       <c r="E58" s="5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F58" s="7" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>16.7</v>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3531,7 +3611,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -3557,9 +3637,9 @@
         </is>
       </c>
       <c r="E59" s="5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F59" s="7" t="inlineStr">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F59" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -3612,7 +3692,12 @@
         </is>
       </c>
       <c r="E60" s="5" t="n">
-        <v>-15.89</v>
+        <v>-2.83</v>
+      </c>
+      <c r="F60" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3632,6 +3717,11 @@
       <c r="J60" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3657,9 +3747,9 @@
         </is>
       </c>
       <c r="E61" s="5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F61" s="7" t="inlineStr">
+        <v>0.15</v>
+      </c>
+      <c r="F61" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -3757,9 +3847,9 @@
         </is>
       </c>
       <c r="E63" s="8" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F63" s="6" t="inlineStr">
+        <v>4.11</v>
+      </c>
+      <c r="F63" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -3812,7 +3902,7 @@
         </is>
       </c>
       <c r="E64" s="8" t="n">
-        <v>790875.39</v>
+        <v>2102507.38</v>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
@@ -3867,7 +3957,7 @@
         </is>
       </c>
       <c r="E65" s="8" t="n">
-        <v>111006000</v>
+        <v>1037685000</v>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
@@ -3922,7 +4012,7 @@
         </is>
       </c>
       <c r="E66" s="8" t="n">
-        <v>2105580000</v>
+        <v>3580115000</v>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
@@ -3977,7 +4067,7 @@
         </is>
       </c>
       <c r="E67" s="8" t="n">
-        <v>819003000</v>
+        <v>2285015000</v>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
@@ -4032,7 +4122,7 @@
         </is>
       </c>
       <c r="E68" s="8" t="n">
-        <v>1619666000</v>
+        <v>1453382000</v>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
@@ -4087,7 +4177,7 @@
         </is>
       </c>
       <c r="E69" s="8" t="n">
-        <v>112714000</v>
+        <v>881323000</v>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
@@ -4142,7 +4232,7 @@
         </is>
       </c>
       <c r="E70" s="8" t="n">
-        <v>1506952000</v>
+        <v>572059000</v>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
@@ -4197,7 +4287,7 @@
         </is>
       </c>
       <c r="E71" s="8" t="n">
-        <v>253450400</v>
+        <v>252829198</v>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
@@ -4252,7 +4342,7 @@
         </is>
       </c>
       <c r="E72" s="8" t="n">
-        <v>1760402400</v>
+        <v>824888198</v>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
@@ -4307,7 +4397,7 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>0.5908</v>
+        <v>0.5708</v>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
@@ -4362,7 +4452,7 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>-8.8948</v>
+        <v>-0.1691</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4407,7 +4497,7 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>-0.4689</v>
+        <v>-0.049</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4452,7 +4542,12 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>-0.469</v>
+        <v>0.0118</v>
+      </c>
+      <c r="F76" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4472,6 +4567,11 @@
       <c r="J76" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -4497,9 +4597,9 @@
         </is>
       </c>
       <c r="E77" s="5" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F77" s="7" t="inlineStr">
+        <v>0.49</v>
+      </c>
+      <c r="F77" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -4552,9 +4652,9 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>-0.1149</v>
-      </c>
-      <c r="F78" s="7" t="inlineStr">
+        <v>-0.3776</v>
+      </c>
+      <c r="F78" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -4607,9 +4707,9 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>0.0491</v>
-      </c>
-      <c r="F79" s="7" t="inlineStr">
+        <v>-0.1366</v>
+      </c>
+      <c r="F79" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -4662,9 +4762,9 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>0.0619</v>
-      </c>
-      <c r="F80" s="7" t="inlineStr">
+        <v>-0.2847</v>
+      </c>
+      <c r="F80" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -4717,11 +4817,11 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>0.501</v>
-      </c>
-      <c r="F81" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>0.633</v>
+      </c>
+      <c r="F81" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4746,7 +4846,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Uma margem bruta entre 40% e 60% indica uma boa eficiência na produção e venda de produtos ou serviços. Isso é comum em setores que têm menos custos variáveis e uma estrutura de custo mais favorável, como serviços e algumas indústrias com alta diferenciação de produtos.</t>
+          <t>Uma margem bruta acima de 60% sugere uma alta eficiência na produção e venda, com um custo relativamente baixo em relação à receita. Isso é típico em setores com altas barreiras de entrada, baixo custo de produção, ou produtos/serviços de alto valor agregado, como tecnologia e software</t>
         </is>
       </c>
     </row>
@@ -4772,9 +4872,9 @@
         </is>
       </c>
       <c r="E82" s="5" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="F82" s="7" t="inlineStr">
+        <v>2.31</v>
+      </c>
+      <c r="F82" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -4796,12 +4896,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>ste nível indica que a empresa está altamente alavancada, com um montante significativo de dívida em relação ao patrimônio líquido. Isso pode sinalizar um alto risco financeiro e a possibilidade de dificuldades para cumprir obrigações de dívida, especialmente se a empresa enfrentar quedas nos lucros ou aumento nos custos de financiamento.</t>
+          <t>Este nível indica que a empresa está altamente alavancada, com um montante significativo de dívida em relação ao patrimônio líquido. Isso pode sinalizar um alto risco financeiro e a possibilidade de dificuldades para cumprir obrigações de dívida, especialmente se a empresa enfrentar quedas nos lucros ou aumento nos custos de financiamento</t>
         </is>
       </c>
     </row>
@@ -4827,11 +4927,11 @@
         </is>
       </c>
       <c r="E83" s="5" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="F83" s="7" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>-1.97</v>
+      </c>
+      <c r="F83" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4851,12 +4951,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentável</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise</t>
         </is>
       </c>
     </row>
@@ -4882,16 +4982,16 @@
         </is>
       </c>
       <c r="E84" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F84" s="7" t="inlineStr">
+        <v>-4.1</v>
+      </c>
+      <c r="F84" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4906,12 +5006,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
+          <t>Mínimo = 0, Máximo = 2</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Este valor sugere que a empresa está altamente alavancada e pode ter dificuldades para cumprir suas obrigações de dívida se o EBIT não for sustentável. Empresas com múltiplos superiores a 4 estão em uma posição financeira mais vulnerável e podem enfrentar problemas significativos se não conseguirem aumentar seus lucros ou reduzir suas dívidas</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentáve</t>
         </is>
       </c>
     </row>
@@ -4939,7 +5039,7 @@
       <c r="E85" s="5" t="n">
         <v>0.14</v>
       </c>
-      <c r="F85" s="7" t="inlineStr">
+      <c r="F85" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -4951,22 +5051,22 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitávei</t>
         </is>
       </c>
     </row>
@@ -4994,34 +5094,34 @@
       <c r="E86" s="5" t="n">
         <v>0.86</v>
       </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+      <c r="F86" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -5047,36 +5147,36 @@
         </is>
       </c>
       <c r="E87" s="5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F87" s="7" t="inlineStr">
+        <v>0.63</v>
+      </c>
+      <c r="F87" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um valor abaixo de 1 indica que a empresa possui mais passivos circulantes do que ativos circulantes, sugerindo que ela pode ter dificuldades em cumprir suas obrigações de curto prazo. Esse é um sinal de alerta, pois a empresa pode enfrentar problemas de liquidez, especialmente em momentos de pressão financeira</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5204,7 @@
       <c r="E88" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F88" s="7" t="inlineStr">
+      <c r="F88" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5157,7 +5257,7 @@
         </is>
       </c>
       <c r="E89" s="5" t="n">
-        <v>-4.38</v>
+        <v>-1.94</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5202,9 +5302,9 @@
         </is>
       </c>
       <c r="E90" s="5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F90" s="7" t="inlineStr">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F90" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5257,11 +5357,11 @@
         </is>
       </c>
       <c r="E91" s="5" t="n">
-        <v>2.52</v>
+        <v>3.02</v>
       </c>
       <c r="F91" s="7" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5286,7 +5386,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -5312,12 +5412,7 @@
         </is>
       </c>
       <c r="E92" s="5" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
+        <v>-4.54</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5337,11 +5432,6 @@
       <c r="J92" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -5367,12 +5457,7 @@
         </is>
       </c>
       <c r="E93" s="5" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
+        <v>-9.460000000000001</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5392,11 +5477,6 @@
       <c r="J93" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -5422,12 +5502,7 @@
         </is>
       </c>
       <c r="E94" s="5" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="F94" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
+        <v>-2.58</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5447,11 +5522,6 @@
       <c r="J94" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5547,7 @@
         </is>
       </c>
       <c r="E95" s="5" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
+        <v>-5.37</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5502,11 +5567,6 @@
       <c r="J95" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -5532,9 +5592,9 @@
         </is>
       </c>
       <c r="E96" s="5" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F96" s="7" t="inlineStr">
+        <v>0.54</v>
+      </c>
+      <c r="F96" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5587,9 +5647,9 @@
         </is>
       </c>
       <c r="E97" s="5" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F97" s="7" t="inlineStr">
+        <v>0.42</v>
+      </c>
+      <c r="F97" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5642,9 +5702,9 @@
         </is>
       </c>
       <c r="E98" s="5" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="F98" s="7" t="inlineStr">
+        <v>-0.84</v>
+      </c>
+      <c r="F98" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5697,9 +5757,9 @@
         </is>
       </c>
       <c r="E99" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F99" s="7" t="inlineStr">
+        <v>0.73</v>
+      </c>
+      <c r="F99" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5752,7 +5812,7 @@
         </is>
       </c>
       <c r="E100" s="5" t="n">
-        <v>-0.49</v>
+        <v>-0.58</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5797,9 +5857,9 @@
         </is>
       </c>
       <c r="E101" s="8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="F101" s="7" t="inlineStr">
+        <v>1.65</v>
+      </c>
+      <c r="F101" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5852,7 +5912,7 @@
         </is>
       </c>
       <c r="E102" s="8" t="n">
-        <v>375344.26</v>
+        <v>573399.76</v>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
@@ -5907,7 +5967,7 @@
         </is>
       </c>
       <c r="E103" s="8" t="n">
-        <v>287288000</v>
+        <v>278507000</v>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
@@ -5962,7 +6022,7 @@
         </is>
       </c>
       <c r="E104" s="8" t="n">
-        <v>2044038000</v>
+        <v>2010006000</v>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
@@ -6017,7 +6077,7 @@
         </is>
       </c>
       <c r="E105" s="8" t="n">
-        <v>570564000</v>
+        <v>569416000</v>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
@@ -6072,7 +6132,7 @@
         </is>
       </c>
       <c r="E106" s="8" t="n">
-        <v>644433000</v>
+        <v>673963000</v>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
@@ -6127,7 +6187,7 @@
         </is>
       </c>
       <c r="E107" s="8" t="n">
-        <v>9236000</v>
+        <v>31384000</v>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
@@ -6182,7 +6242,7 @@
         </is>
       </c>
       <c r="E108" s="8" t="n">
-        <v>635197000</v>
+        <v>642579000</v>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
@@ -6237,7 +6297,7 @@
         </is>
       </c>
       <c r="E109" s="8" t="n">
-        <v>723973021</v>
+        <v>842067911</v>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
@@ -6292,7 +6352,7 @@
         </is>
       </c>
       <c r="E110" s="8" t="n">
-        <v>1359170021</v>
+        <v>1484646911</v>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
@@ -6347,7 +6407,7 @@
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>0.0692</v>
+        <v>0.0706</v>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
@@ -6402,7 +6462,7 @@
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>-0.5747</v>
+        <v>-1.5567</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6447,7 +6507,7 @@
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>-0.0808</v>
+        <v>-0.2157</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6492,12 +6552,7 @@
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>0.0621</v>
-      </c>
-      <c r="F114" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
+        <v>-0.2088</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6517,11 +6572,6 @@
       <c r="J114" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -6547,9 +6597,9 @@
         </is>
       </c>
       <c r="E115" s="5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F115" s="7" t="inlineStr">
+        <v>0.57</v>
+      </c>
+      <c r="F115" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -6602,9 +6652,9 @@
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="F116" s="7" t="inlineStr">
+        <v>0.0311</v>
+      </c>
+      <c r="F116" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -6657,7 +6707,7 @@
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>0.1855</v>
+        <v>0.1603</v>
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
@@ -6712,7 +6762,7 @@
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>0.3436</v>
+        <v>0.3201</v>
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
@@ -6741,7 +6791,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Otima margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
+          <t>Uma margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
         </is>
       </c>
     </row>
@@ -6767,11 +6817,11 @@
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>0.2053</v>
+        <v>0.1773</v>
       </c>
       <c r="F119" s="6" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -6796,7 +6846,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Uma margem bruta nessa faixa é geralmente considerada moderada e pode ser típica de empresas com uma estrutura de custos mais equilibrada. Indica que a empresa está conseguindo controlar seus custos de produção de maneira razoável.</t>
+          <t>Uma margem bruta abaixo de 20% pode indicar que a empresa tem um custo de produção relativamente alto em relação à sua receita. Isso é comum em setores com altos custos de matéria-prima ou produção, como o varejo de alimentos e algumas indústrias manufatureiras.</t>
         </is>
       </c>
     </row>
@@ -6822,9 +6872,9 @@
         </is>
       </c>
       <c r="E120" s="5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="F120" s="6" t="inlineStr">
+        <v>1.38</v>
+      </c>
+      <c r="F120" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -6846,12 +6896,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Empresas com múltiplos nessa faixa estão mais alavancadas, o que pode aumentar o risco financeiro, especialmente em períodos de incerteza econômica. Essas empresas dependem mais de financiamento por dívida, o que pode afetar sua capacidade de enfrentar crises ou de expandir.</t>
+          <t>Empresas com múltiplos nessa faixa estão mais alavancadas, o que pode aumentar o risco financeiro, especialmente em períodos de incerteza econômica. Essas empresas dependem mais de financiamento por dívida, o que pode afetar sua capacidade de enfrentar crises ou de expandir</t>
         </is>
       </c>
     </row>
@@ -6877,9 +6927,9 @@
         </is>
       </c>
       <c r="E121" s="5" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F121" s="7" t="inlineStr">
+        <v>7.76</v>
+      </c>
+      <c r="F121" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -6901,12 +6951,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentável</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentável.</t>
         </is>
       </c>
     </row>
@@ -6932,16 +6982,11 @@
         </is>
       </c>
       <c r="E122" s="5" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="F122" s="7" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>15.49</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6956,12 +7001,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Este valor sugere que a empresa está altamente alavancada e pode ter dificuldades para cumprir suas obrigações de dívida se o EBIT não for sustentável. Empresas com múltiplos superiores a 4 estão em uma posição financeira mais vulnerável e podem enfrentar problemas significativos se não conseguirem aumentar seus lucros ou reduzir suas dívidas</t>
+          <t>Mínimo = 0, Máximo = 2</t>
         </is>
       </c>
     </row>
@@ -6987,9 +7027,9 @@
         </is>
       </c>
       <c r="E123" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F123" s="7" t="inlineStr">
+        <v>0.27</v>
+      </c>
+      <c r="F123" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -7001,22 +7041,22 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitávei</t>
         </is>
       </c>
     </row>
@@ -7042,36 +7082,36 @@
         </is>
       </c>
       <c r="E124" s="5" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F124" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>0.73</v>
+      </c>
+      <c r="F124" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -7097,36 +7137,36 @@
         </is>
       </c>
       <c r="E125" s="5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="F125" s="7" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>1.56</v>
+      </c>
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Essa faixa é vista como saudável, indicando que a empresa tem uma margem de segurança confortável para cobrir suas obrigações de curto prazo. Empresas com liquidez corrente nesta faixa geralmente são consideradas financeiramente estáveis</t>
         </is>
       </c>
     </row>
@@ -7152,9 +7192,9 @@
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>0.005699999999999999</v>
-      </c>
-      <c r="F126" s="7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F126" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -7207,7 +7247,7 @@
         </is>
       </c>
       <c r="E127" s="5" t="n">
-        <v>1811.43</v>
+        <v>32.52</v>
       </c>
       <c r="F127" s="4" t="inlineStr">
         <is>
@@ -7262,7 +7302,7 @@
         </is>
       </c>
       <c r="E128" s="5" t="n">
-        <v>-17.76</v>
+        <v>-0.18</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -7307,9 +7347,9 @@
         </is>
       </c>
       <c r="E129" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F129" s="7" t="inlineStr">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F129" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -7362,11 +7402,11 @@
         </is>
       </c>
       <c r="E130" s="5" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="F130" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>10.91</v>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -7391,7 +7431,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -7417,7 +7457,7 @@
         </is>
       </c>
       <c r="E131" s="5" t="n">
-        <v>17.12</v>
+        <v>21.8</v>
       </c>
       <c r="F131" s="4" t="inlineStr">
         <is>
@@ -7472,9 +7512,9 @@
         </is>
       </c>
       <c r="E132" s="5" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="F132" s="6" t="inlineStr">
+        <v>3.16</v>
+      </c>
+      <c r="F132" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -7527,11 +7567,11 @@
         </is>
       </c>
       <c r="E133" s="5" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F133" s="6" t="inlineStr">
-        <is>
-          <t>regular</t>
+        <v>6.32</v>
+      </c>
+      <c r="F133" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -7556,7 +7596,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -7582,7 +7622,7 @@
         </is>
       </c>
       <c r="E134" s="5" t="n">
-        <v>12.62</v>
+        <v>13.79</v>
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
@@ -7637,9 +7677,9 @@
         </is>
       </c>
       <c r="E135" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F135" s="7" t="inlineStr">
+        <v>0.15</v>
+      </c>
+      <c r="F135" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -7692,9 +7732,9 @@
         </is>
       </c>
       <c r="E136" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F136" s="7" t="inlineStr">
+        <v>0.24</v>
+      </c>
+      <c r="F136" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -7747,9 +7787,9 @@
         </is>
       </c>
       <c r="E137" s="5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F137" s="7" t="inlineStr">
+        <v>1.01</v>
+      </c>
+      <c r="F137" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -7802,7 +7842,7 @@
         </is>
       </c>
       <c r="E138" s="5" t="n">
-        <v>-0.26</v>
+        <v>-0.2</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -7847,11 +7887,11 @@
         </is>
       </c>
       <c r="E139" s="8" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="F139" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>7.77</v>
+      </c>
+      <c r="F139" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -7876,7 +7916,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -7902,7 +7942,7 @@
         </is>
       </c>
       <c r="E140" s="8" t="n">
-        <v>37843419.48</v>
+        <v>52147297</v>
       </c>
       <c r="F140" s="4" t="inlineStr">
         <is>
@@ -7957,7 +7997,7 @@
         </is>
       </c>
       <c r="E141" s="8" t="n">
-        <v>13251517000</v>
+        <v>14483354000</v>
       </c>
       <c r="F141" s="4" t="inlineStr">
         <is>
@@ -8012,7 +8052,7 @@
         </is>
       </c>
       <c r="E142" s="8" t="n">
-        <v>52266696000</v>
+        <v>52754117000</v>
       </c>
       <c r="F142" s="4" t="inlineStr">
         <is>
@@ -8067,7 +8107,7 @@
         </is>
       </c>
       <c r="E143" s="8" t="n">
-        <v>11093981000</v>
+        <v>11137794000</v>
       </c>
       <c r="F143" s="4" t="inlineStr">
         <is>
@@ -8122,7 +8162,7 @@
         </is>
       </c>
       <c r="E144" s="8" t="n">
-        <v>26161764000</v>
+        <v>27215299000</v>
       </c>
       <c r="F144" s="4" t="inlineStr">
         <is>
@@ -8177,7 +8217,7 @@
         </is>
       </c>
       <c r="E145" s="8" t="n">
-        <v>6162476000</v>
+        <v>7203178000</v>
       </c>
       <c r="F145" s="4" t="inlineStr">
         <is>
@@ -8232,7 +8272,7 @@
         </is>
       </c>
       <c r="E146" s="8" t="n">
-        <v>19999288000</v>
+        <v>20012121000</v>
       </c>
       <c r="F146" s="4" t="inlineStr">
         <is>
@@ -8287,7 +8327,7 @@
         </is>
       </c>
       <c r="E147" s="8" t="n">
-        <v>10535291079</v>
+        <v>8140429299</v>
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
@@ -8342,7 +8382,7 @@
         </is>
       </c>
       <c r="E148" s="8" t="n">
-        <v>30534579079</v>
+        <v>28152550299</v>
       </c>
       <c r="F148" s="4" t="inlineStr">
         <is>
@@ -8397,7 +8437,7 @@
         </is>
       </c>
       <c r="E149" s="2" t="n">
-        <v>0.3031</v>
+        <v>0.3082</v>
       </c>
       <c r="F149" s="4" t="inlineStr">
         <is>
@@ -8452,9 +8492,9 @@
         </is>
       </c>
       <c r="E150" s="2" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="F150" s="7" t="inlineStr">
+        <v>0.0173</v>
+      </c>
+      <c r="F150" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -8507,9 +8547,9 @@
         </is>
       </c>
       <c r="E151" s="2" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="F151" s="7" t="inlineStr">
+        <v>0.0048</v>
+      </c>
+      <c r="F151" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -8562,11 +8602,11 @@
         </is>
       </c>
       <c r="E152" s="2" t="n">
-        <v>0.0358</v>
+        <v>0.0248</v>
       </c>
       <c r="F152" s="6" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -8591,7 +8631,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -8617,9 +8657,9 @@
         </is>
       </c>
       <c r="E153" s="5" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F153" s="7" t="inlineStr">
+        <v>0.15</v>
+      </c>
+      <c r="F153" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -8672,7 +8712,7 @@
         </is>
       </c>
       <c r="E154" s="2" t="n">
-        <v>0.4397</v>
+        <v>0.4329</v>
       </c>
       <c r="F154" s="4" t="inlineStr">
         <is>
@@ -8727,7 +8767,7 @@
         </is>
       </c>
       <c r="E155" s="2" t="n">
-        <v>0.5929</v>
+        <v>0.5718</v>
       </c>
       <c r="F155" s="4" t="inlineStr">
         <is>
@@ -8782,7 +8822,7 @@
         </is>
       </c>
       <c r="E156" s="2" t="n">
-        <v>0.6292</v>
+        <v>0.6264</v>
       </c>
       <c r="F156" s="4" t="inlineStr">
         <is>
@@ -8811,7 +8851,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Otima margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
+          <t>Uma margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
         </is>
       </c>
     </row>
@@ -8837,7 +8877,7 @@
         </is>
       </c>
       <c r="E157" s="2" t="n">
-        <v>0.8993000000000001</v>
+        <v>0.8998</v>
       </c>
       <c r="F157" s="4" t="inlineStr">
         <is>
@@ -8892,7 +8932,7 @@
         </is>
       </c>
       <c r="E158" s="5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F158" s="4" t="inlineStr">
         <is>
@@ -8916,12 +8956,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida.</t>
+          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida</t>
         </is>
       </c>
     </row>
@@ -8947,7 +8987,7 @@
         </is>
       </c>
       <c r="E159" s="5" t="n">
-        <v>0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="F159" s="4" t="inlineStr">
         <is>
@@ -8971,12 +9011,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise</t>
         </is>
       </c>
     </row>
@@ -9002,16 +9042,16 @@
         </is>
       </c>
       <c r="E160" s="5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F160" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>-0.01</v>
+      </c>
+      <c r="F160" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -9026,12 +9066,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
+          <t>Mínimo = 0, Máximo = 2</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentáve</t>
         </is>
       </c>
     </row>
@@ -9059,6 +9099,11 @@
       <c r="E161" s="5" t="n">
         <v>0.41</v>
       </c>
+      <c r="F161" s="7" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
       <c r="G161" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 0.3</t>
@@ -9066,17 +9111,22 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Um índice nessa faixa sugere uma estrutura de capital com uma proporção razoável de patrimônio líquido em relação aos ativos. A empresa tem um equilíbrio entre o financiamento próprio e o financiamento externo. Esse nível de alavancagem é geralmente considerado moderado e pode ser típico em muitos setore</t>
         </is>
       </c>
     </row>
@@ -9104,34 +9154,34 @@
       <c r="E162" s="5" t="n">
         <v>0.59</v>
       </c>
-      <c r="F162" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+      <c r="F162" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Um índice entre 0,50 e 0,70 indica que a empresa possui uma boa proporção de patrimônio líquido em relação aos ativos, o que sugere uma sólida base financeira e uma menor dependência de dívidas. Empresas com valores nessa faixa geralmente têm uma estrutura de capital mais conservadora e são menos suscetíveis a riscos financeiros.</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -9157,36 +9207,36 @@
         </is>
       </c>
       <c r="E163" s="5" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F163" s="7" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>1.66</v>
+      </c>
+      <c r="F163" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Essa faixa é vista como saudável, indicando que a empresa tem uma margem de segurança confortável para cobrir suas obrigações de curto prazo. Empresas com liquidez corrente nesta faixa geralmente são consideradas financeiramente estáveis</t>
         </is>
       </c>
     </row>
@@ -9212,9 +9262,9 @@
         </is>
       </c>
       <c r="E164" s="2" t="n">
-        <v>0.0162</v>
-      </c>
-      <c r="F164" s="7" t="inlineStr">
+        <v>0.0289</v>
+      </c>
+      <c r="F164" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -9267,7 +9317,7 @@
         </is>
       </c>
       <c r="E165" s="5" t="n">
-        <v>15.31</v>
+        <v>14.38</v>
       </c>
       <c r="F165" s="4" t="inlineStr">
         <is>
@@ -9322,9 +9372,9 @@
         </is>
       </c>
       <c r="E166" s="5" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F166" s="7" t="inlineStr">
+        <v>1.34</v>
+      </c>
+      <c r="F166" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -9377,9 +9427,9 @@
         </is>
       </c>
       <c r="E167" s="5" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F167" s="6" t="inlineStr">
+        <v>3.58</v>
+      </c>
+      <c r="F167" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -9432,11 +9482,11 @@
         </is>
       </c>
       <c r="E168" s="5" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="F168" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>9.94</v>
+      </c>
+      <c r="F168" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -9461,7 +9511,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -9487,7 +9537,7 @@
         </is>
       </c>
       <c r="E169" s="5" t="n">
-        <v>11.41</v>
+        <v>10.89</v>
       </c>
       <c r="F169" s="4" t="inlineStr">
         <is>
@@ -9542,11 +9592,11 @@
         </is>
       </c>
       <c r="E170" s="5" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F170" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>9.94</v>
+      </c>
+      <c r="F170" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -9571,7 +9621,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9647,7 @@
         </is>
       </c>
       <c r="E171" s="5" t="n">
-        <v>11.36</v>
+        <v>10.89</v>
       </c>
       <c r="F171" s="4" t="inlineStr">
         <is>
@@ -9652,9 +9702,9 @@
         </is>
       </c>
       <c r="E172" s="5" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="F172" s="6" t="inlineStr">
+        <v>3.49</v>
+      </c>
+      <c r="F172" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -9707,9 +9757,9 @@
         </is>
       </c>
       <c r="E173" s="5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F173" s="7" t="inlineStr">
+        <v>1.46</v>
+      </c>
+      <c r="F173" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -9762,9 +9812,9 @@
         </is>
       </c>
       <c r="E174" s="5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F174" s="7" t="inlineStr">
+        <v>0.87</v>
+      </c>
+      <c r="F174" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -9817,7 +9867,7 @@
         </is>
       </c>
       <c r="E175" s="5" t="n">
-        <v>6.73</v>
+        <v>6.23</v>
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
@@ -9872,7 +9922,7 @@
         </is>
       </c>
       <c r="E176" s="5" t="n">
-        <v>-2.4</v>
+        <v>-2.19</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -9917,7 +9967,7 @@
         </is>
       </c>
       <c r="E177" s="8" t="n">
-        <v>13.76</v>
+        <v>12.48</v>
       </c>
       <c r="F177" s="4" t="inlineStr">
         <is>
@@ -9972,7 +10022,7 @@
         </is>
       </c>
       <c r="E178" s="8" t="n">
-        <v>545500206.52</v>
+        <v>604245941.67</v>
       </c>
       <c r="F178" s="4" t="inlineStr">
         <is>
@@ -10027,7 +10077,7 @@
         </is>
       </c>
       <c r="E179" s="8" t="n">
-        <v>18794551000</v>
+        <v>18383454000</v>
       </c>
       <c r="F179" s="4" t="inlineStr">
         <is>
@@ -10082,7 +10132,7 @@
         </is>
       </c>
       <c r="E180" s="8" t="n">
-        <v>46292029000</v>
+        <v>45228850000</v>
       </c>
       <c r="F180" s="4" t="inlineStr">
         <is>
@@ -10137,7 +10187,7 @@
         </is>
       </c>
       <c r="E181" s="8" t="n">
-        <v>16116282000</v>
+        <v>15187412000</v>
       </c>
       <c r="F181" s="4" t="inlineStr">
         <is>
@@ -10192,7 +10242,7 @@
         </is>
       </c>
       <c r="E182" s="8" t="n">
-        <v>14881775000</v>
+        <v>13228819000</v>
       </c>
       <c r="F182" s="4" t="inlineStr">
         <is>
@@ -10247,7 +10297,7 @@
         </is>
       </c>
       <c r="E183" s="8" t="n">
-        <v>14519084000</v>
+        <v>13300305000</v>
       </c>
       <c r="F183" s="4" t="inlineStr">
         <is>
@@ -10302,12 +10352,7 @@
         </is>
       </c>
       <c r="E184" s="8" t="n">
-        <v>362691000</v>
-      </c>
-      <c r="F184" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
+        <v>-71486000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -10327,11 +10372,6 @@
       <c r="J184" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10397,7 @@
         </is>
       </c>
       <c r="E185" s="8" t="n">
-        <v>72467040000</v>
+        <v>65883915000</v>
       </c>
       <c r="F185" s="4" t="inlineStr">
         <is>
@@ -10412,7 +10452,7 @@
         </is>
       </c>
       <c r="E186" s="8" t="n">
-        <v>72829731000</v>
+        <v>65812429000</v>
       </c>
       <c r="F186" s="4" t="inlineStr">
         <is>
@@ -10467,7 +10507,7 @@
         </is>
       </c>
       <c r="E187" s="2" t="n">
-        <v>0.9867</v>
+        <v>0.9876</v>
       </c>
       <c r="F187" s="4" t="inlineStr">
         <is>
@@ -10522,7 +10562,7 @@
         </is>
       </c>
       <c r="E188" s="2" t="n">
-        <v>0.2518</v>
+        <v>0.249</v>
       </c>
       <c r="F188" s="4" t="inlineStr">
         <is>
@@ -10577,7 +10617,7 @@
         </is>
       </c>
       <c r="E189" s="2" t="n">
-        <v>0.1022</v>
+        <v>0.1012</v>
       </c>
       <c r="F189" s="4" t="inlineStr">
         <is>
@@ -10632,7 +10672,7 @@
         </is>
       </c>
       <c r="E190" s="2" t="n">
-        <v>0.1391</v>
+        <v>0.1423</v>
       </c>
       <c r="F190" s="4" t="inlineStr">
         <is>
@@ -10689,7 +10729,7 @@
       <c r="E191" s="5" t="n">
         <v>0.23</v>
       </c>
-      <c r="F191" s="7" t="inlineStr">
+      <c r="F191" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -10742,11 +10782,11 @@
         </is>
       </c>
       <c r="E192" s="2" t="n">
-        <v>0.0886</v>
-      </c>
-      <c r="F192" s="6" t="inlineStr">
-        <is>
-          <t>regular</t>
+        <v>0.1067</v>
+      </c>
+      <c r="F192" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -10771,7 +10811,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Uma margem líquida nessa faixa é considerada moderada e pode ser típica de empresas que operam em setores com margens mais equilibradas, como algumas indústrias ou serviços. Reflete uma eficiência razoável em converter receita em lucro líquido.</t>
+          <t>Uma margem líquida entre 10% e 20% é geralmente considerada boa e indica uma empresa que é eficiente na gestão de suas despesas e custos, resultando em uma rentabilidade sólida. É comum em setores com menos concorrência e mais poder de precificação</t>
         </is>
       </c>
     </row>
@@ -10797,11 +10837,11 @@
         </is>
       </c>
       <c r="E193" s="2" t="n">
-        <v>0.06660000000000001</v>
-      </c>
-      <c r="F193" s="6" t="inlineStr">
-        <is>
-          <t>regular</t>
+        <v>0.1013</v>
+      </c>
+      <c r="F193" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -10826,7 +10866,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Uma margem EBIT nessa faixa é considerada moderada e pode ser típica de empresas em setores com margens mais equilibradas. Reflete uma eficiência operacional razoável, mas pode haver espaço para melhorar a rentabilidade operacional</t>
+          <t>Uma margem EBIT entre 10% e 20% indica uma boa eficiência operacional. A empresa consegue gerar uma quantidade significativa de lucro operacional em relação à receita líquida. Esse nível é comum em setores menos intensivos em capital e com uma boa capacidade de controle de custos</t>
         </is>
       </c>
     </row>
@@ -10854,7 +10894,7 @@
       <c r="E194" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F194" s="7" t="inlineStr">
+      <c r="F194" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -10907,9 +10947,9 @@
         </is>
       </c>
       <c r="E195" s="2" t="n">
-        <v>0.3683</v>
-      </c>
-      <c r="F195" s="6" t="inlineStr">
+        <v>0.3821</v>
+      </c>
+      <c r="F195" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -10986,12 +11026,12 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida.</t>
+          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida</t>
         </is>
       </c>
     </row>
@@ -11041,12 +11081,12 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise</t>
         </is>
       </c>
     </row>
@@ -11074,14 +11114,14 @@
       <c r="E198" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F198" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+      <c r="F198" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -11096,12 +11136,12 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
+          <t>Mínimo = 0, Máximo = 2</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentáve</t>
         </is>
       </c>
     </row>
@@ -11127,9 +11167,9 @@
         </is>
       </c>
       <c r="E199" s="5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F199" s="7" t="inlineStr">
+        <v>0.08</v>
+      </c>
+      <c r="F199" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -11141,22 +11181,22 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitávei</t>
         </is>
       </c>
     </row>
@@ -11184,34 +11224,34 @@
       <c r="E200" s="5" t="n">
         <v>0.92</v>
       </c>
-      <c r="F200" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+      <c r="F200" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11277,7 @@
         </is>
       </c>
       <c r="E201" s="5" t="n">
-        <v>14.03</v>
+        <v>10.06</v>
       </c>
       <c r="F201" s="4" t="inlineStr">
         <is>
@@ -11246,27 +11286,27 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>Um valor acima de 2 sugere que a empresa tem uma posição de liquidez muito forte, com ativos circulantes significativamente superiores aos passivos circulantes. Enquanto isso pode indicar uma gestão financeira conservadora, em alguns casos pode também sinalizar que a empresa não está utilizando seus ativos de forma eficiente para gerar retornos</t>
         </is>
       </c>
     </row>
@@ -11292,11 +11332,11 @@
         </is>
       </c>
       <c r="E202" s="2" t="n">
-        <v>0.1094</v>
-      </c>
-      <c r="F202" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>0.09140000000000001</v>
+      </c>
+      <c r="F202" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -11321,7 +11361,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -11347,9 +11387,9 @@
         </is>
       </c>
       <c r="E203" s="5" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F203" s="6" t="inlineStr">
+        <v>5.64</v>
+      </c>
+      <c r="F203" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -11402,7 +11442,7 @@
         </is>
       </c>
       <c r="E204" s="5" t="n">
-        <v>-0.18</v>
+        <v>-0.47</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -11447,9 +11487,9 @@
         </is>
       </c>
       <c r="E205" s="5" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F205" s="7" t="inlineStr">
+        <v>0.89</v>
+      </c>
+      <c r="F205" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -11504,7 +11544,7 @@
       <c r="E206" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F206" s="7" t="inlineStr">
+      <c r="F206" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -11557,11 +11597,11 @@
         </is>
       </c>
       <c r="E207" s="5" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F207" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>5.93</v>
+      </c>
+      <c r="F207" s="7" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -11586,7 +11626,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -11614,7 +11654,7 @@
       <c r="E208" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F208" s="7" t="inlineStr">
+      <c r="F208" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -11667,11 +11707,11 @@
         </is>
       </c>
       <c r="E209" s="5" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F209" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>5.94</v>
+      </c>
+      <c r="F209" s="7" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -11696,7 +11736,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -11722,7 +11762,7 @@
         </is>
       </c>
       <c r="E210" s="5" t="n">
-        <v>31.72</v>
+        <v>32.15</v>
       </c>
       <c r="F210" s="4" t="inlineStr">
         <is>
@@ -11777,9 +11817,9 @@
         </is>
       </c>
       <c r="E211" s="5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F211" s="7" t="inlineStr">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F211" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -11832,9 +11872,9 @@
         </is>
       </c>
       <c r="E212" s="5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F212" s="6" t="inlineStr">
+        <v>5.09</v>
+      </c>
+      <c r="F212" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -11887,9 +11927,9 @@
         </is>
       </c>
       <c r="E213" s="5" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F213" s="7" t="inlineStr">
+        <v>0.6</v>
+      </c>
+      <c r="F213" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -11942,7 +11982,7 @@
         </is>
       </c>
       <c r="E214" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -11987,7 +12027,7 @@
         </is>
       </c>
       <c r="E215" s="8" t="n">
-        <v>21.81</v>
+        <v>28.72</v>
       </c>
       <c r="F215" s="4" t="inlineStr">
         <is>
@@ -12042,7 +12082,7 @@
         </is>
       </c>
       <c r="E216" s="8" t="n">
-        <v>833474367.83</v>
+        <v>559301282.4299999</v>
       </c>
       <c r="F216" s="4" t="inlineStr">
         <is>
@@ -12097,7 +12137,7 @@
         </is>
       </c>
       <c r="E217" s="8" t="n">
-        <v>181793664000</v>
+        <v>184236344000</v>
       </c>
       <c r="F217" s="4" t="inlineStr">
         <is>
@@ -12152,7 +12192,7 @@
         </is>
       </c>
       <c r="E218" s="8" t="n">
-        <v>2427051877000</v>
+        <v>2398719197000</v>
       </c>
       <c r="F218" s="4" t="inlineStr">
         <is>
@@ -12207,7 +12247,7 @@
         </is>
       </c>
       <c r="E219" s="8" t="n">
-        <v>71510833000</v>
+        <v>83167243000</v>
       </c>
       <c r="F219" s="4" t="inlineStr">
         <is>
@@ -12264,7 +12304,7 @@
       <c r="E220" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F220" s="7" t="inlineStr">
+      <c r="F220" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12317,7 +12357,7 @@
         </is>
       </c>
       <c r="E221" s="8" t="n">
-        <v>71510833000</v>
+        <v>83167243000</v>
       </c>
       <c r="F221" s="4" t="inlineStr">
         <is>
@@ -12374,7 +12414,7 @@
       <c r="E222" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F222" s="7" t="inlineStr">
+      <c r="F222" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12427,7 +12467,7 @@
         </is>
       </c>
       <c r="E223" s="8" t="n">
-        <v>124989490412</v>
+        <v>164245703586</v>
       </c>
       <c r="F223" s="4" t="inlineStr">
         <is>
@@ -12482,7 +12522,7 @@
         </is>
       </c>
       <c r="E224" s="8" t="n">
-        <v>124989490412</v>
+        <v>164245703586</v>
       </c>
       <c r="F224" s="4" t="inlineStr">
         <is>
@@ -12592,7 +12632,7 @@
         </is>
       </c>
       <c r="E226" s="2" t="n">
-        <v>0.1357</v>
+        <v>0.1583</v>
       </c>
       <c r="F226" s="4" t="inlineStr">
         <is>
@@ -12647,9 +12687,9 @@
         </is>
       </c>
       <c r="E227" s="2" t="n">
-        <v>0.0102</v>
-      </c>
-      <c r="F227" s="7" t="inlineStr">
+        <v>0.0122</v>
+      </c>
+      <c r="F227" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12704,7 +12744,7 @@
       <c r="E228" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F228" s="7" t="inlineStr">
+      <c r="F228" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12759,7 +12799,7 @@
       <c r="E229" s="5" t="n">
         <v>0.11</v>
       </c>
-      <c r="F229" s="7" t="inlineStr">
+      <c r="F229" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12812,9 +12852,9 @@
         </is>
       </c>
       <c r="E230" s="2" t="n">
-        <v>0.0862</v>
-      </c>
-      <c r="F230" s="6" t="inlineStr">
+        <v>0.0823</v>
+      </c>
+      <c r="F230" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -12867,9 +12907,9 @@
         </is>
       </c>
       <c r="E231" s="2" t="n">
-        <v>0.08460000000000001</v>
-      </c>
-      <c r="F231" s="6" t="inlineStr">
+        <v>0.0793</v>
+      </c>
+      <c r="F231" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -12924,7 +12964,7 @@
       <c r="E232" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F232" s="7" t="inlineStr">
+      <c r="F232" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12977,9 +13017,9 @@
         </is>
       </c>
       <c r="E233" s="2" t="n">
-        <v>0.3269</v>
-      </c>
-      <c r="F233" s="6" t="inlineStr">
+        <v>0.3233</v>
+      </c>
+      <c r="F233" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -13056,12 +13096,12 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida.</t>
+          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida</t>
         </is>
       </c>
     </row>
@@ -13111,12 +13151,12 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise</t>
         </is>
       </c>
     </row>
@@ -13144,14 +13184,14 @@
       <c r="E236" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F236" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+      <c r="F236" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -13166,12 +13206,12 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
+          <t>Mínimo = 0, Máximo = 2</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentáve</t>
         </is>
       </c>
     </row>
@@ -13199,7 +13239,7 @@
       <c r="E237" s="5" t="n">
         <v>0.08</v>
       </c>
-      <c r="F237" s="7" t="inlineStr">
+      <c r="F237" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13211,22 +13251,22 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitávei</t>
         </is>
       </c>
     </row>
@@ -13254,34 +13294,34 @@
       <c r="E238" s="5" t="n">
         <v>0.92</v>
       </c>
-      <c r="F238" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+      <c r="F238" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -13307,7 +13347,7 @@
         </is>
       </c>
       <c r="E239" s="5" t="n">
-        <v>11.09</v>
+        <v>12.81</v>
       </c>
       <c r="F239" s="4" t="inlineStr">
         <is>
@@ -13316,27 +13356,27 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>Um valor acima de 2 sugere que a empresa tem uma posição de liquidez muito forte, com ativos circulantes significativamente superiores aos passivos circulantes. Enquanto isso pode indicar uma gestão financeira conservadora, em alguns casos pode também sinalizar que a empresa não está utilizando seus ativos de forma eficiente para gerar retornos</t>
         </is>
       </c>
     </row>
@@ -13362,11 +13402,11 @@
         </is>
       </c>
       <c r="E240" s="2" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="F240" s="6" t="inlineStr">
-        <is>
-          <t>regular</t>
+        <v>0.0849</v>
+      </c>
+      <c r="F240" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -13391,7 +13431,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -13417,7 +13457,7 @@
         </is>
       </c>
       <c r="E241" s="5" t="n">
-        <v>9.33</v>
+        <v>7.92</v>
       </c>
       <c r="F241" s="3" t="inlineStr">
         <is>
@@ -13472,9 +13512,9 @@
         </is>
       </c>
       <c r="E242" s="5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F242" s="7" t="inlineStr">
+        <v>0.38</v>
+      </c>
+      <c r="F242" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13527,9 +13567,9 @@
         </is>
       </c>
       <c r="E243" s="5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="F243" s="7" t="inlineStr">
+        <v>0.82</v>
+      </c>
+      <c r="F243" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13584,7 +13624,7 @@
       <c r="E244" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F244" s="7" t="inlineStr">
+      <c r="F244" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13637,7 +13677,7 @@
         </is>
       </c>
       <c r="E245" s="5" t="n">
-        <v>8.85</v>
+        <v>7.81</v>
       </c>
       <c r="F245" s="3" t="inlineStr">
         <is>
@@ -13694,7 +13734,7 @@
       <c r="E246" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F246" s="7" t="inlineStr">
+      <c r="F246" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13747,7 +13787,7 @@
         </is>
       </c>
       <c r="E247" s="5" t="n">
-        <v>9.51</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="F247" s="3" t="inlineStr">
         <is>
@@ -13802,7 +13842,7 @@
         </is>
       </c>
       <c r="E248" s="5" t="n">
-        <v>16.1</v>
+        <v>15.95</v>
       </c>
       <c r="F248" s="4" t="inlineStr">
         <is>
@@ -13857,9 +13897,9 @@
         </is>
       </c>
       <c r="E249" s="5" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F249" s="7" t="inlineStr">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F249" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13912,9 +13952,9 @@
         </is>
       </c>
       <c r="E250" s="5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F250" s="7" t="inlineStr">
+        <v>1.66</v>
+      </c>
+      <c r="F250" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13967,9 +14007,9 @@
         </is>
       </c>
       <c r="E251" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F251" s="7" t="inlineStr">
+        <v>0.65</v>
+      </c>
+      <c r="F251" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14022,7 +14062,7 @@
         </is>
       </c>
       <c r="E252" s="5" t="n">
-        <v>-0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -14067,7 +14107,7 @@
         </is>
       </c>
       <c r="E253" s="8" t="n">
-        <v>16.75</v>
+        <v>13.09</v>
       </c>
       <c r="F253" s="4" t="inlineStr">
         <is>
@@ -14122,7 +14162,7 @@
         </is>
       </c>
       <c r="E254" s="8" t="n">
-        <v>538414385.48</v>
+        <v>432274006.24</v>
       </c>
       <c r="F254" s="4" t="inlineStr">
         <is>
@@ -14177,7 +14217,7 @@
         </is>
       </c>
       <c r="E255" s="8" t="n">
-        <v>170501799000</v>
+        <v>168942492000</v>
       </c>
       <c r="F255" s="4" t="inlineStr">
         <is>
@@ -14232,7 +14272,7 @@
         </is>
       </c>
       <c r="E256" s="8" t="n">
-        <v>2054649704000</v>
+        <v>2069506045000</v>
       </c>
       <c r="F256" s="4" t="inlineStr">
         <is>
@@ -14287,7 +14327,7 @@
         </is>
       </c>
       <c r="E257" s="8" t="n">
-        <v>171220729000</v>
+        <v>208023801000</v>
       </c>
       <c r="F257" s="4" t="inlineStr">
         <is>
@@ -14344,7 +14384,7 @@
       <c r="E258" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F258" s="7" t="inlineStr">
+      <c r="F258" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14397,7 +14437,7 @@
         </is>
       </c>
       <c r="E259" s="8" t="n">
-        <v>171220729000</v>
+        <v>208023801000</v>
       </c>
       <c r="F259" s="4" t="inlineStr">
         <is>
@@ -14454,7 +14494,7 @@
       <c r="E260" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F260" s="7" t="inlineStr">
+      <c r="F260" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14507,7 +14547,7 @@
         </is>
       </c>
       <c r="E261" s="8" t="n">
-        <v>165164259965</v>
+        <v>132071536611</v>
       </c>
       <c r="F261" s="4" t="inlineStr">
         <is>
@@ -14562,7 +14602,7 @@
         </is>
       </c>
       <c r="E262" s="8" t="n">
-        <v>165164259965</v>
+        <v>132071536611</v>
       </c>
       <c r="F262" s="4" t="inlineStr">
         <is>
@@ -14617,7 +14657,7 @@
         </is>
       </c>
       <c r="E263" s="2" t="n">
-        <v>0.6207</v>
+        <v>0.6213000000000001</v>
       </c>
       <c r="F263" s="4" t="inlineStr">
         <is>
@@ -14672,7 +14712,7 @@
         </is>
       </c>
       <c r="E264" s="2" t="n">
-        <v>0.1115</v>
+        <v>0.1038</v>
       </c>
       <c r="F264" s="4" t="inlineStr">
         <is>
@@ -14727,9 +14767,9 @@
         </is>
       </c>
       <c r="E265" s="2" t="n">
-        <v>0.009300000000000001</v>
-      </c>
-      <c r="F265" s="7" t="inlineStr">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="F265" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14784,7 +14824,7 @@
       <c r="E266" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F266" s="7" t="inlineStr">
+      <c r="F266" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14837,9 +14877,9 @@
         </is>
       </c>
       <c r="E267" s="5" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F267" s="7" t="inlineStr">
+        <v>0.1</v>
+      </c>
+      <c r="F267" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14894,7 +14934,7 @@
       <c r="E268" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F268" s="7" t="inlineStr">
+      <c r="F268" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14949,7 +14989,7 @@
       <c r="E269" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F269" s="7" t="inlineStr">
+      <c r="F269" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15004,7 +15044,7 @@
       <c r="E270" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F270" s="7" t="inlineStr">
+      <c r="F270" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15059,7 +15099,7 @@
       <c r="E271" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F271" s="7" t="inlineStr">
+      <c r="F271" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15136,12 +15176,12 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida.</t>
+          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida</t>
         </is>
       </c>
     </row>
@@ -15191,12 +15231,12 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise</t>
         </is>
       </c>
     </row>
@@ -15224,14 +15264,14 @@
       <c r="E274" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F274" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+      <c r="F274" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -15246,12 +15286,12 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
+          <t>Mínimo = 0, Máximo = 2</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentáve</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15317,12 @@
         </is>
       </c>
       <c r="E275" s="5" t="n">
-        <v>0.63</v>
+        <v>0.45</v>
+      </c>
+      <c r="F275" s="7" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -15286,17 +15331,22 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>Um índice nessa faixa sugere uma estrutura de capital com uma proporção razoável de patrimônio líquido em relação aos ativos. A empresa tem um equilíbrio entre o financiamento próprio e o financiamento externo. Esse nível de alavancagem é geralmente considerado moderado e pode ser típico em muitos setore</t>
         </is>
       </c>
     </row>
@@ -15322,36 +15372,36 @@
         </is>
       </c>
       <c r="E276" s="5" t="n">
-        <v>0.37</v>
+        <v>0.55</v>
       </c>
       <c r="F276" s="6" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Um índice nessa faixa sugere uma estrutura de capital com uma proporção razoável de patrimônio líquido em relação aos ativos. A empresa tem um equilíbrio entre o financiamento próprio e o financiamento externo. Esse nível de alavancagem é geralmente considerado moderado e pode ser típico em muitos setores.</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -15377,36 +15427,36 @@
         </is>
       </c>
       <c r="E277" s="5" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="F277" s="7" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um múltiplo nesta faixa é geralmente considerado aceitável, significando que a empresa possui ativos circulantes suficientes para cobrir suas obrigações de curto prazo. No entanto, esse nível de liquidez pode ser considerado baixo em setores com alta volatilidade nos fluxos de caixa ou onde os ciclos de pagamento e recebimento são longos.</t>
         </is>
       </c>
     </row>
@@ -15432,11 +15482,11 @@
         </is>
       </c>
       <c r="E278" s="2" t="n">
-        <v>0.1043</v>
-      </c>
-      <c r="F278" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>0.09210000000000002</v>
+      </c>
+      <c r="F278" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -15461,7 +15511,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -15487,7 +15537,7 @@
         </is>
       </c>
       <c r="E279" s="5" t="n">
-        <v>8.23</v>
+        <v>9.26</v>
       </c>
       <c r="F279" s="3" t="inlineStr">
         <is>
@@ -15542,9 +15592,9 @@
         </is>
       </c>
       <c r="E280" s="5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="F280" s="7" t="inlineStr">
+        <v>0.97</v>
+      </c>
+      <c r="F280" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15597,7 +15647,7 @@
         </is>
       </c>
       <c r="E281" s="5" t="n">
-        <v>6.1</v>
+        <v>8.31</v>
       </c>
       <c r="F281" s="3" t="inlineStr">
         <is>
@@ -15654,7 +15704,7 @@
       <c r="E282" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F282" s="7" t="inlineStr">
+      <c r="F282" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15707,7 +15757,7 @@
         </is>
       </c>
       <c r="E283" s="5" t="n">
-        <v>7.35</v>
+        <v>8.25</v>
       </c>
       <c r="F283" s="3" t="inlineStr">
         <is>
@@ -15764,7 +15814,7 @@
       <c r="E284" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F284" s="7" t="inlineStr">
+      <c r="F284" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15817,7 +15867,7 @@
         </is>
       </c>
       <c r="E285" s="5" t="n">
-        <v>7.35</v>
+        <v>8.26</v>
       </c>
       <c r="F285" s="3" t="inlineStr">
         <is>
@@ -15872,9 +15922,9 @@
         </is>
       </c>
       <c r="E286" s="5" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="F286" s="6" t="inlineStr">
+        <v>4.85</v>
+      </c>
+      <c r="F286" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -15927,9 +15977,9 @@
         </is>
       </c>
       <c r="E287" s="5" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F287" s="6" t="inlineStr">
+        <v>3.73</v>
+      </c>
+      <c r="F287" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -15982,9 +16032,9 @@
         </is>
       </c>
       <c r="E288" s="5" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F288" s="6" t="inlineStr">
+        <v>4.35</v>
+      </c>
+      <c r="F288" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -16039,7 +16089,7 @@
       <c r="E289" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F289" s="7" t="inlineStr">
+      <c r="F289" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -16092,7 +16142,7 @@
         </is>
       </c>
       <c r="E290" s="5" t="n">
-        <v>-6.63</v>
+        <v>-6.88</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -16137,7 +16187,7 @@
         </is>
       </c>
       <c r="E291" s="8" t="n">
-        <v>35.57</v>
+        <v>40.3</v>
       </c>
       <c r="F291" s="4" t="inlineStr">
         <is>
@@ -16192,7 +16242,7 @@
         </is>
       </c>
       <c r="E292" s="8" t="n">
-        <v>177010295.61</v>
+        <v>176708842.76</v>
       </c>
       <c r="F292" s="4" t="inlineStr">
         <is>
@@ -16247,7 +16297,7 @@
         </is>
       </c>
       <c r="E293" s="8" t="n">
-        <v>11661962000</v>
+        <v>9695421000</v>
       </c>
       <c r="F293" s="4" t="inlineStr">
         <is>
@@ -16302,7 +16352,7 @@
         </is>
       </c>
       <c r="E294" s="8" t="n">
-        <v>18524267000</v>
+        <v>21615587000</v>
       </c>
       <c r="F294" s="4" t="inlineStr">
         <is>
@@ -16357,7 +16407,7 @@
         </is>
       </c>
       <c r="E295" s="8" t="n">
-        <v>7793681000</v>
+        <v>9905706000</v>
       </c>
       <c r="F295" s="4" t="inlineStr">
         <is>
@@ -16414,7 +16464,7 @@
       <c r="E296" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F296" s="7" t="inlineStr">
+      <c r="F296" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -16467,7 +16517,7 @@
         </is>
       </c>
       <c r="E297" s="8" t="n">
-        <v>6455132000</v>
+        <v>8508976000</v>
       </c>
       <c r="F297" s="4" t="inlineStr">
         <is>
@@ -16524,7 +16574,7 @@
       <c r="E298" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F298" s="7" t="inlineStr">
+      <c r="F298" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -16577,7 +16627,7 @@
         </is>
       </c>
       <c r="E299" s="8" t="n">
-        <v>71140000000</v>
+        <v>80540000000</v>
       </c>
       <c r="F299" s="4" t="inlineStr">
         <is>
@@ -16632,7 +16682,7 @@
         </is>
       </c>
       <c r="E300" s="8" t="n">
-        <v>71140000000</v>
+        <v>80540000000</v>
       </c>
       <c r="F300" s="4" t="inlineStr">
         <is>
@@ -16687,7 +16737,7 @@
         </is>
       </c>
       <c r="E301" s="2" t="n">
-        <v>0.3081</v>
+        <v>0.3187</v>
       </c>
       <c r="F301" s="4" t="inlineStr">
         <is>
@@ -16742,7 +16792,7 @@
         </is>
       </c>
       <c r="E302" s="2" t="n">
-        <v>0.7413</v>
+        <v>0.8976999999999999</v>
       </c>
       <c r="F302" s="4" t="inlineStr">
         <is>
@@ -16797,7 +16847,7 @@
         </is>
       </c>
       <c r="E303" s="2" t="n">
-        <v>0.4667</v>
+        <v>0.4026</v>
       </c>
       <c r="F303" s="4" t="inlineStr">
         <is>
@@ -16854,7 +16904,7 @@
       <c r="E304" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F304" s="7" t="inlineStr">
+      <c r="F304" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -16909,7 +16959,7 @@
       <c r="E305" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F305" s="7" t="inlineStr">
+      <c r="F305" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -16964,7 +17014,7 @@
       <c r="E306" s="2" t="n">
         <v>-0.05980000000000001</v>
       </c>
-      <c r="F306" s="7" t="inlineStr">
+      <c r="F306" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17019,7 +17069,7 @@
       <c r="E307" s="2" t="n">
         <v>-0.0182</v>
       </c>
-      <c r="F307" s="7" t="inlineStr">
+      <c r="F307" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17074,7 +17124,7 @@
       <c r="E308" s="2" t="n">
         <v>0.0211</v>
       </c>
-      <c r="F308" s="7" t="inlineStr">
+      <c r="F308" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17129,7 +17179,7 @@
       <c r="E309" s="2" t="n">
         <v>0.3006</v>
       </c>
-      <c r="F309" s="6" t="inlineStr">
+      <c r="F309" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -17184,7 +17234,7 @@
       <c r="E310" s="5" t="n">
         <v>2.15</v>
       </c>
-      <c r="F310" s="7" t="inlineStr">
+      <c r="F310" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17206,12 +17256,12 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>ste nível indica que a empresa está altamente alavancada, com um montante significativo de dívida em relação ao patrimônio líquido. Isso pode sinalizar um alto risco financeiro e a possibilidade de dificuldades para cumprir obrigações de dívida, especialmente se a empresa enfrentar quedas nos lucros ou aumento nos custos de financiamento.</t>
+          <t>Este nível indica que a empresa está altamente alavancada, com um montante significativo de dívida em relação ao patrimônio líquido. Isso pode sinalizar um alto risco financeiro e a possibilidade de dificuldades para cumprir obrigações de dívida, especialmente se a empresa enfrentar quedas nos lucros ou aumento nos custos de financiamento</t>
         </is>
       </c>
     </row>
@@ -17239,7 +17289,7 @@
       <c r="E311" s="5" t="n">
         <v>12.38</v>
       </c>
-      <c r="F311" s="7" t="inlineStr">
+      <c r="F311" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17261,12 +17311,12 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentável</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentável.</t>
         </is>
       </c>
     </row>
@@ -17294,9 +17344,14 @@
       <c r="E312" s="5" t="n">
         <v>-14.38</v>
       </c>
+      <c r="F312" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -17311,7 +17366,12 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
+          <t>Mínimo = 0, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentáve</t>
         </is>
       </c>
     </row>
@@ -17339,7 +17399,7 @@
       <c r="E313" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="F313" s="7" t="inlineStr">
+      <c r="F313" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17351,22 +17411,22 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitávei</t>
         </is>
       </c>
     </row>
@@ -17394,34 +17454,34 @@
       <c r="E314" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="F314" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+      <c r="F314" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -17449,34 +17509,34 @@
       <c r="E315" s="5" t="n">
         <v>0.76</v>
       </c>
-      <c r="F315" s="7" t="inlineStr">
+      <c r="F315" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um valor abaixo de 1 indica que a empresa possui mais passivos circulantes do que ativos circulantes, sugerindo que ela pode ter dificuldades em cumprir suas obrigações de curto prazo. Esse é um sinal de alerta, pois a empresa pode enfrentar problemas de liquidez, especialmente em momentos de pressão financeira</t>
         </is>
       </c>
     </row>
@@ -17504,7 +17564,7 @@
       <c r="E316" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F316" s="7" t="inlineStr">
+      <c r="F316" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17557,7 +17617,7 @@
         </is>
       </c>
       <c r="E317" s="5" t="n">
-        <v>-0.22</v>
+        <v>-0.6</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -17602,9 +17662,9 @@
         </is>
       </c>
       <c r="E318" s="5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F318" s="7" t="inlineStr">
+        <v>0.06</v>
+      </c>
+      <c r="F318" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17657,9 +17717,9 @@
         </is>
       </c>
       <c r="E319" s="5" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F319" s="7" t="inlineStr">
+        <v>0.3</v>
+      </c>
+      <c r="F319" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17712,7 +17772,7 @@
         </is>
       </c>
       <c r="E320" s="5" t="n">
-        <v>13</v>
+        <v>14.07</v>
       </c>
       <c r="F320" s="4" t="inlineStr">
         <is>
@@ -17767,7 +17827,7 @@
         </is>
       </c>
       <c r="E321" s="5" t="n">
-        <v>-15.09</v>
+        <v>-16.34</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -17812,9 +17872,9 @@
         </is>
       </c>
       <c r="E322" s="5" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F322" s="7" t="inlineStr">
+        <v>1.7</v>
+      </c>
+      <c r="F322" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17867,7 +17927,7 @@
         </is>
       </c>
       <c r="E323" s="5" t="n">
-        <v>-0.71</v>
+        <v>-1.98</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -17967,9 +18027,9 @@
         </is>
       </c>
       <c r="E325" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F325" s="7" t="inlineStr">
+        <v>0.03</v>
+      </c>
+      <c r="F325" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -18067,9 +18127,9 @@
         </is>
       </c>
       <c r="E327" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F327" s="7" t="inlineStr">
+        <v>0.04</v>
+      </c>
+      <c r="F327" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -18122,7 +18182,7 @@
         </is>
       </c>
       <c r="E328" s="5" t="n">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -18167,11 +18227,11 @@
         </is>
       </c>
       <c r="E329" s="8" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="F329" s="6" t="inlineStr">
-        <is>
-          <t>regular</t>
+        <v>10.09</v>
+      </c>
+      <c r="F329" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -18196,7 +18256,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -18222,7 +18282,7 @@
         </is>
       </c>
       <c r="E330" s="8" t="n">
-        <v>16043680.3</v>
+        <v>51683650.95</v>
       </c>
       <c r="F330" s="4" t="inlineStr">
         <is>
@@ -18607,7 +18667,7 @@
         </is>
       </c>
       <c r="E337" s="8" t="n">
-        <v>344214929</v>
+        <v>948968230</v>
       </c>
       <c r="F337" s="4" t="inlineStr">
         <is>
@@ -18662,7 +18722,7 @@
         </is>
       </c>
       <c r="E338" s="8" t="n">
-        <v>7303214929</v>
+        <v>7907968230</v>
       </c>
       <c r="F338" s="4" t="inlineStr">
         <is>
@@ -18717,7 +18777,7 @@
         </is>
       </c>
       <c r="E339" s="2" t="n">
-        <v>0.9998</v>
+        <v>0.9987</v>
       </c>
       <c r="F339" s="4" t="inlineStr">
         <is>
@@ -18909,7 +18969,7 @@
       <c r="E343" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="F343" s="7" t="inlineStr">
+      <c r="F343" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -18964,7 +19024,7 @@
       <c r="E344" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F344" s="7" t="inlineStr">
+      <c r="F344" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19019,7 +19079,7 @@
       <c r="E345" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F345" s="7" t="inlineStr">
+      <c r="F345" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19074,7 +19134,7 @@
       <c r="E346" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F346" s="7" t="inlineStr">
+      <c r="F346" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19129,7 +19189,7 @@
       <c r="E347" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F347" s="7" t="inlineStr">
+      <c r="F347" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19206,12 +19266,12 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida.</t>
+          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida</t>
         </is>
       </c>
     </row>
@@ -19261,12 +19321,12 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise</t>
         </is>
       </c>
     </row>
@@ -19294,14 +19354,14 @@
       <c r="E350" s="5" t="n">
         <v>-0.17</v>
       </c>
-      <c r="F350" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+      <c r="F350" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -19316,12 +19376,12 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
+          <t>Mínimo = 0, Máximo = 2</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentáve</t>
         </is>
       </c>
     </row>
@@ -19349,6 +19409,11 @@
       <c r="E351" s="5" t="n">
         <v>0.99</v>
       </c>
+      <c r="F351" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G351" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 0.3</t>
@@ -19356,17 +19421,22 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios</t>
         </is>
       </c>
     </row>
@@ -19394,34 +19464,34 @@
       <c r="E352" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="F352" s="7" t="inlineStr">
+      <c r="F352" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitáveis</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -19449,34 +19519,34 @@
       <c r="E353" s="5" t="n">
         <v>5.41</v>
       </c>
-      <c r="F353" s="6" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="F353" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>Um valor acima de 2 sugere que a empresa tem uma posição de liquidez muito forte, com ativos circulantes significativamente superiores aos passivos circulantes. Enquanto isso pode indicar uma gestão financeira conservadora, em alguns casos pode também sinalizar que a empresa não está utilizando seus ativos de forma eficiente para gerar retornos</t>
         </is>
       </c>
     </row>
@@ -19502,7 +19572,7 @@
         </is>
       </c>
       <c r="E354" s="2" t="n">
-        <v>0.1325</v>
+        <v>0.1259</v>
       </c>
       <c r="F354" s="4" t="inlineStr">
         <is>
@@ -19557,9 +19627,9 @@
         </is>
       </c>
       <c r="E355" s="5" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F355" s="6" t="inlineStr">
+        <v>3.98</v>
+      </c>
+      <c r="F355" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -19612,7 +19682,7 @@
         </is>
       </c>
       <c r="E356" s="5" t="n">
-        <v>-0.22</v>
+        <v>-0.26</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -19657,9 +19727,9 @@
         </is>
       </c>
       <c r="E357" s="5" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F357" s="7" t="inlineStr">
+        <v>0.85</v>
+      </c>
+      <c r="F357" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19714,7 +19784,7 @@
       <c r="E358" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F358" s="7" t="inlineStr">
+      <c r="F358" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19767,9 +19837,9 @@
         </is>
       </c>
       <c r="E359" s="5" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="F359" s="6" t="inlineStr">
+        <v>3.83</v>
+      </c>
+      <c r="F359" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -19824,7 +19894,7 @@
       <c r="E360" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F360" s="7" t="inlineStr">
+      <c r="F360" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19877,9 +19947,9 @@
         </is>
       </c>
       <c r="E361" s="5" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="F361" s="6" t="inlineStr">
+        <v>4.1</v>
+      </c>
+      <c r="F361" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -19987,9 +20057,9 @@
         </is>
       </c>
       <c r="E363" s="5" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F363" s="7" t="inlineStr">
+        <v>0.84</v>
+      </c>
+      <c r="F363" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -20044,7 +20114,7 @@
       <c r="E364" s="5" t="n">
         <v>4.59</v>
       </c>
-      <c r="F364" s="6" t="inlineStr">
+      <c r="F364" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -20099,7 +20169,7 @@
       <c r="E365" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F365" s="7" t="inlineStr">
+      <c r="F365" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -20152,7 +20222,7 @@
         </is>
       </c>
       <c r="E366" s="5" t="n">
-        <v>-0.73</v>
+        <v>-0.87</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -20197,7 +20267,7 @@
         </is>
       </c>
       <c r="E367" s="8" t="n">
-        <v>15.31</v>
+        <v>18.23</v>
       </c>
       <c r="F367" s="4" t="inlineStr">
         <is>
@@ -20252,7 +20322,7 @@
         </is>
       </c>
       <c r="E368" s="8" t="n">
-        <v>64123651.7</v>
+        <v>49924536.71</v>
       </c>
       <c r="F368" s="4" t="inlineStr">
         <is>
@@ -20474,7 +20544,7 @@
       <c r="E372" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F372" s="7" t="inlineStr">
+      <c r="F372" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -20627,7 +20697,7 @@
         </is>
       </c>
       <c r="E375" s="8" t="n">
-        <v>5899637787</v>
+        <v>6986346871</v>
       </c>
       <c r="F375" s="4" t="inlineStr">
         <is>
@@ -20682,7 +20752,7 @@
         </is>
       </c>
       <c r="E376" s="8" t="n">
-        <v>5604906787</v>
+        <v>6691615871</v>
       </c>
       <c r="F376" s="4" t="inlineStr">
         <is>
@@ -20959,7 +21029,7 @@
       <c r="E381" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F381" s="7" t="inlineStr">
+      <c r="F381" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -21012,7 +21082,7 @@
         </is>
       </c>
       <c r="E382" s="2" t="n">
-        <v>0.1725</v>
+        <v>0.1787</v>
       </c>
       <c r="F382" s="3" t="inlineStr">
         <is>
@@ -21067,7 +21137,7 @@
         </is>
       </c>
       <c r="E383" s="2" t="n">
-        <v>0.2379</v>
+        <v>0.2481</v>
       </c>
       <c r="F383" s="4" t="inlineStr">
         <is>
@@ -21122,7 +21192,7 @@
         </is>
       </c>
       <c r="E384" s="2" t="n">
-        <v>0.2726</v>
+        <v>0.2826</v>
       </c>
       <c r="F384" s="3" t="inlineStr">
         <is>
@@ -21177,11 +21247,11 @@
         </is>
       </c>
       <c r="E385" s="2" t="n">
-        <v>0.1963</v>
+        <v>0.2048</v>
       </c>
       <c r="F385" s="7" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -21206,7 +21276,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Uma margem bruta abaixo de 20% pode indicar que a empresa tem um custo de produção relativamente alto em relação à sua receita. Isso é comum em setores com altos custos de matéria-prima ou produção, como o varejo de alimentos e algumas indústrias manufatureiras.</t>
+          <t>Uma margem bruta nessa faixa é geralmente considerada moderada e pode ser típica de empresas com uma estrutura de custos mais equilibrada. Indica que a empresa está conseguindo controlar seus custos de produção de maneira razoável.</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21302,7 @@
         </is>
       </c>
       <c r="E386" s="5" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F386" s="4" t="inlineStr">
         <is>
@@ -21256,12 +21326,12 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida.</t>
+          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida</t>
         </is>
       </c>
     </row>
@@ -21287,7 +21357,7 @@
         </is>
       </c>
       <c r="E387" s="5" t="n">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F387" s="4" t="inlineStr">
         <is>
@@ -21311,12 +21381,12 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise</t>
         </is>
       </c>
     </row>
@@ -21342,16 +21412,16 @@
         </is>
       </c>
       <c r="E388" s="5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F388" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>1.01</v>
+      </c>
+      <c r="F388" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -21366,12 +21436,12 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
+          <t>Mínimo = 0, Máximo = 2</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentáve</t>
         </is>
       </c>
     </row>
@@ -21397,7 +21467,12 @@
         </is>
       </c>
       <c r="E389" s="5" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
+      </c>
+      <c r="F389" s="7" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -21406,17 +21481,22 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>Um índice nessa faixa sugere uma estrutura de capital com uma proporção razoável de patrimônio líquido em relação aos ativos. A empresa tem um equilíbrio entre o financiamento próprio e o financiamento externo. Esse nível de alavancagem é geralmente considerado moderado e pode ser típico em muitos setore</t>
         </is>
       </c>
     </row>
@@ -21442,36 +21522,36 @@
         </is>
       </c>
       <c r="E390" s="5" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F390" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>0.54</v>
+      </c>
+      <c r="F390" s="6" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Um índice entre 0,50 e 0,70 indica que a empresa possui uma boa proporção de patrimônio líquido em relação aos ativos, o que sugere uma sólida base financeira e uma menor dependência de dívidas. Empresas com valores nessa faixa geralmente têm uma estrutura de capital mais conservadora e são menos suscetíveis a riscos financeiros.</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -21497,36 +21577,36 @@
         </is>
       </c>
       <c r="E391" s="5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="F391" s="7" t="inlineStr">
+        <v>0.86</v>
+      </c>
+      <c r="F391" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um valor abaixo de 1 indica que a empresa possui mais passivos circulantes do que ativos circulantes, sugerindo que ela pode ter dificuldades em cumprir suas obrigações de curto prazo. Esse é um sinal de alerta, pois a empresa pode enfrentar problemas de liquidez, especialmente em momentos de pressão financeira</t>
         </is>
       </c>
     </row>
@@ -21552,7 +21632,7 @@
         </is>
       </c>
       <c r="E392" s="2" t="n">
-        <v>0.1631</v>
+        <v>0.1496</v>
       </c>
       <c r="F392" s="4" t="inlineStr">
         <is>
@@ -21607,9 +21687,9 @@
         </is>
       </c>
       <c r="E393" s="5" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F393" s="6" t="inlineStr">
+        <v>4.34</v>
+      </c>
+      <c r="F393" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -21662,9 +21742,9 @@
         </is>
       </c>
       <c r="E394" s="5" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F394" s="7" t="inlineStr">
+        <v>0.18</v>
+      </c>
+      <c r="F394" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -21717,9 +21797,9 @@
         </is>
       </c>
       <c r="E395" s="5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="F395" s="7" t="inlineStr">
+        <v>1.13</v>
+      </c>
+      <c r="F395" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -21772,9 +21852,9 @@
         </is>
       </c>
       <c r="E396" s="5" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F396" s="6" t="inlineStr">
+        <v>3.99</v>
+      </c>
+      <c r="F396" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -21827,9 +21907,9 @@
         </is>
       </c>
       <c r="E397" s="5" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="F397" s="6" t="inlineStr">
+        <v>4.55</v>
+      </c>
+      <c r="F397" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -21882,9 +21962,9 @@
         </is>
       </c>
       <c r="E398" s="5" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="F398" s="7" t="inlineStr">
+        <v>2.74</v>
+      </c>
+      <c r="F398" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -21937,9 +22017,9 @@
         </is>
       </c>
       <c r="E399" s="5" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="F399" s="6" t="inlineStr">
+        <v>3.13</v>
+      </c>
+      <c r="F399" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -21992,7 +22072,7 @@
         </is>
       </c>
       <c r="E400" s="5" t="n">
-        <v>9.75</v>
+        <v>9.57</v>
       </c>
       <c r="F400" s="3" t="inlineStr">
         <is>
@@ -22047,9 +22127,9 @@
         </is>
       </c>
       <c r="E401" s="5" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="F401" s="7" t="inlineStr">
+        <v>0.52</v>
+      </c>
+      <c r="F401" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -22102,9 +22182,9 @@
         </is>
       </c>
       <c r="E402" s="5" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="F402" s="7" t="inlineStr">
+        <v>2.49</v>
+      </c>
+      <c r="F402" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -22157,9 +22237,9 @@
         </is>
       </c>
       <c r="E403" s="5" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F403" s="7" t="inlineStr">
+        <v>0.78</v>
+      </c>
+      <c r="F403" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -22212,7 +22292,7 @@
         </is>
       </c>
       <c r="E404" s="5" t="n">
-        <v>-0.64</v>
+        <v>-0.65</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -22257,7 +22337,7 @@
         </is>
       </c>
       <c r="E405" s="8" t="n">
-        <v>10.87</v>
+        <v>10.78</v>
       </c>
       <c r="F405" s="4" t="inlineStr">
         <is>
@@ -22312,7 +22392,7 @@
         </is>
       </c>
       <c r="E406" s="8" t="n">
-        <v>114281940.96</v>
+        <v>158028550.95</v>
       </c>
       <c r="F406" s="4" t="inlineStr">
         <is>
@@ -22367,7 +22447,7 @@
         </is>
       </c>
       <c r="E407" s="8" t="n">
-        <v>27914455000</v>
+        <v>27383079000</v>
       </c>
       <c r="F407" s="4" t="inlineStr">
         <is>
@@ -22422,7 +22502,7 @@
         </is>
       </c>
       <c r="E408" s="8" t="n">
-        <v>63901931000</v>
+        <v>59726836000</v>
       </c>
       <c r="F408" s="4" t="inlineStr">
         <is>
@@ -22477,7 +22557,7 @@
         </is>
       </c>
       <c r="E409" s="8" t="n">
-        <v>15471501000</v>
+        <v>12232582000</v>
       </c>
       <c r="F409" s="4" t="inlineStr">
         <is>
@@ -22532,7 +22612,7 @@
         </is>
       </c>
       <c r="E410" s="8" t="n">
-        <v>15242574000</v>
+        <v>12279300000</v>
       </c>
       <c r="F410" s="4" t="inlineStr">
         <is>
@@ -22587,7 +22667,7 @@
         </is>
       </c>
       <c r="E411" s="8" t="n">
-        <v>4700460000</v>
+        <v>2256137000</v>
       </c>
       <c r="F411" s="4" t="inlineStr">
         <is>
@@ -22642,7 +22722,7 @@
         </is>
       </c>
       <c r="E412" s="8" t="n">
-        <v>10542114000</v>
+        <v>10023163000</v>
       </c>
       <c r="F412" s="4" t="inlineStr">
         <is>
@@ -22697,7 +22777,7 @@
         </is>
       </c>
       <c r="E413" s="8" t="n">
-        <v>35230523435</v>
+        <v>34906000931</v>
       </c>
       <c r="F413" s="4" t="inlineStr">
         <is>
@@ -22752,7 +22832,7 @@
         </is>
       </c>
       <c r="E414" s="8" t="n">
-        <v>45772637435</v>
+        <v>44929163931</v>
       </c>
       <c r="F414" s="4" t="inlineStr">
         <is>
@@ -22807,7 +22887,7 @@
         </is>
       </c>
       <c r="E415" s="2" t="n">
-        <v>0.8292</v>
+        <v>0.8134</v>
       </c>
       <c r="F415" s="4" t="inlineStr">
         <is>
@@ -22862,7 +22942,7 @@
         </is>
       </c>
       <c r="E416" s="2" t="n">
-        <v>0.2509</v>
+        <v>0.2599</v>
       </c>
       <c r="F416" s="4" t="inlineStr">
         <is>
@@ -22917,7 +22997,7 @@
         </is>
       </c>
       <c r="E417" s="2" t="n">
-        <v>0.1096</v>
+        <v>0.1192</v>
       </c>
       <c r="F417" s="4" t="inlineStr">
         <is>
@@ -22972,7 +23052,7 @@
         </is>
       </c>
       <c r="E418" s="2" t="n">
-        <v>0.176</v>
+        <v>0.1926</v>
       </c>
       <c r="F418" s="4" t="inlineStr">
         <is>
@@ -23027,9 +23107,9 @@
         </is>
       </c>
       <c r="E419" s="5" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="F419" s="7" t="inlineStr">
+        <v>0.67</v>
+      </c>
+      <c r="F419" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -23082,7 +23162,7 @@
         </is>
       </c>
       <c r="E420" s="2" t="n">
-        <v>0.1513</v>
+        <v>0.1377</v>
       </c>
       <c r="F420" s="3" t="inlineStr">
         <is>
@@ -23137,7 +23217,7 @@
         </is>
       </c>
       <c r="E421" s="2" t="n">
-        <v>0.2189</v>
+        <v>0.2116</v>
       </c>
       <c r="F421" s="4" t="inlineStr">
         <is>
@@ -23192,7 +23272,7 @@
         </is>
       </c>
       <c r="E422" s="2" t="n">
-        <v>0.2876</v>
+        <v>0.2826</v>
       </c>
       <c r="F422" s="3" t="inlineStr">
         <is>
@@ -23247,7 +23327,7 @@
         </is>
       </c>
       <c r="E423" s="2" t="n">
-        <v>0.6794</v>
+        <v>0.6693000000000001</v>
       </c>
       <c r="F423" s="4" t="inlineStr">
         <is>
@@ -23302,7 +23382,7 @@
         </is>
       </c>
       <c r="E424" s="5" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="F424" s="4" t="inlineStr">
         <is>
@@ -23326,12 +23406,12 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Mínimo = -0.5, Máximo = 5</t>
+          <t>Mínimo = -10, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida.</t>
+          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida</t>
         </is>
       </c>
     </row>
@@ -23357,11 +23437,11 @@
         </is>
       </c>
       <c r="E425" s="5" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="F425" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>3.07</v>
+      </c>
+      <c r="F425" s="7" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -23381,12 +23461,12 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Um múltiplo nesta faixa é considerado aceitável, especialmente em setores onde é comum operar com algum nível de alavancagem. Indica que a empresa está gerenciando bem sua dívida, mas existe uma exposição maior ao risco se houver uma queda no EBITDA ou aumento na dívida.</t>
+          <t>Indica uma alavancagem significativa. Empresas com múltiplos nesta faixa devem ser monitoradas de perto, pois têm menos margem de segurança para lidar com quedas no EBITDA ou aumentos de dívida. Em setores mais voláteis, esse nível de alavancagem pode ser preocupante</t>
         </is>
       </c>
     </row>
@@ -23412,16 +23492,11 @@
         </is>
       </c>
       <c r="E426" s="5" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F426" s="6" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
+        <v>4.1</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = -100, Máximo = 4</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
@@ -23436,12 +23511,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 2</t>
-        </is>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>Um múltiplo nesta faixa começa a indicar um nível elevado de alavancagem. Isso pode ser preocupante, especialmente se a empresa tiver fluxos de caixa voláteis ou se houver uma queda inesperada nos lucros. Embora possa ser administrável em setores com fluxos de caixa estáveis, é necessário cautela.</t>
+          <t>Mínimo = 0, Máximo = 2</t>
         </is>
       </c>
     </row>
@@ -23467,7 +23537,12 @@
         </is>
       </c>
       <c r="E427" s="5" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F427" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -23476,17 +23551,22 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>Um índice entre 0,50 e 0,70 indica que a empresa possui uma boa proporção de patrimônio líquido em relação aos ativos, o que sugere uma sólida base financeira e uma menor dependência de dívidas. Empresas com valores nessa faixa geralmente têm uma estrutura de capital mais conservadora e são menos suscetíveis a riscos financeiros</t>
         </is>
       </c>
     </row>
@@ -23516,32 +23596,32 @@
       </c>
       <c r="F428" s="6" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 0.3</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Mínimo = 0.3, Máximo = 0.5</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 0.7</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Mínimo = 0.7, Máximo = inf</t>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Um índice nessa faixa sugere uma estrutura de capital com uma proporção razoável de patrimônio líquido em relação aos ativos. A empresa tem um equilíbrio entre o financiamento próprio e o financiamento externo. Esse nível de alavancagem é geralmente considerado moderado e pode ser típico em muitos setores.</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -23567,36 +23647,36 @@
         </is>
       </c>
       <c r="E429" s="5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="F429" s="7" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>1.61</v>
+      </c>
+      <c r="F429" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = -10, Máximo = 1</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Essa faixa é vista como saudável, indicando que a empresa tem uma margem de segurança confortável para cobrir suas obrigações de curto prazo. Empresas com liquidez corrente nesta faixa geralmente são consideradas financeiramente estáveis</t>
         </is>
       </c>
     </row>
@@ -23622,9 +23702,9 @@
         </is>
       </c>
       <c r="E430" s="2" t="n">
-        <v>0.0232</v>
-      </c>
-      <c r="F430" s="7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F430" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -23677,9 +23757,9 @@
         </is>
       </c>
       <c r="E431" s="5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F431" s="6" t="inlineStr">
+        <v>4.18</v>
+      </c>
+      <c r="F431" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -23777,9 +23857,9 @@
         </is>
       </c>
       <c r="E433" s="5" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F433" s="7" t="inlineStr">
+        <v>0.27</v>
+      </c>
+      <c r="F433" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -23832,9 +23912,9 @@
         </is>
       </c>
       <c r="E434" s="5" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="F434" s="6" t="inlineStr">
+        <v>5.11</v>
+      </c>
+      <c r="F434" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -23887,7 +23967,7 @@
         </is>
       </c>
       <c r="E435" s="5" t="n">
-        <v>7.63</v>
+        <v>6.83</v>
       </c>
       <c r="F435" s="3" t="inlineStr">
         <is>
@@ -23942,9 +24022,9 @@
         </is>
       </c>
       <c r="E436" s="5" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="F436" s="7" t="inlineStr">
+        <v>2.04</v>
+      </c>
+      <c r="F436" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -23997,11 +24077,11 @@
         </is>
       </c>
       <c r="E437" s="5" t="n">
-        <v>3.8</v>
+        <v>2.72</v>
       </c>
       <c r="F437" s="6" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -24026,7 +24106,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -24052,7 +24132,7 @@
         </is>
       </c>
       <c r="E438" s="5" t="n">
-        <v>6.63</v>
+        <v>7.22</v>
       </c>
       <c r="F438" s="3" t="inlineStr">
         <is>
@@ -24107,9 +24187,9 @@
         </is>
       </c>
       <c r="E439" s="5" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F439" s="7" t="inlineStr">
+        <v>0.15</v>
+      </c>
+      <c r="F439" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -24162,9 +24242,9 @@
         </is>
       </c>
       <c r="E440" s="5" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="F440" s="7" t="inlineStr">
+        <v>0.47</v>
+      </c>
+      <c r="F440" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -24217,9 +24297,9 @@
         </is>
       </c>
       <c r="E441" s="5" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F441" s="7" t="inlineStr">
+        <v>0.58</v>
+      </c>
+      <c r="F441" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -24272,7 +24352,7 @@
         </is>
       </c>
       <c r="E442" s="5" t="n">
-        <v>-0.28</v>
+        <v>-0.19</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -24317,9 +24397,9 @@
         </is>
       </c>
       <c r="E443" s="8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="F443" s="7" t="inlineStr">
+        <v>1.97</v>
+      </c>
+      <c r="F443" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -24372,7 +24452,7 @@
         </is>
       </c>
       <c r="E444" s="8" t="n">
-        <v>120923481.87</v>
+        <v>81496647.43000001</v>
       </c>
       <c r="F444" s="4" t="inlineStr">
         <is>
@@ -24427,7 +24507,7 @@
         </is>
       </c>
       <c r="E445" s="8" t="n">
-        <v>12444512000</v>
+        <v>13545135000</v>
       </c>
       <c r="F445" s="4" t="inlineStr">
         <is>
@@ -24482,7 +24562,7 @@
         </is>
       </c>
       <c r="E446" s="8" t="n">
-        <v>24203940000</v>
+        <v>24200400000</v>
       </c>
       <c r="F446" s="4" t="inlineStr">
         <is>
@@ -24537,7 +24617,7 @@
         </is>
       </c>
       <c r="E447" s="8" t="n">
-        <v>4711693000</v>
+        <v>4627366000</v>
       </c>
       <c r="F447" s="4" t="inlineStr">
         <is>
@@ -24592,7 +24672,7 @@
         </is>
       </c>
       <c r="E448" s="8" t="n">
-        <v>6873792000</v>
+        <v>6873212000</v>
       </c>
       <c r="F448" s="4" t="inlineStr">
         <is>
@@ -24647,7 +24727,7 @@
         </is>
       </c>
       <c r="E449" s="8" t="n">
-        <v>1421705000</v>
+        <v>1332195000</v>
       </c>
       <c r="F449" s="4" t="inlineStr">
         <is>
@@ -24702,7 +24782,7 @@
         </is>
       </c>
       <c r="E450" s="8" t="n">
-        <v>5452087000</v>
+        <v>5541017000</v>
       </c>
       <c r="F450" s="4" t="inlineStr">
         <is>
@@ -24757,7 +24837,7 @@
         </is>
       </c>
       <c r="E451" s="8" t="n">
-        <v>5404625885</v>
+        <v>3696914234</v>
       </c>
       <c r="F451" s="4" t="inlineStr">
         <is>
@@ -24812,7 +24892,7 @@
         </is>
       </c>
       <c r="E452" s="8" t="n">
-        <v>10856712885</v>
+        <v>9237931234</v>
       </c>
       <c r="F452" s="4" t="inlineStr">
         <is>
@@ -24867,7 +24947,7 @@
         </is>
       </c>
       <c r="E453" s="2" t="n">
-        <v>0.965</v>
+        <v>0.9978</v>
       </c>
       <c r="F453" s="4" t="inlineStr">
         <is>
@@ -24922,7 +25002,7 @@
         </is>
       </c>
       <c r="E454" s="2" t="n">
-        <v>0.079</v>
+        <v>0.065</v>
       </c>
       <c r="F454" s="3" t="inlineStr">
         <is>
@@ -24977,9 +25057,9 @@
         </is>
       </c>
       <c r="E455" s="2" t="n">
-        <v>0.0406</v>
-      </c>
-      <c r="F455" s="6" t="inlineStr">
+        <v>0.0364</v>
+      </c>
+      <c r="F455" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -25032,9 +25112,9 @@
         </is>
       </c>
       <c r="E456" s="2" t="n">
-        <v>0.05429999999999999</v>
-      </c>
-      <c r="F456" s="6" t="inlineStr">
+        <v>0.0499</v>
+      </c>
+      <c r="F456" s="7" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -25087,9 +25167,9 @@
         </is>
       </c>
       <c r="E457" s="5" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F457" s="7" t="inlineStr">
+        <v>0.26</v>
+      </c>
+      <c r="F457" s="6" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="IndiRentabilidade" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -59,14 +59,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.1692</v>
+        <v>0.1574</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.2392</v>
+        <v>0.2469</v>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.3192</v>
+        <v>0.3255</v>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>OTUma margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
+          <t>Otima margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.5097999999999999</v>
+        <v>0.5146000000000001</v>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.67</v>
+        <v>-0.57</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -882,26 +882,36 @@
         </is>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.89</v>
+        <v>-0.76</v>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
         </is>
       </c>
     </row>
@@ -927,16 +937,11 @@
         </is>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>0.64</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -952,11 +957,6 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -982,36 +982,36 @@
         </is>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice nessa faixa sugere uma estrutura de capital com uma proporção razoável de patrimônio líquido em relação aos ativos. A empresa tem um equilíbrio entre o financiamento próprio e o financiamento externo. Esse nível de alavancagem é geralmente considerado moderado e pode ser típico em muitos setores.</t>
         </is>
       </c>
     </row>
@@ -1037,9 +1037,9 @@
         </is>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
+        <v>1.11</v>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.0605</v>
+        <v>0.06849999999999999</v>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12.46</v>
+        <v>14.71</v>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.65</v>
+        <v>-29.74</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1247,9 +1247,9 @@
         </is>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
+        <v>2.25</v>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -1302,11 +1302,11 @@
         </is>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F16" s="7" t="inlineStr">
-        <is>
-          <t>regular</t>
+        <v>6.54</v>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.93</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.61</v>
+        <v>7.11</v>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8.82</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.23</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
@@ -1577,9 +1577,9 @@
         </is>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
+        <v>1.44</v>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -1632,9 +1632,9 @@
         </is>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="F22" s="6" t="inlineStr">
+        <v>0.92</v>
+      </c>
+      <c r="F22" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -1687,9 +1687,9 @@
         </is>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F23" s="6" t="inlineStr">
+        <v>2.32</v>
+      </c>
+      <c r="F23" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.66</v>
+        <v>-2.05</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="E25" s="8" t="n">
-        <v>11.03</v>
+        <v>13.47</v>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="E26" s="8" t="n">
-        <v>323780283.19</v>
+        <v>257489327.13</v>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="E27" s="8" t="n">
-        <v>98140388000</v>
+        <v>94528274000</v>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="E28" s="8" t="n">
-        <v>147286361000</v>
+        <v>147298979000</v>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="E29" s="8" t="n">
-        <v>42672930000</v>
+        <v>43550960000</v>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="E30" s="8" t="n">
-        <v>3380273000</v>
+        <v>3218170000</v>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>20939039000</v>
+        <v>20310261000</v>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="E32" s="8" t="n">
-        <v>-17558766000</v>
+        <v>-17092091000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="E33" s="8" t="n">
-        <v>173806960416</v>
+        <v>212309274043</v>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="E34" s="8" t="n">
-        <v>156248194416</v>
+        <v>195217183043</v>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.2789</v>
+        <v>0.2712</v>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.1421</v>
+        <v>0.1527</v>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.09470000000000001</v>
+        <v>0.098</v>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.1638</v>
+        <v>0.1785</v>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
@@ -2547,9 +2547,9 @@
         </is>
       </c>
       <c r="E39" s="5" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F39" s="6" t="inlineStr">
+        <v>0.62</v>
+      </c>
+      <c r="F39" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -2602,12 +2602,7 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.1006</v>
-      </c>
-      <c r="F40" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>-0.8151</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2627,11 +2622,6 @@
       <c r="J40" t="inlineStr">
         <is>
           <t>Mínimo = 20, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Uma margem líquida abaixo de 5% sugere que a empresa tem uma margem de lucro relativamente baixa. Isso pode ser típico em setores com alta concorrência e margens reduzidas, como o varejo ou o setor de alimentos e bebidas. Pode indicar baixa eficiência na gestão de custos ou baixa rentabilidade</t>
         </is>
       </c>
     </row>
@@ -2657,12 +2647,7 @@
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0.0355</v>
-      </c>
-      <c r="F41" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>-0.6354</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2682,11 +2667,6 @@
       <c r="J41" t="inlineStr">
         <is>
           <t>Mínimo = 20, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Uma margem EBIT abaixo de 5% sugere que a empresa tem uma baixa eficiência operacional. Isso pode ser comum em setores com alta concorrência e baixos níveis de diferenciação, como o varejo e alguns segmentos industriais. Indica que a empresa pode estar enfrentando desafios significativos em controlar seus custos operacionais</t>
         </is>
       </c>
     </row>
@@ -2712,12 +2692,7 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.09130000000000001</v>
-      </c>
-      <c r="F42" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>-0.5576</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2737,11 +2712,6 @@
       <c r="J42" t="inlineStr">
         <is>
           <t>Mínimo = 30, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Uma margem EBITDA abaixo de 10% pode indicar que a empresa tem uma baixa eficiência operacional ou enfrenta altos custos operacionais. Isso pode ser comum em setores com alta concorrência e margens reduzidas, como o varejo ou indústrias com alta estrutura de custos</t>
         </is>
       </c>
     </row>
@@ -2767,9 +2737,9 @@
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.1095</v>
-      </c>
-      <c r="F43" s="6" t="inlineStr">
+        <v>0.1079</v>
+      </c>
+      <c r="F43" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -2822,11 +2792,11 @@
         </is>
       </c>
       <c r="E44" s="5" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>13.58</v>
+      </c>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2851,7 +2821,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Um múltiplo nessa faixa sugere que a empresa tem um equilíbrio saudável entre dívida e patrimônio líquido. Isso é comum em empresas que utilizam algum nível de alavancagem para financiar seu crescimento, mas que ainda mantêm um risco financeiro relativamente controlado.</t>
+          <t>ste nível indica que a empresa está altamente alavancada, com um montante significativo de dívida em relação ao patrimônio líquido. Isso pode sinalizar um alto risco financeiro e a possibilidade de dificuldades para cumprir obrigações de dívida, especialmente se a empresa enfrentar quedas nos lucros ou aumento nos custos de financiamento.</t>
         </is>
       </c>
     </row>
@@ -2877,12 +2847,7 @@
         </is>
       </c>
       <c r="E45" s="5" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="F45" s="7" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
+        <v>-2.23</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2902,11 +2867,6 @@
       <c r="J45" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 2</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -2932,36 +2892,36 @@
         </is>
       </c>
       <c r="E46" s="5" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>-1.96</v>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
         </is>
       </c>
     </row>
@@ -2987,16 +2947,16 @@
         </is>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F47" s="6" t="inlineStr">
+        <v>0.05</v>
+      </c>
+      <c r="F47" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3042,36 +3002,36 @@
         </is>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>0.95</v>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
         </is>
       </c>
     </row>
@@ -3097,9 +3057,9 @@
         </is>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="F49" s="6" t="inlineStr">
+        <v>0.99</v>
+      </c>
+      <c r="F49" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -3154,7 +3114,7 @@
       <c r="E50" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F50" s="6" t="inlineStr">
+      <c r="F50" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -3207,7 +3167,7 @@
         </is>
       </c>
       <c r="E51" s="5" t="n">
-        <v>-1.55</v>
+        <v>-0.26</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3252,7 +3212,12 @@
         </is>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-0.03</v>
+        <v>0</v>
+      </c>
+      <c r="F52" s="7" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3272,6 +3237,11 @@
       <c r="J52" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3297,9 +3267,9 @@
         </is>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F53" s="6" t="inlineStr">
+        <v>2.28</v>
+      </c>
+      <c r="F53" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -3352,12 +3322,7 @@
         </is>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="F54" s="7" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
+        <v>-2.61</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3377,11 +3342,6 @@
       <c r="J54" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -3407,12 +3367,7 @@
         </is>
       </c>
       <c r="E55" s="5" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
+        <v>-2.29</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3432,11 +3387,6 @@
       <c r="J55" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -3462,12 +3412,7 @@
         </is>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F56" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>-0.38</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3487,11 +3432,6 @@
       <c r="J56" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3517,12 +3457,7 @@
         </is>
       </c>
       <c r="E57" s="5" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F57" s="7" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
+        <v>-0.33</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3542,11 +3477,6 @@
       <c r="J57" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -3572,11 +3502,11 @@
         </is>
       </c>
       <c r="E58" s="5" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>1.79</v>
+      </c>
+      <c r="F58" s="7" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3601,7 +3531,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3627,9 +3557,9 @@
         </is>
       </c>
       <c r="E59" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F59" s="6" t="inlineStr">
+        <v>0.12</v>
+      </c>
+      <c r="F59" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -3682,12 +3612,7 @@
         </is>
       </c>
       <c r="E60" s="5" t="n">
-        <v>-2.83</v>
-      </c>
-      <c r="F60" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>-15.89</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3707,11 +3632,6 @@
       <c r="J60" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -3737,9 +3657,9 @@
         </is>
       </c>
       <c r="E61" s="5" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F61" s="6" t="inlineStr">
+        <v>0.21</v>
+      </c>
+      <c r="F61" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -3792,7 +3712,7 @@
         </is>
       </c>
       <c r="E62" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3837,9 +3757,9 @@
         </is>
       </c>
       <c r="E63" s="8" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="F63" s="7" t="inlineStr">
+        <v>4.08</v>
+      </c>
+      <c r="F63" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -3892,7 +3812,7 @@
         </is>
       </c>
       <c r="E64" s="8" t="n">
-        <v>2687299.1</v>
+        <v>790875.39</v>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
@@ -3947,7 +3867,7 @@
         </is>
       </c>
       <c r="E65" s="8" t="n">
-        <v>1037685000</v>
+        <v>111006000</v>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
@@ -4002,7 +3922,7 @@
         </is>
       </c>
       <c r="E66" s="8" t="n">
-        <v>3580115000</v>
+        <v>2105580000</v>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
@@ -4057,7 +3977,7 @@
         </is>
       </c>
       <c r="E67" s="8" t="n">
-        <v>2285015000</v>
+        <v>819003000</v>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
@@ -4112,7 +4032,7 @@
         </is>
       </c>
       <c r="E68" s="8" t="n">
-        <v>1453382000</v>
+        <v>1619666000</v>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
@@ -4167,7 +4087,7 @@
         </is>
       </c>
       <c r="E69" s="8" t="n">
-        <v>881323000</v>
+        <v>112714000</v>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
@@ -4222,7 +4142,7 @@
         </is>
       </c>
       <c r="E70" s="8" t="n">
-        <v>572059000</v>
+        <v>1506952000</v>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
@@ -4277,7 +4197,7 @@
         </is>
       </c>
       <c r="E71" s="8" t="n">
-        <v>271465257</v>
+        <v>253450400</v>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
@@ -4332,7 +4252,7 @@
         </is>
       </c>
       <c r="E72" s="8" t="n">
-        <v>843524257</v>
+        <v>1760402400</v>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
@@ -4387,7 +4307,7 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>0.5708</v>
+        <v>0.5908</v>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
@@ -4442,7 +4362,7 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>-0.1691</v>
+        <v>-8.8948</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4487,7 +4407,7 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>-0.049</v>
+        <v>-0.4689</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4532,12 +4452,7 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>0.0118</v>
-      </c>
-      <c r="F76" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>-0.469</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4557,11 +4472,6 @@
       <c r="J76" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -4587,9 +4497,9 @@
         </is>
       </c>
       <c r="E77" s="5" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="F77" s="6" t="inlineStr">
+        <v>0.58</v>
+      </c>
+      <c r="F77" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -4642,9 +4552,9 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>-0.3776</v>
-      </c>
-      <c r="F78" s="6" t="inlineStr">
+        <v>-0.1149</v>
+      </c>
+      <c r="F78" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -4697,9 +4607,9 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>-0.1366</v>
-      </c>
-      <c r="F79" s="6" t="inlineStr">
+        <v>0.0491</v>
+      </c>
+      <c r="F79" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -4752,9 +4662,9 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>-0.2847</v>
-      </c>
-      <c r="F80" s="6" t="inlineStr">
+        <v>0.0619</v>
+      </c>
+      <c r="F80" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -4807,11 +4717,11 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>0.501</v>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4836,7 +4746,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Uma margem bruta acima de 60% sugere uma alta eficiência na produção e venda, com um custo relativamente baixo em relação à receita. Isso é típico em setores com altas barreiras de entrada, baixo custo de produção, ou produtos/serviços de alto valor agregado, como tecnologia e software</t>
+          <t>Uma margem bruta entre 40% e 60% indica uma boa eficiência na produção e venda de produtos ou serviços. Isso é comum em setores que têm menos custos variáveis e uma estrutura de custo mais favorável, como serviços e algumas indústrias com alta diferenciação de produtos.</t>
         </is>
       </c>
     </row>
@@ -4862,9 +4772,9 @@
         </is>
       </c>
       <c r="E82" s="5" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="F82" s="6" t="inlineStr">
+        <v>2.21</v>
+      </c>
+      <c r="F82" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -4917,7 +4827,12 @@
         </is>
       </c>
       <c r="E83" s="5" t="n">
-        <v>-1.97</v>
+        <v>7.15</v>
+      </c>
+      <c r="F83" s="7" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4937,6 +4852,11 @@
       <c r="J83" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentável</t>
         </is>
       </c>
     </row>
@@ -4962,26 +4882,36 @@
         </is>
       </c>
       <c r="E84" s="5" t="n">
-        <v>-4.1</v>
+        <v>9</v>
+      </c>
+      <c r="F84" s="7" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Este valor sugere que a empresa está altamente alavancada e pode ter dificuldades para cumprir suas obrigações de dívida se o EBIT não for sustentável. Empresas com múltiplos superiores a 4 estão em uma posição financeira mais vulnerável e podem enfrentar problemas significativos se não conseguirem aumentar seus lucros ou reduzir suas dívidas</t>
         </is>
       </c>
     </row>
@@ -5009,14 +4939,14 @@
       <c r="E85" s="5" t="n">
         <v>0.14</v>
       </c>
-      <c r="F85" s="6" t="inlineStr">
+      <c r="F85" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5064,34 +4994,34 @@
       <c r="E86" s="5" t="n">
         <v>0.86</v>
       </c>
-      <c r="F86" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
         </is>
       </c>
     </row>
@@ -5117,9 +5047,9 @@
         </is>
       </c>
       <c r="E87" s="5" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F87" s="6" t="inlineStr">
+        <v>0.6</v>
+      </c>
+      <c r="F87" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5174,7 +5104,7 @@
       <c r="E88" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F88" s="6" t="inlineStr">
+      <c r="F88" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5227,7 +5157,7 @@
         </is>
       </c>
       <c r="E89" s="5" t="n">
-        <v>-1.71</v>
+        <v>-4.38</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5274,7 +5204,7 @@
       <c r="E90" s="5" t="n">
         <v>0.06</v>
       </c>
-      <c r="F90" s="6" t="inlineStr">
+      <c r="F90" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5327,9 +5257,9 @@
         </is>
       </c>
       <c r="E91" s="5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F91" s="6" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="F91" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5382,7 +5312,12 @@
         </is>
       </c>
       <c r="E92" s="5" t="n">
-        <v>-4.23</v>
+        <v>15.29</v>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5402,6 +5337,11 @@
       <c r="J92" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5367,12 @@
         </is>
       </c>
       <c r="E93" s="5" t="n">
-        <v>-8.81</v>
+        <v>19.25</v>
+      </c>
+      <c r="F93" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5447,6 +5392,11 @@
       <c r="J93" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -5472,7 +5422,12 @@
         </is>
       </c>
       <c r="E94" s="5" t="n">
-        <v>-2.26</v>
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F94" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5492,6 +5447,11 @@
       <c r="J94" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5477,12 @@
         </is>
       </c>
       <c r="E95" s="5" t="n">
-        <v>-4.71</v>
+        <v>10.25</v>
+      </c>
+      <c r="F95" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5537,6 +5502,11 @@
       <c r="J95" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -5562,9 +5532,9 @@
         </is>
       </c>
       <c r="E96" s="5" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="F96" s="6" t="inlineStr">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F96" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5617,9 +5587,9 @@
         </is>
       </c>
       <c r="E97" s="5" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F97" s="6" t="inlineStr">
+        <v>0.35</v>
+      </c>
+      <c r="F97" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5672,9 +5642,9 @@
         </is>
       </c>
       <c r="E98" s="5" t="n">
-        <v>-0.84</v>
-      </c>
-      <c r="F98" s="6" t="inlineStr">
+        <v>-0.32</v>
+      </c>
+      <c r="F98" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5727,9 +5697,9 @@
         </is>
       </c>
       <c r="E99" s="5" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="F99" s="6" t="inlineStr">
+        <v>0.5</v>
+      </c>
+      <c r="F99" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5782,7 +5752,7 @@
         </is>
       </c>
       <c r="E100" s="5" t="n">
-        <v>-0.51</v>
+        <v>-0.49</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5827,9 +5797,9 @@
         </is>
       </c>
       <c r="E101" s="8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="F101" s="6" t="inlineStr">
+        <v>1.41</v>
+      </c>
+      <c r="F101" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -5882,7 +5852,7 @@
         </is>
       </c>
       <c r="E102" s="8" t="n">
-        <v>540642.1</v>
+        <v>375344.26</v>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
@@ -5937,7 +5907,7 @@
         </is>
       </c>
       <c r="E103" s="8" t="n">
-        <v>278507000</v>
+        <v>287288000</v>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
@@ -5992,7 +5962,7 @@
         </is>
       </c>
       <c r="E104" s="8" t="n">
-        <v>2010006000</v>
+        <v>2044038000</v>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
@@ -6047,7 +6017,7 @@
         </is>
       </c>
       <c r="E105" s="8" t="n">
-        <v>569416000</v>
+        <v>570564000</v>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
@@ -6102,7 +6072,7 @@
         </is>
       </c>
       <c r="E106" s="8" t="n">
-        <v>673963000</v>
+        <v>644433000</v>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
@@ -6157,7 +6127,7 @@
         </is>
       </c>
       <c r="E107" s="8" t="n">
-        <v>31384000</v>
+        <v>9236000</v>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
@@ -6212,7 +6182,7 @@
         </is>
       </c>
       <c r="E108" s="8" t="n">
-        <v>642579000</v>
+        <v>635197000</v>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
@@ -6267,7 +6237,7 @@
         </is>
       </c>
       <c r="E109" s="8" t="n">
-        <v>739376702</v>
+        <v>723973021</v>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
@@ -6322,7 +6292,7 @@
         </is>
       </c>
       <c r="E110" s="8" t="n">
-        <v>1381955702</v>
+        <v>1359170021</v>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
@@ -6377,7 +6347,7 @@
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>0.0706</v>
+        <v>0.0692</v>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
@@ -6432,7 +6402,7 @@
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>-1.5567</v>
+        <v>-0.5747</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6477,7 +6447,7 @@
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>-0.2157</v>
+        <v>-0.0808</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6522,7 +6492,12 @@
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>-0.2088</v>
+        <v>0.0621</v>
+      </c>
+      <c r="F114" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6542,6 +6517,11 @@
       <c r="J114" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -6567,9 +6547,9 @@
         </is>
       </c>
       <c r="E115" s="5" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="F115" s="6" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="F115" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -6622,11 +6602,11 @@
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>0.1096</v>
-      </c>
-      <c r="F116" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="F116" s="7" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -6651,7 +6631,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Uma margem líquida entre 10% e 20% é geralmente considerada boa e indica uma empresa que é eficiente na gestão de suas despesas e custos, resultando em uma rentabilidade sólida. É comum em setores com menos concorrência e mais poder de precificação</t>
+          <t>Uma margem líquida abaixo de 5% sugere que a empresa tem uma margem de lucro relativamente baixa. Isso pode ser típico em setores com alta concorrência e margens reduzidas, como o varejo ou o setor de alimentos e bebidas. Pode indicar baixa eficiência na gestão de custos ou baixa rentabilidade</t>
         </is>
       </c>
     </row>
@@ -6677,11 +6657,11 @@
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="F117" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>0.1855</v>
+      </c>
+      <c r="F117" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6706,7 +6686,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Uma margem EBIT acima de 20% sugere alta eficiência operacional e uma forte capacidade de gerar lucro operacional a partir das vendas. Isso pode ser típico de setores com altos margens brutas e controle eficaz dos custos operacionais, como tecnologia, software e alguns serviços especializados</t>
+          <t>Uma margem EBIT entre 10% e 20% indica uma boa eficiência operacional. A empresa consegue gerar uma quantidade significativa de lucro operacional em relação à receita líquida. Esse nível é comum em setores menos intensivos em capital e com uma boa capacidade de controle de custos</t>
         </is>
       </c>
     </row>
@@ -6732,7 +6712,7 @@
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>0.357</v>
+        <v>0.3436</v>
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
@@ -6761,7 +6741,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>OTUma margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
+          <t>Otima margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
         </is>
       </c>
     </row>
@@ -6787,11 +6767,11 @@
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>0.1916</v>
+        <v>0.2053</v>
       </c>
       <c r="F119" s="6" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -6816,7 +6796,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Uma margem bruta abaixo de 20% pode indicar que a empresa tem um custo de produção relativamente alto em relação à sua receita. Isso é comum em setores com altos custos de matéria-prima ou produção, como o varejo de alimentos e algumas indústrias manufatureiras.</t>
+          <t>Uma margem bruta nessa faixa é geralmente considerada moderada e pode ser típica de empresas com uma estrutura de custos mais equilibrada. Indica que a empresa está conseguindo controlar seus custos de produção de maneira razoável.</t>
         </is>
       </c>
     </row>
@@ -6842,11 +6822,11 @@
         </is>
       </c>
       <c r="E120" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F120" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>1.51</v>
+      </c>
+      <c r="F120" s="6" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -6871,7 +6851,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida.</t>
+          <t>Empresas com múltiplos nessa faixa estão mais alavancadas, o que pode aumentar o risco financeiro, especialmente em períodos de incerteza econômica. Essas empresas dependem mais de financiamento por dívida, o que pode afetar sua capacidade de enfrentar crises ou de expandir.</t>
         </is>
       </c>
     </row>
@@ -6897,11 +6877,11 @@
         </is>
       </c>
       <c r="E121" s="5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="F121" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>6.05</v>
+      </c>
+      <c r="F121" s="7" t="inlineStr">
+        <is>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -6926,7 +6906,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentável</t>
         </is>
       </c>
     </row>
@@ -6952,36 +6932,36 @@
         </is>
       </c>
       <c r="E122" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F122" s="6" t="inlineStr">
+        <v>11.21</v>
+      </c>
+      <c r="F122" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Este valor sugere que a empresa está altamente alavancada e pode ter dificuldades para cumprir suas obrigações de dívida se o EBIT não for sustentável. Empresas com múltiplos superiores a 4 estão em uma posição financeira mais vulnerável e podem enfrentar problemas significativos se não conseguirem aumentar seus lucros ou reduzir suas dívidas</t>
         </is>
       </c>
     </row>
@@ -7007,16 +6987,16 @@
         </is>
       </c>
       <c r="E123" s="5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F123" s="6" t="inlineStr">
+        <v>0.25</v>
+      </c>
+      <c r="F123" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -7062,36 +7042,36 @@
         </is>
       </c>
       <c r="E124" s="5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F124" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>0.72</v>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
         </is>
       </c>
     </row>
@@ -7117,9 +7097,9 @@
         </is>
       </c>
       <c r="E125" s="5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="F125" s="6" t="inlineStr">
+        <v>1.45</v>
+      </c>
+      <c r="F125" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -7172,11 +7152,11 @@
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>0.0461</v>
+        <v>0.005699999999999999</v>
       </c>
       <c r="F126" s="7" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -7201,7 +7181,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -7227,7 +7207,7 @@
         </is>
       </c>
       <c r="E127" s="5" t="n">
-        <v>12.61</v>
+        <v>1811.43</v>
       </c>
       <c r="F127" s="4" t="inlineStr">
         <is>
@@ -7282,7 +7262,7 @@
         </is>
       </c>
       <c r="E128" s="5" t="n">
-        <v>-0.2</v>
+        <v>-17.76</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -7327,9 +7307,9 @@
         </is>
       </c>
       <c r="E129" s="5" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F129" s="6" t="inlineStr">
+        <v>0.8</v>
+      </c>
+      <c r="F129" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -7382,11 +7362,11 @@
         </is>
       </c>
       <c r="E130" s="5" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="F130" s="7" t="inlineStr">
-        <is>
-          <t>regular</t>
+        <v>9.24</v>
+      </c>
+      <c r="F130" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -7411,7 +7391,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -7437,11 +7417,11 @@
         </is>
       </c>
       <c r="E131" s="5" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F131" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>17.12</v>
+      </c>
+      <c r="F131" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -7466,7 +7446,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -7492,9 +7472,9 @@
         </is>
       </c>
       <c r="E132" s="5" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F132" s="7" t="inlineStr">
+        <v>3.19</v>
+      </c>
+      <c r="F132" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -7549,7 +7529,7 @@
       <c r="E133" s="5" t="n">
         <v>5.91</v>
       </c>
-      <c r="F133" s="7" t="inlineStr">
+      <c r="F133" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -7602,7 +7582,7 @@
         </is>
       </c>
       <c r="E134" s="5" t="n">
-        <v>11.98</v>
+        <v>12.62</v>
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
@@ -7657,9 +7637,9 @@
         </is>
       </c>
       <c r="E135" s="5" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F135" s="6" t="inlineStr">
+        <v>0.2</v>
+      </c>
+      <c r="F135" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -7712,9 +7692,9 @@
         </is>
       </c>
       <c r="E136" s="5" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F136" s="6" t="inlineStr">
+        <v>0.01</v>
+      </c>
+      <c r="F136" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -7767,9 +7747,9 @@
         </is>
       </c>
       <c r="E137" s="5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="F137" s="6" t="inlineStr">
+        <v>1.1</v>
+      </c>
+      <c r="F137" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -7822,7 +7802,7 @@
         </is>
       </c>
       <c r="E138" s="5" t="n">
-        <v>-0.42</v>
+        <v>-0.26</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -7867,11 +7847,11 @@
         </is>
       </c>
       <c r="E139" s="8" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="F139" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>10.03</v>
+      </c>
+      <c r="F139" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -7896,7 +7876,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7902,7 @@
         </is>
       </c>
       <c r="E140" s="8" t="n">
-        <v>46187730.14</v>
+        <v>37843419.48</v>
       </c>
       <c r="F140" s="4" t="inlineStr">
         <is>
@@ -7977,7 +7957,7 @@
         </is>
       </c>
       <c r="E141" s="8" t="n">
-        <v>12587285000</v>
+        <v>13251517000</v>
       </c>
       <c r="F141" s="4" t="inlineStr">
         <is>
@@ -8032,7 +8012,7 @@
         </is>
       </c>
       <c r="E142" s="8" t="n">
-        <v>31492257000</v>
+        <v>52266696000</v>
       </c>
       <c r="F142" s="4" t="inlineStr">
         <is>
@@ -8087,7 +8067,7 @@
         </is>
       </c>
       <c r="E143" s="8" t="n">
-        <v>9676566000</v>
+        <v>11093981000</v>
       </c>
       <c r="F143" s="4" t="inlineStr">
         <is>
@@ -8142,7 +8122,7 @@
         </is>
       </c>
       <c r="E144" s="8" t="n">
-        <v>8384382000</v>
+        <v>26161764000</v>
       </c>
       <c r="F144" s="4" t="inlineStr">
         <is>
@@ -8197,7 +8177,7 @@
         </is>
       </c>
       <c r="E145" s="8" t="n">
-        <v>5295721000</v>
+        <v>6162476000</v>
       </c>
       <c r="F145" s="4" t="inlineStr">
         <is>
@@ -8252,7 +8232,7 @@
         </is>
       </c>
       <c r="E146" s="8" t="n">
-        <v>3088661000</v>
+        <v>19999288000</v>
       </c>
       <c r="F146" s="4" t="inlineStr">
         <is>
@@ -8307,7 +8287,7 @@
         </is>
       </c>
       <c r="E147" s="8" t="n">
-        <v>9117280814</v>
+        <v>10535291079</v>
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
@@ -8362,7 +8342,7 @@
         </is>
       </c>
       <c r="E148" s="8" t="n">
-        <v>12205941814</v>
+        <v>30534579079</v>
       </c>
       <c r="F148" s="4" t="inlineStr">
         <is>
@@ -8417,7 +8397,7 @@
         </is>
       </c>
       <c r="E149" s="2" t="n">
-        <v>0.3082</v>
+        <v>0.3031</v>
       </c>
       <c r="F149" s="4" t="inlineStr">
         <is>
@@ -8472,11 +8452,11 @@
         </is>
       </c>
       <c r="E150" s="2" t="n">
-        <v>0.0574</v>
+        <v>0.0004</v>
       </c>
       <c r="F150" s="7" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -8501,7 +8481,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -8527,9 +8507,9 @@
         </is>
       </c>
       <c r="E151" s="2" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="F151" s="6" t="inlineStr">
+        <v>0.0001</v>
+      </c>
+      <c r="F151" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -8582,9 +8562,9 @@
         </is>
       </c>
       <c r="E152" s="2" t="n">
-        <v>0.0547</v>
-      </c>
-      <c r="F152" s="7" t="inlineStr">
+        <v>0.0358</v>
+      </c>
+      <c r="F152" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -8637,9 +8617,9 @@
         </is>
       </c>
       <c r="E153" s="5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F153" s="6" t="inlineStr">
+        <v>0.18</v>
+      </c>
+      <c r="F153" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -8692,7 +8672,7 @@
         </is>
       </c>
       <c r="E154" s="2" t="n">
-        <v>0.4329</v>
+        <v>0.4397</v>
       </c>
       <c r="F154" s="4" t="inlineStr">
         <is>
@@ -8747,7 +8727,7 @@
         </is>
       </c>
       <c r="E155" s="2" t="n">
-        <v>0.5718</v>
+        <v>0.5929</v>
       </c>
       <c r="F155" s="4" t="inlineStr">
         <is>
@@ -8802,7 +8782,7 @@
         </is>
       </c>
       <c r="E156" s="2" t="n">
-        <v>0.6264</v>
+        <v>0.6292</v>
       </c>
       <c r="F156" s="4" t="inlineStr">
         <is>
@@ -8831,7 +8811,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>OTUma margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
+          <t>Otima margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
         </is>
       </c>
     </row>
@@ -8857,7 +8837,7 @@
         </is>
       </c>
       <c r="E157" s="2" t="n">
-        <v>0.8998</v>
+        <v>0.8993000000000001</v>
       </c>
       <c r="F157" s="4" t="inlineStr">
         <is>
@@ -8912,7 +8892,7 @@
         </is>
       </c>
       <c r="E158" s="5" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F158" s="4" t="inlineStr">
         <is>
@@ -8967,7 +8947,12 @@
         </is>
       </c>
       <c r="E159" s="5" t="n">
-        <v>-0.01</v>
+        <v>0.05</v>
+      </c>
+      <c r="F159" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -8987,6 +8972,11 @@
       <c r="J159" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
         </is>
       </c>
     </row>
@@ -9012,26 +9002,36 @@
         </is>
       </c>
       <c r="E160" s="5" t="n">
-        <v>-0.01</v>
+        <v>0.06</v>
+      </c>
+      <c r="F160" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
         </is>
       </c>
     </row>
@@ -9059,14 +9059,9 @@
       <c r="E161" s="5" t="n">
         <v>0.41</v>
       </c>
-      <c r="F161" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -9082,11 +9077,6 @@
       <c r="J161" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -9114,34 +9104,34 @@
       <c r="E162" s="5" t="n">
         <v>0.59</v>
       </c>
-      <c r="F162" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+      <c r="F162" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice entre 0,50 e 0,70 indica que a empresa possui uma boa proporção de patrimônio líquido em relação aos ativos, o que sugere uma sólida base financeira e uma menor dependência de dívidas. Empresas com valores nessa faixa geralmente têm uma estrutura de capital mais conservadora e são menos suscetíveis a riscos financeiros.</t>
         </is>
       </c>
     </row>
@@ -9167,9 +9157,9 @@
         </is>
       </c>
       <c r="E163" s="5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="F163" s="6" t="inlineStr">
+        <v>2.13</v>
+      </c>
+      <c r="F163" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -9222,11 +9212,11 @@
         </is>
       </c>
       <c r="E164" s="2" t="n">
-        <v>0.0337</v>
+        <v>0.0162</v>
       </c>
       <c r="F164" s="7" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -9251,7 +9241,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -9277,7 +9267,7 @@
         </is>
       </c>
       <c r="E165" s="5" t="n">
-        <v>12.85</v>
+        <v>15.31</v>
       </c>
       <c r="F165" s="4" t="inlineStr">
         <is>
@@ -9332,9 +9322,9 @@
         </is>
       </c>
       <c r="E166" s="5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="F166" s="6" t="inlineStr">
+        <v>0.82</v>
+      </c>
+      <c r="F166" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -9387,9 +9377,9 @@
         </is>
       </c>
       <c r="E167" s="5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F167" s="7" t="inlineStr">
+        <v>3.86</v>
+      </c>
+      <c r="F167" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -9442,11 +9432,11 @@
         </is>
       </c>
       <c r="E168" s="5" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F168" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>10.75</v>
+      </c>
+      <c r="F168" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -9471,7 +9461,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -9497,11 +9487,11 @@
         </is>
       </c>
       <c r="E169" s="5" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="F169" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>11.41</v>
+      </c>
+      <c r="F169" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -9526,7 +9516,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -9552,11 +9542,11 @@
         </is>
       </c>
       <c r="E170" s="5" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F170" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>10.7</v>
+      </c>
+      <c r="F170" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -9581,7 +9571,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -9607,11 +9597,11 @@
         </is>
       </c>
       <c r="E171" s="5" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="F171" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>11.36</v>
+      </c>
+      <c r="F171" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -9636,7 +9626,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -9662,9 +9652,9 @@
         </is>
       </c>
       <c r="E172" s="5" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F172" s="7" t="inlineStr">
+        <v>3.57</v>
+      </c>
+      <c r="F172" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -9717,9 +9707,9 @@
         </is>
       </c>
       <c r="E173" s="5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F173" s="6" t="inlineStr">
+        <v>1.57</v>
+      </c>
+      <c r="F173" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -9772,9 +9762,9 @@
         </is>
       </c>
       <c r="E174" s="5" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="F174" s="6" t="inlineStr">
+        <v>0.9</v>
+      </c>
+      <c r="F174" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -9827,11 +9817,11 @@
         </is>
       </c>
       <c r="E175" s="5" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="F175" s="7" t="inlineStr">
-        <is>
-          <t>regular</t>
+        <v>6.73</v>
+      </c>
+      <c r="F175" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -9856,7 +9846,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -9882,7 +9872,7 @@
         </is>
       </c>
       <c r="E176" s="5" t="n">
-        <v>-1.96</v>
+        <v>-2.4</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -9927,7 +9917,7 @@
         </is>
       </c>
       <c r="E177" s="8" t="n">
-        <v>10.84</v>
+        <v>13.76</v>
       </c>
       <c r="F177" s="4" t="inlineStr">
         <is>
@@ -9982,7 +9972,7 @@
         </is>
       </c>
       <c r="E178" s="8" t="n">
-        <v>509090053.38</v>
+        <v>545500206.52</v>
       </c>
       <c r="F178" s="4" t="inlineStr">
         <is>
@@ -10037,7 +10027,7 @@
         </is>
       </c>
       <c r="E179" s="8" t="n">
-        <v>18383454000</v>
+        <v>18794551000</v>
       </c>
       <c r="F179" s="4" t="inlineStr">
         <is>
@@ -10092,7 +10082,7 @@
         </is>
       </c>
       <c r="E180" s="8" t="n">
-        <v>45228850000</v>
+        <v>46292029000</v>
       </c>
       <c r="F180" s="4" t="inlineStr">
         <is>
@@ -10147,7 +10137,7 @@
         </is>
       </c>
       <c r="E181" s="8" t="n">
-        <v>15187412000</v>
+        <v>16116282000</v>
       </c>
       <c r="F181" s="4" t="inlineStr">
         <is>
@@ -10202,7 +10192,7 @@
         </is>
       </c>
       <c r="E182" s="8" t="n">
-        <v>13228819000</v>
+        <v>14881775000</v>
       </c>
       <c r="F182" s="4" t="inlineStr">
         <is>
@@ -10257,7 +10247,7 @@
         </is>
       </c>
       <c r="E183" s="8" t="n">
-        <v>13300305000</v>
+        <v>14519084000</v>
       </c>
       <c r="F183" s="4" t="inlineStr">
         <is>
@@ -10312,7 +10302,12 @@
         </is>
       </c>
       <c r="E184" s="8" t="n">
-        <v>-71486000</v>
+        <v>362691000</v>
+      </c>
+      <c r="F184" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -10332,6 +10327,11 @@
       <c r="J184" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
         </is>
       </c>
       <c r="E185" s="8" t="n">
-        <v>58823260000</v>
+        <v>72467040000</v>
       </c>
       <c r="F185" s="4" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="E186" s="8" t="n">
-        <v>58751774000</v>
+        <v>72829731000</v>
       </c>
       <c r="F186" s="4" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         </is>
       </c>
       <c r="E187" s="2" t="n">
-        <v>0.9937</v>
+        <v>0.9867</v>
       </c>
       <c r="F187" s="4" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="E188" s="2" t="n">
-        <v>0.249</v>
+        <v>0.2518</v>
       </c>
       <c r="F188" s="4" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         </is>
       </c>
       <c r="E189" s="2" t="n">
-        <v>0.1012</v>
+        <v>0.1022</v>
       </c>
       <c r="F189" s="4" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="E190" s="2" t="n">
-        <v>0.1423</v>
+        <v>0.1391</v>
       </c>
       <c r="F190" s="4" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
       <c r="E191" s="5" t="n">
         <v>0.23</v>
       </c>
-      <c r="F191" s="6" t="inlineStr">
+      <c r="F191" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -10742,11 +10742,11 @@
         </is>
       </c>
       <c r="E192" s="2" t="n">
-        <v>0.1067</v>
-      </c>
-      <c r="F192" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>0.0886</v>
+      </c>
+      <c r="F192" s="6" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Uma margem líquida entre 10% e 20% é geralmente considerada boa e indica uma empresa que é eficiente na gestão de suas despesas e custos, resultando em uma rentabilidade sólida. É comum em setores com menos concorrência e mais poder de precificação</t>
+          <t>Uma margem líquida nessa faixa é considerada moderada e pode ser típica de empresas que operam em setores com margens mais equilibradas, como algumas indústrias ou serviços. Reflete uma eficiência razoável em converter receita em lucro líquido.</t>
         </is>
       </c>
     </row>
@@ -10797,11 +10797,11 @@
         </is>
       </c>
       <c r="E193" s="2" t="n">
-        <v>0.1013</v>
-      </c>
-      <c r="F193" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>0.06660000000000001</v>
+      </c>
+      <c r="F193" s="6" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -10826,7 +10826,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Uma margem EBIT entre 10% e 20% indica uma boa eficiência operacional. A empresa consegue gerar uma quantidade significativa de lucro operacional em relação à receita líquida. Esse nível é comum em setores menos intensivos em capital e com uma boa capacidade de controle de custos</t>
+          <t>Uma margem EBIT nessa faixa é considerada moderada e pode ser típica de empresas em setores com margens mais equilibradas. Reflete uma eficiência operacional razoável, mas pode haver espaço para melhorar a rentabilidade operacional</t>
         </is>
       </c>
     </row>
@@ -10854,7 +10854,7 @@
       <c r="E194" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F194" s="6" t="inlineStr">
+      <c r="F194" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -10907,9 +10907,9 @@
         </is>
       </c>
       <c r="E195" s="2" t="n">
-        <v>0.3821</v>
-      </c>
-      <c r="F195" s="7" t="inlineStr">
+        <v>0.3683</v>
+      </c>
+      <c r="F195" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
         </is>
       </c>
     </row>
@@ -11074,34 +11074,34 @@
       <c r="E198" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F198" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+      <c r="F198" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
         </is>
       </c>
     </row>
@@ -11127,16 +11127,16 @@
         </is>
       </c>
       <c r="E199" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F199" s="6" t="inlineStr">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F199" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -11184,34 +11184,34 @@
       <c r="E200" s="5" t="n">
         <v>0.92</v>
       </c>
-      <c r="F200" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+      <c r="F200" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
         </is>
       </c>
       <c r="E201" s="5" t="n">
-        <v>10.06</v>
+        <v>14.03</v>
       </c>
       <c r="F201" s="4" t="inlineStr">
         <is>
@@ -11292,11 +11292,11 @@
         </is>
       </c>
       <c r="E202" s="2" t="n">
-        <v>0.07870000000000001</v>
-      </c>
-      <c r="F202" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>0.1094</v>
+      </c>
+      <c r="F202" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -11347,9 +11347,9 @@
         </is>
       </c>
       <c r="E203" s="5" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="F203" s="7" t="inlineStr">
+        <v>5.07</v>
+      </c>
+      <c r="F203" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="E204" s="5" t="n">
-        <v>-0.45</v>
+        <v>-0.18</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -11447,9 +11447,9 @@
         </is>
       </c>
       <c r="E205" s="5" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="F205" s="6" t="inlineStr">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F205" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -11504,7 +11504,7 @@
       <c r="E206" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F206" s="6" t="inlineStr">
+      <c r="F206" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -11557,11 +11557,11 @@
         </is>
       </c>
       <c r="E207" s="5" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="F207" s="7" t="inlineStr">
-        <is>
-          <t>regular</t>
+        <v>6.73</v>
+      </c>
+      <c r="F207" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -11614,7 +11614,7 @@
       <c r="E208" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F208" s="6" t="inlineStr">
+      <c r="F208" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -11667,11 +11667,11 @@
         </is>
       </c>
       <c r="E209" s="5" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="F209" s="7" t="inlineStr">
-        <is>
-          <t>regular</t>
+        <v>6.73</v>
+      </c>
+      <c r="F209" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="E210" s="5" t="n">
-        <v>32.15</v>
+        <v>31.72</v>
       </c>
       <c r="F210" s="4" t="inlineStr">
         <is>
@@ -11777,9 +11777,9 @@
         </is>
       </c>
       <c r="E211" s="5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F211" s="6" t="inlineStr">
+        <v>0.05</v>
+      </c>
+      <c r="F211" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -11832,9 +11832,9 @@
         </is>
       </c>
       <c r="E212" s="5" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F212" s="7" t="inlineStr">
+        <v>4.3</v>
+      </c>
+      <c r="F212" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -11887,9 +11887,9 @@
         </is>
       </c>
       <c r="E213" s="5" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F213" s="6" t="inlineStr">
+        <v>0.45</v>
+      </c>
+      <c r="F213" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -11942,7 +11942,7 @@
         </is>
       </c>
       <c r="E214" s="5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         </is>
       </c>
       <c r="E215" s="8" t="n">
-        <v>27.81</v>
+        <v>21.81</v>
       </c>
       <c r="F215" s="4" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="E216" s="8" t="n">
-        <v>622189029.33</v>
+        <v>833474367.83</v>
       </c>
       <c r="F216" s="4" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         </is>
       </c>
       <c r="E217" s="8" t="n">
-        <v>184236344000</v>
+        <v>181793664000</v>
       </c>
       <c r="F217" s="4" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         </is>
       </c>
       <c r="E218" s="8" t="n">
-        <v>2398719197000</v>
+        <v>2427051877000</v>
       </c>
       <c r="F218" s="4" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="E219" s="8" t="n">
-        <v>83167243000</v>
+        <v>71510833000</v>
       </c>
       <c r="F219" s="4" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
       <c r="E220" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F220" s="6" t="inlineStr">
+      <c r="F220" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12317,7 +12317,7 @@
         </is>
       </c>
       <c r="E221" s="8" t="n">
-        <v>83167243000</v>
+        <v>71510833000</v>
       </c>
       <c r="F221" s="4" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
       <c r="E222" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F222" s="6" t="inlineStr">
+      <c r="F222" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12427,7 +12427,7 @@
         </is>
       </c>
       <c r="E223" s="8" t="n">
-        <v>159374494652</v>
+        <v>124989490412</v>
       </c>
       <c r="F223" s="4" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="E224" s="8" t="n">
-        <v>159374494652</v>
+        <v>124989490412</v>
       </c>
       <c r="F224" s="4" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         </is>
       </c>
       <c r="E226" s="2" t="n">
-        <v>0.1583</v>
+        <v>0.1357</v>
       </c>
       <c r="F226" s="4" t="inlineStr">
         <is>
@@ -12647,9 +12647,9 @@
         </is>
       </c>
       <c r="E227" s="2" t="n">
-        <v>0.0122</v>
-      </c>
-      <c r="F227" s="6" t="inlineStr">
+        <v>0.0102</v>
+      </c>
+      <c r="F227" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12704,7 +12704,7 @@
       <c r="E228" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F228" s="6" t="inlineStr">
+      <c r="F228" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12759,7 +12759,7 @@
       <c r="E229" s="5" t="n">
         <v>0.11</v>
       </c>
-      <c r="F229" s="6" t="inlineStr">
+      <c r="F229" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12812,9 +12812,9 @@
         </is>
       </c>
       <c r="E230" s="2" t="n">
-        <v>0.0823</v>
-      </c>
-      <c r="F230" s="7" t="inlineStr">
+        <v>0.0862</v>
+      </c>
+      <c r="F230" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -12867,9 +12867,9 @@
         </is>
       </c>
       <c r="E231" s="2" t="n">
-        <v>0.0793</v>
-      </c>
-      <c r="F231" s="7" t="inlineStr">
+        <v>0.08460000000000001</v>
+      </c>
+      <c r="F231" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -12924,7 +12924,7 @@
       <c r="E232" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F232" s="6" t="inlineStr">
+      <c r="F232" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -12977,9 +12977,9 @@
         </is>
       </c>
       <c r="E233" s="2" t="n">
-        <v>0.3233</v>
-      </c>
-      <c r="F233" s="7" t="inlineStr">
+        <v>0.3269</v>
+      </c>
+      <c r="F233" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -13116,7 +13116,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
         </is>
       </c>
     </row>
@@ -13144,34 +13144,34 @@
       <c r="E236" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F236" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+      <c r="F236" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
         </is>
       </c>
     </row>
@@ -13199,14 +13199,14 @@
       <c r="E237" s="5" t="n">
         <v>0.08</v>
       </c>
-      <c r="F237" s="6" t="inlineStr">
+      <c r="F237" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -13254,34 +13254,34 @@
       <c r="E238" s="5" t="n">
         <v>0.92</v>
       </c>
-      <c r="F238" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+      <c r="F238" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
         </is>
       </c>
     </row>
@@ -13307,7 +13307,7 @@
         </is>
       </c>
       <c r="E239" s="5" t="n">
-        <v>12.81</v>
+        <v>11.09</v>
       </c>
       <c r="F239" s="4" t="inlineStr">
         <is>
@@ -13362,11 +13362,11 @@
         </is>
       </c>
       <c r="E240" s="2" t="n">
-        <v>0.0958</v>
-      </c>
-      <c r="F240" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>0.0565</v>
+      </c>
+      <c r="F240" s="6" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -13417,7 +13417,7 @@
         </is>
       </c>
       <c r="E241" s="5" t="n">
-        <v>7.02</v>
+        <v>9.33</v>
       </c>
       <c r="F241" s="3" t="inlineStr">
         <is>
@@ -13472,9 +13472,9 @@
         </is>
       </c>
       <c r="E242" s="5" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F242" s="6" t="inlineStr">
+        <v>0.21</v>
+      </c>
+      <c r="F242" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13527,9 +13527,9 @@
         </is>
       </c>
       <c r="E243" s="5" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="F243" s="6" t="inlineStr">
+        <v>1.04</v>
+      </c>
+      <c r="F243" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13584,7 +13584,7 @@
       <c r="E244" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F244" s="6" t="inlineStr">
+      <c r="F244" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13637,7 +13637,7 @@
         </is>
       </c>
       <c r="E245" s="5" t="n">
-        <v>6.99</v>
+        <v>8.85</v>
       </c>
       <c r="F245" s="3" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
       <c r="E246" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F246" s="6" t="inlineStr">
+      <c r="F246" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13747,7 +13747,7 @@
         </is>
       </c>
       <c r="E247" s="5" t="n">
-        <v>7.29</v>
+        <v>9.51</v>
       </c>
       <c r="F247" s="3" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         </is>
       </c>
       <c r="E248" s="5" t="n">
-        <v>15.95</v>
+        <v>16.1</v>
       </c>
       <c r="F248" s="4" t="inlineStr">
         <is>
@@ -13857,9 +13857,9 @@
         </is>
       </c>
       <c r="E249" s="5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F249" s="6" t="inlineStr">
+        <v>0.09</v>
+      </c>
+      <c r="F249" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13912,9 +13912,9 @@
         </is>
       </c>
       <c r="E250" s="5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="F250" s="6" t="inlineStr">
+        <v>1.8</v>
+      </c>
+      <c r="F250" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -13967,9 +13967,9 @@
         </is>
       </c>
       <c r="E251" s="5" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F251" s="6" t="inlineStr">
+        <v>0.8</v>
+      </c>
+      <c r="F251" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14022,7 +14022,7 @@
         </is>
       </c>
       <c r="E252" s="5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         </is>
       </c>
       <c r="E253" s="8" t="n">
-        <v>11.63</v>
+        <v>16.75</v>
       </c>
       <c r="F253" s="4" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="E254" s="8" t="n">
-        <v>561488374.38</v>
+        <v>538414385.48</v>
       </c>
       <c r="F254" s="4" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         </is>
       </c>
       <c r="E255" s="8" t="n">
-        <v>168942492000</v>
+        <v>170501799000</v>
       </c>
       <c r="F255" s="4" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         </is>
       </c>
       <c r="E256" s="8" t="n">
-        <v>2069506045000</v>
+        <v>2054649704000</v>
       </c>
       <c r="F256" s="4" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         </is>
       </c>
       <c r="E257" s="8" t="n">
-        <v>208023801000</v>
+        <v>171220729000</v>
       </c>
       <c r="F257" s="4" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
       <c r="E258" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F258" s="6" t="inlineStr">
+      <c r="F258" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="E259" s="8" t="n">
-        <v>208023801000</v>
+        <v>171220729000</v>
       </c>
       <c r="F259" s="4" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
       <c r="E260" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F260" s="6" t="inlineStr">
+      <c r="F260" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14507,7 +14507,7 @@
         </is>
       </c>
       <c r="E261" s="8" t="n">
-        <v>118199461352</v>
+        <v>165164259965</v>
       </c>
       <c r="F261" s="4" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         </is>
       </c>
       <c r="E262" s="8" t="n">
-        <v>118199461352</v>
+        <v>165164259965</v>
       </c>
       <c r="F262" s="4" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         </is>
       </c>
       <c r="E263" s="2" t="n">
-        <v>0.6224000000000001</v>
+        <v>0.6207</v>
       </c>
       <c r="F263" s="4" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         </is>
       </c>
       <c r="E264" s="2" t="n">
-        <v>0.1038</v>
+        <v>0.1115</v>
       </c>
       <c r="F264" s="4" t="inlineStr">
         <is>
@@ -14727,9 +14727,9 @@
         </is>
       </c>
       <c r="E265" s="2" t="n">
-        <v>0.008500000000000001</v>
-      </c>
-      <c r="F265" s="6" t="inlineStr">
+        <v>0.009300000000000001</v>
+      </c>
+      <c r="F265" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14784,7 +14784,7 @@
       <c r="E266" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F266" s="6" t="inlineStr">
+      <c r="F266" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14837,9 +14837,9 @@
         </is>
       </c>
       <c r="E267" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F267" s="6" t="inlineStr">
+        <v>0.11</v>
+      </c>
+      <c r="F267" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14894,7 +14894,7 @@
       <c r="E268" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F268" s="6" t="inlineStr">
+      <c r="F268" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -14949,7 +14949,7 @@
       <c r="E269" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F269" s="6" t="inlineStr">
+      <c r="F269" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15004,7 +15004,7 @@
       <c r="E270" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F270" s="6" t="inlineStr">
+      <c r="F270" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15059,7 +15059,7 @@
       <c r="E271" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F271" s="6" t="inlineStr">
+      <c r="F271" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
         </is>
       </c>
     </row>
@@ -15224,34 +15224,34 @@
       <c r="E274" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F274" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+      <c r="F274" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
         </is>
       </c>
     </row>
@@ -15277,16 +15277,11 @@
         </is>
       </c>
       <c r="E275" s="5" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F275" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>0.63</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -15302,11 +15297,6 @@
       <c r="J275" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -15332,36 +15322,36 @@
         </is>
       </c>
       <c r="E276" s="5" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="F276" s="6" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice nessa faixa sugere uma estrutura de capital com uma proporção razoável de patrimônio líquido em relação aos ativos. A empresa tem um equilíbrio entre o financiamento próprio e o financiamento externo. Esse nível de alavancagem é geralmente considerado moderado e pode ser típico em muitos setores.</t>
         </is>
       </c>
     </row>
@@ -15387,9 +15377,9 @@
         </is>
       </c>
       <c r="E277" s="5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F277" s="6" t="inlineStr">
+        <v>2.5</v>
+      </c>
+      <c r="F277" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15442,11 +15432,11 @@
         </is>
       </c>
       <c r="E278" s="2" t="n">
-        <v>0.0987</v>
-      </c>
-      <c r="F278" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>0.1043</v>
+      </c>
+      <c r="F278" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -15471,7 +15461,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>OTIMO</t>
         </is>
       </c>
     </row>
@@ -15497,7 +15487,7 @@
         </is>
       </c>
       <c r="E279" s="5" t="n">
-        <v>8.619999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="F279" s="3" t="inlineStr">
         <is>
@@ -15552,9 +15542,9 @@
         </is>
       </c>
       <c r="E280" s="5" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F280" s="6" t="inlineStr">
+        <v>1.32</v>
+      </c>
+      <c r="F280" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15607,7 +15597,7 @@
         </is>
       </c>
       <c r="E281" s="5" t="n">
-        <v>7.73</v>
+        <v>6.1</v>
       </c>
       <c r="F281" s="3" t="inlineStr">
         <is>
@@ -15664,7 +15654,7 @@
       <c r="E282" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F282" s="6" t="inlineStr">
+      <c r="F282" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15717,7 +15707,7 @@
         </is>
       </c>
       <c r="E283" s="5" t="n">
-        <v>7.68</v>
+        <v>7.35</v>
       </c>
       <c r="F283" s="3" t="inlineStr">
         <is>
@@ -15774,7 +15764,7 @@
       <c r="E284" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F284" s="6" t="inlineStr">
+      <c r="F284" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -15827,7 +15817,7 @@
         </is>
       </c>
       <c r="E285" s="5" t="n">
-        <v>7.68</v>
+        <v>7.35</v>
       </c>
       <c r="F285" s="3" t="inlineStr">
         <is>
@@ -15882,9 +15872,9 @@
         </is>
       </c>
       <c r="E286" s="5" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="F286" s="7" t="inlineStr">
+        <v>5.83</v>
+      </c>
+      <c r="F286" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -15937,9 +15927,9 @@
         </is>
       </c>
       <c r="E287" s="5" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="F287" s="7" t="inlineStr">
+        <v>3.84</v>
+      </c>
+      <c r="F287" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -15992,9 +15982,9 @@
         </is>
       </c>
       <c r="E288" s="5" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F288" s="7" t="inlineStr">
+        <v>4.32</v>
+      </c>
+      <c r="F288" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -16049,7 +16039,7 @@
       <c r="E289" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F289" s="6" t="inlineStr">
+      <c r="F289" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -16102,7 +16092,7 @@
         </is>
       </c>
       <c r="E290" s="5" t="n">
-        <v>-6.4</v>
+        <v>-6.63</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -16147,7 +16137,7 @@
         </is>
       </c>
       <c r="E291" s="8" t="n">
-        <v>37.49</v>
+        <v>35.57</v>
       </c>
       <c r="F291" s="4" t="inlineStr">
         <is>
@@ -16202,7 +16192,7 @@
         </is>
       </c>
       <c r="E292" s="8" t="n">
-        <v>247315224</v>
+        <v>177010295.61</v>
       </c>
       <c r="F292" s="4" t="inlineStr">
         <is>
@@ -16257,7 +16247,7 @@
         </is>
       </c>
       <c r="E293" s="8" t="n">
-        <v>9695421000</v>
+        <v>11661962000</v>
       </c>
       <c r="F293" s="4" t="inlineStr">
         <is>
@@ -16312,7 +16302,7 @@
         </is>
       </c>
       <c r="E294" s="8" t="n">
-        <v>21615587000</v>
+        <v>18524267000</v>
       </c>
       <c r="F294" s="4" t="inlineStr">
         <is>
@@ -16367,7 +16357,7 @@
         </is>
       </c>
       <c r="E295" s="8" t="n">
-        <v>9905706000</v>
+        <v>7793681000</v>
       </c>
       <c r="F295" s="4" t="inlineStr">
         <is>
@@ -16424,7 +16414,7 @@
       <c r="E296" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F296" s="6" t="inlineStr">
+      <c r="F296" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -16477,7 +16467,7 @@
         </is>
       </c>
       <c r="E297" s="8" t="n">
-        <v>8508976000</v>
+        <v>6455132000</v>
       </c>
       <c r="F297" s="4" t="inlineStr">
         <is>
@@ -16534,7 +16524,7 @@
       <c r="E298" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F298" s="6" t="inlineStr">
+      <c r="F298" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -16587,7 +16577,7 @@
         </is>
       </c>
       <c r="E299" s="8" t="n">
-        <v>74980000000</v>
+        <v>71140000000</v>
       </c>
       <c r="F299" s="4" t="inlineStr">
         <is>
@@ -16642,7 +16632,7 @@
         </is>
       </c>
       <c r="E300" s="8" t="n">
-        <v>74980000000</v>
+        <v>71140000000</v>
       </c>
       <c r="F300" s="4" t="inlineStr">
         <is>
@@ -16697,7 +16687,7 @@
         </is>
       </c>
       <c r="E301" s="2" t="n">
-        <v>0.3187</v>
+        <v>0.3081</v>
       </c>
       <c r="F301" s="4" t="inlineStr">
         <is>
@@ -16752,7 +16742,7 @@
         </is>
       </c>
       <c r="E302" s="2" t="n">
-        <v>0.8976999999999999</v>
+        <v>0.7413</v>
       </c>
       <c r="F302" s="4" t="inlineStr">
         <is>
@@ -16807,7 +16797,7 @@
         </is>
       </c>
       <c r="E303" s="2" t="n">
-        <v>0.4026</v>
+        <v>0.4667</v>
       </c>
       <c r="F303" s="4" t="inlineStr">
         <is>
@@ -16864,7 +16854,7 @@
       <c r="E304" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F304" s="6" t="inlineStr">
+      <c r="F304" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -16919,7 +16909,7 @@
       <c r="E305" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F305" s="6" t="inlineStr">
+      <c r="F305" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -16974,7 +16964,7 @@
       <c r="E306" s="2" t="n">
         <v>-0.05980000000000001</v>
       </c>
-      <c r="F306" s="6" t="inlineStr">
+      <c r="F306" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17029,7 +17019,7 @@
       <c r="E307" s="2" t="n">
         <v>-0.0182</v>
       </c>
-      <c r="F307" s="6" t="inlineStr">
+      <c r="F307" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17084,7 +17074,7 @@
       <c r="E308" s="2" t="n">
         <v>0.0211</v>
       </c>
-      <c r="F308" s="6" t="inlineStr">
+      <c r="F308" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17139,7 +17129,7 @@
       <c r="E309" s="2" t="n">
         <v>0.3006</v>
       </c>
-      <c r="F309" s="7" t="inlineStr">
+      <c r="F309" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -17194,7 +17184,7 @@
       <c r="E310" s="5" t="n">
         <v>2.15</v>
       </c>
-      <c r="F310" s="6" t="inlineStr">
+      <c r="F310" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17249,7 +17239,7 @@
       <c r="E311" s="5" t="n">
         <v>12.38</v>
       </c>
-      <c r="F311" s="6" t="inlineStr">
+      <c r="F311" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17276,7 +17266,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentável</t>
         </is>
       </c>
     </row>
@@ -17306,22 +17296,22 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
     </row>
@@ -17349,14 +17339,14 @@
       <c r="E313" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="F313" s="6" t="inlineStr">
+      <c r="F313" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -17404,34 +17394,34 @@
       <c r="E314" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="F314" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+      <c r="F314" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios.</t>
         </is>
       </c>
     </row>
@@ -17459,7 +17449,7 @@
       <c r="E315" s="5" t="n">
         <v>0.76</v>
       </c>
-      <c r="F315" s="6" t="inlineStr">
+      <c r="F315" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17514,7 +17504,7 @@
       <c r="E316" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F316" s="6" t="inlineStr">
+      <c r="F316" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17567,7 +17557,7 @@
         </is>
       </c>
       <c r="E317" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.22</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -17614,7 +17604,7 @@
       <c r="E318" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="F318" s="6" t="inlineStr">
+      <c r="F318" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17667,9 +17657,9 @@
         </is>
       </c>
       <c r="E319" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F319" s="6" t="inlineStr">
+        <v>0.11</v>
+      </c>
+      <c r="F319" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17722,7 +17712,7 @@
         </is>
       </c>
       <c r="E320" s="5" t="n">
-        <v>12.86</v>
+        <v>13</v>
       </c>
       <c r="F320" s="4" t="inlineStr">
         <is>
@@ -17777,7 +17767,7 @@
         </is>
       </c>
       <c r="E321" s="5" t="n">
-        <v>-14.94</v>
+        <v>-15.09</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -17822,9 +17812,9 @@
         </is>
       </c>
       <c r="E322" s="5" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F322" s="6" t="inlineStr">
+        <v>0.61</v>
+      </c>
+      <c r="F322" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -17877,7 +17867,7 @@
         </is>
       </c>
       <c r="E323" s="5" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.71</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -17979,7 +17969,7 @@
       <c r="E325" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="F325" s="6" t="inlineStr">
+      <c r="F325" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -18079,7 +18069,7 @@
       <c r="E327" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="F327" s="6" t="inlineStr">
+      <c r="F327" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -18132,7 +18122,7 @@
         </is>
       </c>
       <c r="E328" s="5" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -18177,11 +18167,11 @@
         </is>
       </c>
       <c r="E329" s="8" t="n">
-        <v>2.84</v>
+        <v>3.62</v>
       </c>
       <c r="F329" s="6" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -18206,7 +18196,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -18232,7 +18222,7 @@
         </is>
       </c>
       <c r="E330" s="8" t="n">
-        <v>11939603.9</v>
+        <v>16043680.3</v>
       </c>
       <c r="F330" s="4" t="inlineStr">
         <is>
@@ -18617,7 +18607,7 @@
         </is>
       </c>
       <c r="E337" s="8" t="n">
-        <v>270047071</v>
+        <v>344214929</v>
       </c>
       <c r="F337" s="4" t="inlineStr">
         <is>
@@ -18672,7 +18662,7 @@
         </is>
       </c>
       <c r="E338" s="8" t="n">
-        <v>7229047071</v>
+        <v>7303214929</v>
       </c>
       <c r="F338" s="4" t="inlineStr">
         <is>
@@ -18727,7 +18717,7 @@
         </is>
       </c>
       <c r="E339" s="2" t="n">
-        <v>0.9987</v>
+        <v>0.9998</v>
       </c>
       <c r="F339" s="4" t="inlineStr">
         <is>
@@ -18919,7 +18909,7 @@
       <c r="E343" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="F343" s="6" t="inlineStr">
+      <c r="F343" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -18974,7 +18964,7 @@
       <c r="E344" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F344" s="6" t="inlineStr">
+      <c r="F344" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19029,7 +19019,7 @@
       <c r="E345" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F345" s="6" t="inlineStr">
+      <c r="F345" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19084,7 +19074,7 @@
       <c r="E346" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F346" s="6" t="inlineStr">
+      <c r="F346" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19139,7 +19129,7 @@
       <c r="E347" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F347" s="6" t="inlineStr">
+      <c r="F347" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19276,7 +19266,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
         </is>
       </c>
     </row>
@@ -19304,24 +19294,34 @@
       <c r="E350" s="5" t="n">
         <v>-0.17</v>
       </c>
+      <c r="F350" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
         </is>
       </c>
     </row>
@@ -19349,14 +19349,9 @@
       <c r="E351" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="F351" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -19372,11 +19367,6 @@
       <c r="J351" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -19404,34 +19394,34 @@
       <c r="E352" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="F352" s="6" t="inlineStr">
+      <c r="F352" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitáveis</t>
         </is>
       </c>
     </row>
@@ -19459,7 +19449,7 @@
       <c r="E353" s="5" t="n">
         <v>5.41</v>
       </c>
-      <c r="F353" s="7" t="inlineStr">
+      <c r="F353" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -19567,9 +19557,9 @@
         </is>
       </c>
       <c r="E355" s="5" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F355" s="7" t="inlineStr">
+        <v>3.34</v>
+      </c>
+      <c r="F355" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -19622,7 +19612,7 @@
         </is>
       </c>
       <c r="E356" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.22</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -19667,9 +19657,9 @@
         </is>
       </c>
       <c r="E357" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F357" s="6" t="inlineStr">
+        <v>0.71</v>
+      </c>
+      <c r="F357" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19724,7 +19714,7 @@
       <c r="E358" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F358" s="6" t="inlineStr">
+      <c r="F358" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19777,9 +19767,9 @@
         </is>
       </c>
       <c r="E359" s="5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F359" s="7" t="inlineStr">
+        <v>3.21</v>
+      </c>
+      <c r="F359" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -19834,7 +19824,7 @@
       <c r="E360" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F360" s="6" t="inlineStr">
+      <c r="F360" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -19887,9 +19877,9 @@
         </is>
       </c>
       <c r="E361" s="5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F361" s="7" t="inlineStr">
+        <v>3.44</v>
+      </c>
+      <c r="F361" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -19997,9 +19987,9 @@
         </is>
       </c>
       <c r="E363" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F363" s="6" t="inlineStr">
+        <v>0.71</v>
+      </c>
+      <c r="F363" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -20054,7 +20044,7 @@
       <c r="E364" s="5" t="n">
         <v>4.59</v>
       </c>
-      <c r="F364" s="7" t="inlineStr">
+      <c r="F364" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -20109,7 +20099,7 @@
       <c r="E365" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F365" s="6" t="inlineStr">
+      <c r="F365" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -20162,7 +20152,7 @@
         </is>
       </c>
       <c r="E366" s="5" t="n">
-        <v>-0.83</v>
+        <v>-0.73</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -20207,7 +20197,7 @@
         </is>
       </c>
       <c r="E367" s="8" t="n">
-        <v>17.33</v>
+        <v>15.31</v>
       </c>
       <c r="F367" s="4" t="inlineStr">
         <is>
@@ -20262,7 +20252,7 @@
         </is>
       </c>
       <c r="E368" s="8" t="n">
-        <v>47339646.19</v>
+        <v>64123651.7</v>
       </c>
       <c r="F368" s="4" t="inlineStr">
         <is>
@@ -20484,7 +20474,7 @@
       <c r="E372" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F372" s="6" t="inlineStr">
+      <c r="F372" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -20637,7 +20627,7 @@
         </is>
       </c>
       <c r="E375" s="8" t="n">
-        <v>6595720111</v>
+        <v>5899637787</v>
       </c>
       <c r="F375" s="4" t="inlineStr">
         <is>
@@ -20692,7 +20682,7 @@
         </is>
       </c>
       <c r="E376" s="8" t="n">
-        <v>6300989111</v>
+        <v>5604906787</v>
       </c>
       <c r="F376" s="4" t="inlineStr">
         <is>
@@ -20969,7 +20959,7 @@
       <c r="E381" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F381" s="6" t="inlineStr">
+      <c r="F381" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -21022,7 +21012,7 @@
         </is>
       </c>
       <c r="E382" s="2" t="n">
-        <v>0.1712</v>
+        <v>0.1725</v>
       </c>
       <c r="F382" s="3" t="inlineStr">
         <is>
@@ -21077,7 +21067,7 @@
         </is>
       </c>
       <c r="E383" s="2" t="n">
-        <v>0.2702</v>
+        <v>0.2379</v>
       </c>
       <c r="F383" s="4" t="inlineStr">
         <is>
@@ -21132,11 +21122,11 @@
         </is>
       </c>
       <c r="E384" s="2" t="n">
-        <v>0.3055</v>
-      </c>
-      <c r="F384" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>0.2726</v>
+      </c>
+      <c r="F384" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -21161,7 +21151,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>OTUma margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.IMO</t>
+          <t xml:space="preserve"> Uma margem EBITDA entre 20% e 30% indica uma boa eficiência operacional, com a empresa gerando uma quantidade significativa de EBITDA em relação à receita líquida. Isso é comum em setores com menos pressão sobre margens e onde as empresas conseguem manter um controle eficiente dos custos.</t>
         </is>
       </c>
     </row>
@@ -21187,11 +21177,11 @@
         </is>
       </c>
       <c r="E385" s="2" t="n">
-        <v>0.2182</v>
+        <v>0.1963</v>
       </c>
       <c r="F385" s="7" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -21216,7 +21206,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Uma margem bruta nessa faixa é geralmente considerada moderada e pode ser típica de empresas com uma estrutura de custos mais equilibrada. Indica que a empresa está conseguindo controlar seus custos de produção de maneira razoável.</t>
+          <t>Uma margem bruta abaixo de 20% pode indicar que a empresa tem um custo de produção relativamente alto em relação à sua receita. Isso é comum em setores com altos custos de matéria-prima ou produção, como o varejo de alimentos e algumas indústrias manufatureiras.</t>
         </is>
       </c>
     </row>
@@ -21242,7 +21232,7 @@
         </is>
       </c>
       <c r="E386" s="5" t="n">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="F386" s="4" t="inlineStr">
         <is>
@@ -21297,7 +21287,7 @@
         </is>
       </c>
       <c r="E387" s="5" t="n">
-        <v>0.64</v>
+        <v>0.95</v>
       </c>
       <c r="F387" s="4" t="inlineStr">
         <is>
@@ -21326,7 +21316,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>Indica uma posição financeira forte, com baixa alavancagem. Empresas nesta faixa são geralmente vistas como financeiramente saudáveis, com uma sólida capacidade de pagar suas dívidas rapidamente utilizando seus lucros operacionais antes de despesas não operacionais. Essas empresas têm menor risco de problemas financeiros, mesmo em períodos de crise.</t>
         </is>
       </c>
     </row>
@@ -21352,36 +21342,36 @@
         </is>
       </c>
       <c r="E388" s="5" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F388" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>1.09</v>
+      </c>
+      <c r="F388" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Este valor é considerado saudável. Indica que a empresa está em uma posição financeira sólida, com baixa alavancagem e boa capacidade de pagar suas dívidas rapidamente com os lucros operacionais. Empresas com este múltiplo são vistas como menos arriscadas e geralmente têm mais facilidade para enfrentar períodos de incerteza econômica.</t>
         </is>
       </c>
     </row>
@@ -21407,16 +21397,11 @@
         </is>
       </c>
       <c r="E389" s="5" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F389" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>0.44</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
@@ -21432,11 +21417,6 @@
       <c r="J389" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -21462,36 +21442,36 @@
         </is>
       </c>
       <c r="E390" s="5" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F390" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F390" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice entre 0,50 e 0,70 indica que a empresa possui uma boa proporção de patrimônio líquido em relação aos ativos, o que sugere uma sólida base financeira e uma menor dependência de dívidas. Empresas com valores nessa faixa geralmente têm uma estrutura de capital mais conservadora e são menos suscetíveis a riscos financeiros.</t>
         </is>
       </c>
     </row>
@@ -21517,9 +21497,9 @@
         </is>
       </c>
       <c r="E391" s="5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="F391" s="6" t="inlineStr">
+        <v>1.06</v>
+      </c>
+      <c r="F391" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -21572,7 +21552,7 @@
         </is>
       </c>
       <c r="E392" s="2" t="n">
-        <v>0.1274</v>
+        <v>0.1631</v>
       </c>
       <c r="F392" s="4" t="inlineStr">
         <is>
@@ -21627,9 +21607,9 @@
         </is>
       </c>
       <c r="E393" s="5" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="F393" s="7" t="inlineStr">
+        <v>4.44</v>
+      </c>
+      <c r="F393" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -21682,7 +21662,12 @@
         </is>
       </c>
       <c r="E394" s="5" t="n">
-        <v>-4.4</v>
+        <v>0.17</v>
+      </c>
+      <c r="F394" s="7" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -21702,6 +21687,11 @@
       <c r="J394" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -21727,9 +21717,9 @@
         </is>
       </c>
       <c r="E395" s="5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F395" s="6" t="inlineStr">
+        <v>1.11</v>
+      </c>
+      <c r="F395" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -21782,9 +21772,9 @@
         </is>
       </c>
       <c r="E396" s="5" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="F396" s="7" t="inlineStr">
+        <v>4.14</v>
+      </c>
+      <c r="F396" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -21837,9 +21827,9 @@
         </is>
       </c>
       <c r="E397" s="5" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="F397" s="7" t="inlineStr">
+        <v>4.74</v>
+      </c>
+      <c r="F397" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -21892,9 +21882,9 @@
         </is>
       </c>
       <c r="E398" s="5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="F398" s="6" t="inlineStr">
+        <v>2.81</v>
+      </c>
+      <c r="F398" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -21947,9 +21937,9 @@
         </is>
       </c>
       <c r="E399" s="5" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F399" s="7" t="inlineStr">
+        <v>3.22</v>
+      </c>
+      <c r="F399" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -22002,7 +21992,7 @@
         </is>
       </c>
       <c r="E400" s="5" t="n">
-        <v>9.81</v>
+        <v>9.75</v>
       </c>
       <c r="F400" s="3" t="inlineStr">
         <is>
@@ -22057,9 +22047,9 @@
         </is>
       </c>
       <c r="E401" s="5" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F401" s="6" t="inlineStr">
+        <v>0.49</v>
+      </c>
+      <c r="F401" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -22112,9 +22102,9 @@
         </is>
       </c>
       <c r="E402" s="5" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="F402" s="6" t="inlineStr">
+        <v>2.45</v>
+      </c>
+      <c r="F402" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -22167,9 +22157,9 @@
         </is>
       </c>
       <c r="E403" s="5" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F403" s="6" t="inlineStr">
+        <v>0.77</v>
+      </c>
+      <c r="F403" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -22222,7 +22212,7 @@
         </is>
       </c>
       <c r="E404" s="5" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.64</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -22267,7 +22257,7 @@
         </is>
       </c>
       <c r="E405" s="8" t="n">
-        <v>11.19</v>
+        <v>10.87</v>
       </c>
       <c r="F405" s="4" t="inlineStr">
         <is>
@@ -22322,7 +22312,7 @@
         </is>
       </c>
       <c r="E406" s="8" t="n">
-        <v>109126573.05</v>
+        <v>114281940.96</v>
       </c>
       <c r="F406" s="4" t="inlineStr">
         <is>
@@ -22377,7 +22367,7 @@
         </is>
       </c>
       <c r="E407" s="8" t="n">
-        <v>28060032000</v>
+        <v>27914455000</v>
       </c>
       <c r="F407" s="4" t="inlineStr">
         <is>
@@ -22432,7 +22422,7 @@
         </is>
       </c>
       <c r="E408" s="8" t="n">
-        <v>63006898000</v>
+        <v>63901931000</v>
       </c>
       <c r="F408" s="4" t="inlineStr">
         <is>
@@ -22487,7 +22477,7 @@
         </is>
       </c>
       <c r="E409" s="8" t="n">
-        <v>16272739000</v>
+        <v>15471501000</v>
       </c>
       <c r="F409" s="4" t="inlineStr">
         <is>
@@ -22542,7 +22532,7 @@
         </is>
       </c>
       <c r="E410" s="8" t="n">
-        <v>14134273000</v>
+        <v>15242574000</v>
       </c>
       <c r="F410" s="4" t="inlineStr">
         <is>
@@ -22597,7 +22587,7 @@
         </is>
       </c>
       <c r="E411" s="8" t="n">
-        <v>6621236000</v>
+        <v>4700460000</v>
       </c>
       <c r="F411" s="4" t="inlineStr">
         <is>
@@ -22652,7 +22642,7 @@
         </is>
       </c>
       <c r="E412" s="8" t="n">
-        <v>7513037000</v>
+        <v>10542114000</v>
       </c>
       <c r="F412" s="4" t="inlineStr">
         <is>
@@ -22707,7 +22697,7 @@
         </is>
       </c>
       <c r="E413" s="8" t="n">
-        <v>35926275202</v>
+        <v>35230523435</v>
       </c>
       <c r="F413" s="4" t="inlineStr">
         <is>
@@ -22762,7 +22752,7 @@
         </is>
       </c>
       <c r="E414" s="8" t="n">
-        <v>43439312202</v>
+        <v>45772637435</v>
       </c>
       <c r="F414" s="4" t="inlineStr">
         <is>
@@ -22817,7 +22807,7 @@
         </is>
       </c>
       <c r="E415" s="2" t="n">
-        <v>0.8134</v>
+        <v>0.8292</v>
       </c>
       <c r="F415" s="4" t="inlineStr">
         <is>
@@ -22872,7 +22862,7 @@
         </is>
       </c>
       <c r="E416" s="2" t="n">
-        <v>0.2355</v>
+        <v>0.2509</v>
       </c>
       <c r="F416" s="4" t="inlineStr">
         <is>
@@ -22927,7 +22917,7 @@
         </is>
       </c>
       <c r="E417" s="2" t="n">
-        <v>0.1049</v>
+        <v>0.1096</v>
       </c>
       <c r="F417" s="4" t="inlineStr">
         <is>
@@ -22982,7 +22972,7 @@
         </is>
       </c>
       <c r="E418" s="2" t="n">
-        <v>0.195</v>
+        <v>0.176</v>
       </c>
       <c r="F418" s="4" t="inlineStr">
         <is>
@@ -23037,9 +23027,9 @@
         </is>
       </c>
       <c r="E419" s="5" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F419" s="6" t="inlineStr">
+        <v>0.64</v>
+      </c>
+      <c r="F419" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -23092,11 +23082,11 @@
         </is>
       </c>
       <c r="E420" s="2" t="n">
-        <v>-0.07290000000000001</v>
-      </c>
-      <c r="F420" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>0.1513</v>
+      </c>
+      <c r="F420" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -23121,7 +23111,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Uma margem líquida abaixo de 5% sugere que a empresa tem uma margem de lucro relativamente baixa. Isso pode ser típico em setores com alta concorrência e margens reduzidas, como o varejo ou o setor de alimentos e bebidas. Pode indicar baixa eficiência na gestão de custos ou baixa rentabilidade</t>
+          <t>Uma margem líquida entre 10% e 20% é geralmente considerada boa e indica uma empresa que é eficiente na gestão de suas despesas e custos, resultando em uma rentabilidade sólida. É comum em setores com menos concorrência e mais poder de precificação</t>
         </is>
       </c>
     </row>
@@ -23147,11 +23137,11 @@
         </is>
       </c>
       <c r="E421" s="2" t="n">
-        <v>0.1358</v>
-      </c>
-      <c r="F421" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>0.2189</v>
+      </c>
+      <c r="F421" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -23176,7 +23166,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Uma margem EBIT entre 10% e 20% indica uma boa eficiência operacional. A empresa consegue gerar uma quantidade significativa de lucro operacional em relação à receita líquida. Esse nível é comum em setores menos intensivos em capital e com uma boa capacidade de controle de custos</t>
+          <t>Uma margem EBIT acima de 20% sugere alta eficiência operacional e uma forte capacidade de gerar lucro operacional a partir das vendas. Isso pode ser típico de setores com altos margens brutas e controle eficaz dos custos operacionais, como tecnologia, software e alguns serviços especializados</t>
         </is>
       </c>
     </row>
@@ -23202,7 +23192,7 @@
         </is>
       </c>
       <c r="E422" s="2" t="n">
-        <v>0.2052</v>
+        <v>0.2876</v>
       </c>
       <c r="F422" s="3" t="inlineStr">
         <is>
@@ -23257,7 +23247,7 @@
         </is>
       </c>
       <c r="E423" s="2" t="n">
-        <v>0.6614</v>
+        <v>0.6794</v>
       </c>
       <c r="F423" s="4" t="inlineStr">
         <is>
@@ -23312,11 +23302,11 @@
         </is>
       </c>
       <c r="E424" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F424" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>0.44</v>
+      </c>
+      <c r="F424" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -23341,7 +23331,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Um múltiplo nessa faixa sugere que a empresa tem um equilíbrio saudável entre dívida e patrimônio líquido. Isso é comum em empresas que utilizam algum nível de alavancagem para financiar seu crescimento, mas que ainda mantêm um risco financeiro relativamente controlado.</t>
+          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida.</t>
         </is>
       </c>
     </row>
@@ -23367,11 +23357,11 @@
         </is>
       </c>
       <c r="E425" s="5" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="F425" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
+        <v>2.92</v>
+      </c>
+      <c r="F425" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -23396,7 +23386,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um múltiplo nesta faixa é considerado aceitável, especialmente em setores onde é comum operar com algum nível de alavancagem. Indica que a empresa está gerenciando bem sua dívida, mas existe uma exposição maior ao risco se houver uma queda no EBITDA ou aumento na dívida.</t>
         </is>
       </c>
     </row>
@@ -23422,36 +23412,36 @@
         </is>
       </c>
       <c r="E426" s="5" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="F426" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>3.83</v>
+      </c>
+      <c r="F426" s="6" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = -10, Máximo = 2</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>Um múltiplo nesta faixa começa a indicar um nível elevado de alavancagem. Isso pode ser preocupante, especialmente se a empresa tiver fluxos de caixa voláteis ou se houver uma queda inesperada nos lucros. Embora possa ser administrável em setores com fluxos de caixa estáveis, é necessário cautela.</t>
         </is>
       </c>
     </row>
@@ -23477,16 +23467,11 @@
         </is>
       </c>
       <c r="E427" s="5" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="F427" s="6" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
+        <v>0.51</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
@@ -23502,11 +23487,6 @@
       <c r="J427" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>BAIXO</t>
         </is>
       </c>
     </row>
@@ -23532,36 +23512,36 @@
         </is>
       </c>
       <c r="E428" s="5" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="F428" s="6" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>Mínimo = 0.7, Máximo = inf</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>Um índice nessa faixa sugere uma estrutura de capital com uma proporção razoável de patrimônio líquido em relação aos ativos. A empresa tem um equilíbrio entre o financiamento próprio e o financiamento externo. Esse nível de alavancagem é geralmente considerado moderado e pode ser típico em muitos setores.</t>
         </is>
       </c>
     </row>
@@ -23587,9 +23567,9 @@
         </is>
       </c>
       <c r="E429" s="5" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="F429" s="6" t="inlineStr">
+        <v>1.38</v>
+      </c>
+      <c r="F429" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -23642,9 +23622,9 @@
         </is>
       </c>
       <c r="E430" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F430" s="6" t="inlineStr">
+        <v>0.0232</v>
+      </c>
+      <c r="F430" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -23697,7 +23677,12 @@
         </is>
       </c>
       <c r="E431" s="5" t="n">
-        <v>-7.03</v>
+        <v>5.5</v>
+      </c>
+      <c r="F431" s="6" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -23717,6 +23702,11 @@
       <c r="J431" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -23742,7 +23732,7 @@
         </is>
       </c>
       <c r="E432" s="5" t="n">
-        <v>-0.15</v>
+        <v>-0.02</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -23787,9 +23777,9 @@
         </is>
       </c>
       <c r="E433" s="5" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F433" s="6" t="inlineStr">
+        <v>0.43</v>
+      </c>
+      <c r="F433" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -23842,11 +23832,11 @@
         </is>
       </c>
       <c r="E434" s="5" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="F434" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>5.81</v>
+      </c>
+      <c r="F434" s="6" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -23871,7 +23861,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>BOM</t>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -23897,11 +23887,11 @@
         </is>
       </c>
       <c r="E435" s="5" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="F435" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>7.63</v>
+      </c>
+      <c r="F435" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -23926,7 +23916,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>OTIMO</t>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -23952,9 +23942,9 @@
         </is>
       </c>
       <c r="E436" s="5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F436" s="6" t="inlineStr">
+        <v>2.89</v>
+      </c>
+      <c r="F436" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -24007,9 +23997,9 @@
         </is>
       </c>
       <c r="E437" s="5" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="F437" s="7" t="inlineStr">
+        <v>3.8</v>
+      </c>
+      <c r="F437" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -24062,7 +24052,7 @@
         </is>
       </c>
       <c r="E438" s="5" t="n">
-        <v>6.19</v>
+        <v>6.63</v>
       </c>
       <c r="F438" s="3" t="inlineStr">
         <is>
@@ -24117,9 +24107,9 @@
         </is>
       </c>
       <c r="E439" s="5" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F439" s="6" t="inlineStr">
+        <v>0.22</v>
+      </c>
+      <c r="F439" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -24172,9 +24162,9 @@
         </is>
       </c>
       <c r="E440" s="5" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="F440" s="6" t="inlineStr">
+        <v>0.52</v>
+      </c>
+      <c r="F440" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -24227,9 +24217,9 @@
         </is>
       </c>
       <c r="E441" s="5" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F441" s="6" t="inlineStr">
+        <v>0.83</v>
+      </c>
+      <c r="F441" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -24282,7 +24272,7 @@
         </is>
       </c>
       <c r="E442" s="5" t="n">
-        <v>-0.16</v>
+        <v>-0.28</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -24327,9 +24317,9 @@
         </is>
       </c>
       <c r="E443" s="8" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="F443" s="6" t="inlineStr">
+        <v>2.88</v>
+      </c>
+      <c r="F443" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>
@@ -24382,7 +24372,7 @@
         </is>
       </c>
       <c r="E444" s="8" t="n">
-        <v>73221095.14</v>
+        <v>120923481.87</v>
       </c>
       <c r="F444" s="4" t="inlineStr">
         <is>
@@ -24437,7 +24427,7 @@
         </is>
       </c>
       <c r="E445" s="8" t="n">
-        <v>11616160000</v>
+        <v>12444512000</v>
       </c>
       <c r="F445" s="4" t="inlineStr">
         <is>
@@ -24492,7 +24482,7 @@
         </is>
       </c>
       <c r="E446" s="8" t="n">
-        <v>23866998000</v>
+        <v>24203940000</v>
       </c>
       <c r="F446" s="4" t="inlineStr">
         <is>
@@ -24547,7 +24537,7 @@
         </is>
       </c>
       <c r="E447" s="8" t="n">
-        <v>4221237000</v>
+        <v>4711693000</v>
       </c>
       <c r="F447" s="4" t="inlineStr">
         <is>
@@ -24602,7 +24592,7 @@
         </is>
       </c>
       <c r="E448" s="8" t="n">
-        <v>6888670000</v>
+        <v>6873792000</v>
       </c>
       <c r="F448" s="4" t="inlineStr">
         <is>
@@ -24657,7 +24647,7 @@
         </is>
       </c>
       <c r="E449" s="8" t="n">
-        <v>1126271000</v>
+        <v>1421705000</v>
       </c>
       <c r="F449" s="4" t="inlineStr">
         <is>
@@ -24712,7 +24702,7 @@
         </is>
       </c>
       <c r="E450" s="8" t="n">
-        <v>5762399000</v>
+        <v>5452087000</v>
       </c>
       <c r="F450" s="4" t="inlineStr">
         <is>
@@ -24767,7 +24757,7 @@
         </is>
       </c>
       <c r="E451" s="8" t="n">
-        <v>3115166309</v>
+        <v>5404625885</v>
       </c>
       <c r="F451" s="4" t="inlineStr">
         <is>
@@ -24822,7 +24812,7 @@
         </is>
       </c>
       <c r="E452" s="8" t="n">
-        <v>8877565309</v>
+        <v>10856712885</v>
       </c>
       <c r="F452" s="4" t="inlineStr">
         <is>
@@ -24877,7 +24867,7 @@
         </is>
       </c>
       <c r="E453" s="2" t="n">
-        <v>0.9978</v>
+        <v>0.965</v>
       </c>
       <c r="F453" s="4" t="inlineStr">
         <is>
@@ -24932,7 +24922,12 @@
         </is>
       </c>
       <c r="E454" s="2" t="n">
-        <v>-0.0382</v>
+        <v>0.079</v>
+      </c>
+      <c r="F454" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -24952,6 +24947,11 @@
       <c r="J454" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>BOM</t>
         </is>
       </c>
     </row>
@@ -24977,7 +24977,12 @@
         </is>
       </c>
       <c r="E455" s="2" t="n">
-        <v>-0.0186</v>
+        <v>0.0406</v>
+      </c>
+      <c r="F455" s="6" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -24997,6 +25002,11 @@
       <c r="J455" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -25022,11 +25032,11 @@
         </is>
       </c>
       <c r="E456" s="2" t="n">
-        <v>0.0273</v>
+        <v>0.05429999999999999</v>
       </c>
       <c r="F456" s="6" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -25051,7 +25061,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>BAIXO</t>
+          <t>REGULAR</t>
         </is>
       </c>
     </row>
@@ -25077,9 +25087,9 @@
         </is>
       </c>
       <c r="E457" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F457" s="6" t="inlineStr">
+        <v>0.27</v>
+      </c>
+      <c r="F457" s="7" t="inlineStr">
         <is>
           <t>baixo</t>
         </is>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -59,14 +59,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -90,8 +90,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -576,12 +576,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>descrbom</t>
+          <t xml:space="preserve"> Uma margem líquida entre 10% e 20% é geralmente considerada boa e indica uma empresa que é eficiente na gestão de suas despesas e custos, resultando em uma rentabilidade sólida. É comum em setores com menos concorrência e mais poder de precificação</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma margem EBIT acima de 20% sugere alta eficiência operacional e uma forte capacidade de gerar lucro operacional a partir das vendas. Isso pode ser típico de setores com altos margens brutas e controle eficaz dos custos operacionais, como tecnologia, software e alguns serviços especializados</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>descrbom</t>
+          <t>Uma margem bruta entre 40% e 60% indica uma boa eficiência na produção e venda de produtos ou serviços. Isso é comum em setores que têm menos custos variáveis e uma estrutura de custo mais favorável, como serviços e algumas indústrias com alta diferenciação de produtos</t>
         </is>
       </c>
     </row>
@@ -796,27 +796,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma relação negativa sugere que a empresa está em uma posição financeira confortável, com recursos suficientes para quitar todas as suas dívidas e ainda manter excedentes em caixa</t>
         </is>
       </c>
     </row>
@@ -844,29 +844,34 @@
       <c r="E7" s="5" t="n">
         <v>-0.57</v>
       </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>A empresa possui mais caixa e ativos líquidos do que o total de suas dívidas. Nesse caso, a dívida líquida é menor que zero, indicando uma posição financeira confortável e baixo risco de insolvência</t>
         </is>
       </c>
     </row>
@@ -894,29 +899,34 @@
       <c r="E8" s="5" t="n">
         <v>-0.76</v>
       </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>A empresa possui mais caixa e equivalentes de caixa do que dívidas financeiras. Nesse caso, o numerador (dívida líquida) é negativo, o que geralmente é considerado um sinal positivo, indicando solidez financeira e baixo risco de insolvência. A empresa teria recursos suficientes para quitar todas as dívidas e ainda manter excedente em caixa</t>
         </is>
       </c>
     </row>
@@ -944,34 +954,34 @@
       <c r="E9" s="5" t="n">
         <v>0.64</v>
       </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um índice entre 0,50 e 0,70 indica que a empresa possui uma boa proporção de patrimônio líquido em relação aos ativos, o que sugere uma sólida base financeira e uma menor dependência de dívidas. Empresas com valores nessa faixa geralmente têm uma estrutura de capital mais conservadora e são menos suscetíveis a riscos financeiros</t>
         </is>
       </c>
     </row>
@@ -999,34 +1009,34 @@
       <c r="E10" s="5" t="n">
         <v>0.35</v>
       </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Considerado saudável. Significa que a empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -1056,32 +1066,32 @@
       </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
-          <t>ruim</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um múltiplo nesta faixa é geralmente considerado aceitável, significando que a empresa possui ativos circulantes suficientes para cobrir suas obrigações de curto prazo. No entanto, esse nível de liquidez pode ser considerado baixo em setores com alta volatilidade nos fluxos de caixa ou onde os ciclos de pagamento e recebimento são longos.</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1117,7 @@
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0699</v>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
@@ -1162,7 +1172,7 @@
         </is>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14.61</v>
+        <v>14.42</v>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
@@ -1217,9 +1227,9 @@
         </is>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-29.54</v>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
+        <v>-29.15</v>
+      </c>
+      <c r="F14" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
@@ -1272,9 +1282,9 @@
         </is>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
+        <v>2.2</v>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -1327,7 +1337,7 @@
         </is>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.51</v>
+        <v>6.4</v>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
@@ -1382,7 +1392,7 @@
         </is>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.58</v>
+        <v>8.44</v>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
@@ -1437,7 +1447,7 @@
         </is>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.07</v>
+        <v>6.97</v>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
@@ -1492,7 +1502,7 @@
         </is>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9.32</v>
+        <v>9.19</v>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
@@ -1602,9 +1612,9 @@
         </is>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
+        <v>1.41</v>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -1659,7 +1669,7 @@
       <c r="E22" s="5" t="n">
         <v>0.92</v>
       </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="F22" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -1712,9 +1722,9 @@
         </is>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F23" s="6" t="inlineStr">
+        <v>2.27</v>
+      </c>
+      <c r="F23" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -1767,7 +1777,7 @@
         </is>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.03</v>
+        <v>-2.01</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1816,8 +1826,8 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E25" s="7" t="n">
-        <v>13.38</v>
+      <c r="E25" s="8" t="n">
+        <v>13.2</v>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
@@ -1871,8 +1881,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E26" s="7" t="n">
-        <v>276364447.67</v>
+      <c r="E26" s="8" t="n">
+        <v>319690173.55</v>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
@@ -1926,7 +1936,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="8" t="n">
         <v>94528274000</v>
       </c>
       <c r="F27" s="4" t="inlineStr">
@@ -1981,7 +1991,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="8" t="n">
         <v>147298979000</v>
       </c>
       <c r="F28" s="4" t="inlineStr">
@@ -2036,7 +2046,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="8" t="n">
         <v>43550960000</v>
       </c>
       <c r="F29" s="4" t="inlineStr">
@@ -2091,7 +2101,7 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="8" t="n">
         <v>3218170000</v>
       </c>
       <c r="F30" s="4" t="inlineStr">
@@ -2146,7 +2156,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="8" t="n">
         <v>20310261000</v>
       </c>
       <c r="F31" s="4" t="inlineStr">
@@ -2201,7 +2211,7 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="8" t="n">
         <v>-17092091000</v>
       </c>
       <c r="G32" t="inlineStr">
@@ -2251,8 +2261,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E33" s="7" t="n">
-        <v>211363575718</v>
+      <c r="E33" s="8" t="n">
+        <v>208053631579</v>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
@@ -2306,8 +2316,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E34" s="7" t="n">
-        <v>194271484718</v>
+      <c r="E34" s="8" t="n">
+        <v>190961540579</v>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
@@ -2584,7 +2594,7 @@
       <c r="E39" s="5" t="n">
         <v>0.62</v>
       </c>
-      <c r="F39" s="6" t="inlineStr">
+      <c r="F39" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -2639,19 +2649,19 @@
       <c r="E40" s="2" t="n">
         <v>-0.8151</v>
       </c>
-      <c r="F40" s="6" t="inlineStr">
+      <c r="F40" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2666,7 +2676,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>descrpessimo</t>
+          <t>Uma margem líquida negativa revela que a empresa está gastando mais do que arrecada, seja por custos operacionais elevados, despesas financeiras, impostos altos, ou queda nas receitas</t>
         </is>
       </c>
     </row>
@@ -2694,19 +2704,19 @@
       <c r="E41" s="2" t="n">
         <v>-0.6354</v>
       </c>
-      <c r="F41" s="6" t="inlineStr">
+      <c r="F41" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2721,7 +2731,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>descrpessimo</t>
+          <t>Uma margem EBIT negativa indica que a empresa está enfrentando problemas em sua operação principal, não conseguindo gerar lucro operacional. Isso pode ser resultado de custos elevados, queda nas vendas ou ineficiência na gestão</t>
         </is>
       </c>
     </row>
@@ -2749,19 +2759,19 @@
       <c r="E42" s="2" t="n">
         <v>-0.5576</v>
       </c>
-      <c r="F42" s="6" t="inlineStr">
+      <c r="F42" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2776,7 +2786,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>descrpessimo</t>
+          <t>A empresa está operando no prejuízo, pois suas despesas superam as receitas geradas pelas atividades principais</t>
         </is>
       </c>
     </row>
@@ -2804,19 +2814,19 @@
       <c r="E43" s="2" t="n">
         <v>0.1079</v>
       </c>
-      <c r="F43" s="6" t="inlineStr">
+      <c r="F43" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2831,7 +2841,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem bruta abaixo de 20% pode indicar que a empresa tem um custo de produção relativamente alto em relação à sua receita. Isso é comum em setores com altos custos de matéria-prima ou produção, como o varejo de alimentos e algumas indústrias manufatureiras</t>
         </is>
       </c>
     </row>
@@ -2859,34 +2869,34 @@
       <c r="E44" s="5" t="n">
         <v>13.58</v>
       </c>
-      <c r="F44" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Este nível indica que a empresa está altamente alavancada, com um montante significativo de dívida em relação ao patrimônio líquido. Isso pode sinalizar um alto risco financeiro e a possibilidade de dificuldades para cumprir obrigações de dívida, especialmente se a empresa enfrentar quedas nos lucros ou aumento nos custos de financiamento</t>
         </is>
       </c>
     </row>
@@ -2914,29 +2924,34 @@
       <c r="E45" s="5" t="n">
         <v>-2.23</v>
       </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 2</t>
+          <t>A empresa possui mais caixa e ativos líquidos do que o total de suas dívidas. Nesse caso, a dívida líquida é menor que zero, indicando uma posição financeira confortável e baixo risco de insolvência</t>
         </is>
       </c>
     </row>
@@ -2964,29 +2979,34 @@
       <c r="E46" s="5" t="n">
         <v>-1.96</v>
       </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>A empresa possui mais caixa e equivalentes de caixa do que dívidas financeiras. Nesse caso, o numerador (dívida líquida) é negativo, o que geralmente é considerado um sinal positivo, indicando solidez financeira e baixo risco de insolvência. A empresa teria recursos suficientes para quitar todas as dívidas e ainda manter excedente em caixa</t>
         </is>
       </c>
     </row>
@@ -3014,34 +3034,34 @@
       <c r="E47" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="F47" s="6" t="inlineStr">
+      <c r="F47" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitáveis</t>
         </is>
       </c>
     </row>
@@ -3069,34 +3089,34 @@
       <c r="E48" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t xml:space="preserve"> empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -3124,34 +3144,34 @@
       <c r="E49" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="F49" s="6" t="inlineStr">
+      <c r="F49" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um valor abaixo de 1 indica que a empresa possui mais passivos circulantes do que ativos circulantes, sugerindo que ela pode ter dificuldades em cumprir suas obrigações de curto prazo. Esse é um sinal de alerta, pois a empresa pode enfrentar problemas de liquidez, especialmente em momentos de pressão financeira</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3199,7 @@
       <c r="E50" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F50" s="6" t="inlineStr">
+      <c r="F50" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -3232,7 +3252,7 @@
         </is>
       </c>
       <c r="E51" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3284,7 +3304,7 @@
       <c r="E52" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="6" t="inlineStr">
+      <c r="F52" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -3337,9 +3357,9 @@
         </is>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F53" s="6" t="inlineStr">
+        <v>2.31</v>
+      </c>
+      <c r="F53" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -3392,7 +3412,7 @@
         </is>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-2.6</v>
+        <v>-2.61</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3442,7 +3462,7 @@
         </is>
       </c>
       <c r="E55" s="5" t="n">
-        <v>-2.28</v>
+        <v>-2.29</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3492,7 +3512,7 @@
         </is>
       </c>
       <c r="E56" s="5" t="n">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3542,7 +3562,7 @@
         </is>
       </c>
       <c r="E57" s="5" t="n">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3594,7 +3614,7 @@
       <c r="E58" s="5" t="n">
         <v>1.79</v>
       </c>
-      <c r="F58" s="6" t="inlineStr">
+      <c r="F58" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -3649,7 +3669,7 @@
       <c r="E59" s="5" t="n">
         <v>0.12</v>
       </c>
-      <c r="F59" s="6" t="inlineStr">
+      <c r="F59" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -3704,7 +3724,7 @@
       <c r="E60" s="5" t="n">
         <v>-15.89</v>
       </c>
-      <c r="F60" s="6" t="inlineStr">
+      <c r="F60" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
@@ -3759,7 +3779,7 @@
       <c r="E61" s="5" t="n">
         <v>0.21</v>
       </c>
-      <c r="F61" s="6" t="inlineStr">
+      <c r="F61" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -3812,7 +3832,7 @@
         </is>
       </c>
       <c r="E62" s="5" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3861,10 +3881,10 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E63" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F63" s="8" t="inlineStr">
+      <c r="E63" s="8" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F63" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -3916,8 +3936,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E64" s="7" t="n">
-        <v>626183.86</v>
+      <c r="E64" s="8" t="n">
+        <v>693531</v>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
@@ -3971,7 +3991,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E65" s="7" t="n">
+      <c r="E65" s="8" t="n">
         <v>111006000</v>
       </c>
       <c r="F65" s="4" t="inlineStr">
@@ -4026,7 +4046,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E66" s="7" t="n">
+      <c r="E66" s="8" t="n">
         <v>2105580000</v>
       </c>
       <c r="F66" s="4" t="inlineStr">
@@ -4081,7 +4101,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E67" s="7" t="n">
+      <c r="E67" s="8" t="n">
         <v>819003000</v>
       </c>
       <c r="F67" s="4" t="inlineStr">
@@ -4136,7 +4156,7 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E68" s="7" t="n">
+      <c r="E68" s="8" t="n">
         <v>1619666000</v>
       </c>
       <c r="F68" s="4" t="inlineStr">
@@ -4191,7 +4211,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E69" s="7" t="n">
+      <c r="E69" s="8" t="n">
         <v>112714000</v>
       </c>
       <c r="F69" s="4" t="inlineStr">
@@ -4246,7 +4266,7 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E70" s="7" t="n">
+      <c r="E70" s="8" t="n">
         <v>1506952000</v>
       </c>
       <c r="F70" s="4" t="inlineStr">
@@ -4301,8 +4321,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E71" s="7" t="n">
-        <v>248480784</v>
+      <c r="E71" s="8" t="n">
+        <v>256556409</v>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
@@ -4356,8 +4376,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E72" s="7" t="n">
-        <v>1755432784</v>
+      <c r="E72" s="8" t="n">
+        <v>1763508409</v>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
@@ -4519,7 +4539,7 @@
       <c r="E75" s="2" t="n">
         <v>-0.4689</v>
       </c>
-      <c r="F75" s="6" t="inlineStr">
+      <c r="F75" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
@@ -4574,7 +4594,7 @@
       <c r="E76" s="2" t="n">
         <v>-0.469</v>
       </c>
-      <c r="F76" s="6" t="inlineStr">
+      <c r="F76" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
@@ -4629,7 +4649,7 @@
       <c r="E77" s="5" t="n">
         <v>0.58</v>
       </c>
-      <c r="F77" s="6" t="inlineStr">
+      <c r="F77" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -4684,19 +4704,19 @@
       <c r="E78" s="2" t="n">
         <v>-0.1149</v>
       </c>
-      <c r="F78" s="6" t="inlineStr">
+      <c r="F78" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4711,7 +4731,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>descrpessimo</t>
+          <t>Uma margem líquida negativa revela que a empresa está gastando mais do que arrecada, seja por custos operacionais elevados, despesas financeiras, impostos altos, ou queda nas receitas</t>
         </is>
       </c>
     </row>
@@ -4739,19 +4759,19 @@
       <c r="E79" s="2" t="n">
         <v>0.0491</v>
       </c>
-      <c r="F79" s="6" t="inlineStr">
+      <c r="F79" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4766,7 +4786,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem EBIT abaixo de 5% sugere que a empresa tem uma baixa eficiência operacional. Isso pode ser comum em setores com alta concorrência e baixos níveis de diferenciação, como o varejo e alguns segmentos industriais. Indica que a empresa pode estar enfrentando desafios significativos em controlar seus custos operacionais.</t>
         </is>
       </c>
     </row>
@@ -4794,19 +4814,19 @@
       <c r="E80" s="2" t="n">
         <v>0.0619</v>
       </c>
-      <c r="F80" s="6" t="inlineStr">
+      <c r="F80" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4821,7 +4841,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem EBITDA abaixo de 10% pode indicar que a empresa tem uma baixa eficiência operacional ou enfrenta altos custos operacionais. Isso pode ser comum em setores com alta concorrência e margens reduzidas, como o varejo ou indústrias com alta estrutura de custos</t>
         </is>
       </c>
     </row>
@@ -4856,12 +4876,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4876,7 +4896,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>descrbom</t>
+          <t>Uma margem bruta entre 40% e 60% indica uma boa eficiência na produção e venda de produtos ou serviços. Isso é comum em setores que têm menos custos variáveis e uma estrutura de custo mais favorável, como serviços e algumas indústrias com alta diferenciação de produtos</t>
         </is>
       </c>
     </row>
@@ -4904,34 +4924,34 @@
       <c r="E82" s="5" t="n">
         <v>2.21</v>
       </c>
-      <c r="F82" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F82" s="7" t="inlineStr">
+        <is>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Este nível indica que a empresa está altamente alavancada, com um montante significativo de dívida em relação ao patrimônio líquido. Isso pode sinalizar um alto risco financeiro e a possibilidade de dificuldades para cumprir obrigações de dívida, especialmente se a empresa enfrentar quedas nos lucros ou aumento nos custos de financiamento</t>
         </is>
       </c>
     </row>
@@ -4959,34 +4979,34 @@
       <c r="E83" s="5" t="n">
         <v>7.15</v>
       </c>
-      <c r="F83" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F83" s="7" t="inlineStr">
+        <is>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentável.</t>
         </is>
       </c>
     </row>
@@ -5014,34 +5034,34 @@
       <c r="E84" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="F84" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+      <c r="F84" s="7" t="inlineStr">
+        <is>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>descrbom</t>
+          <t>Este valor sugere que a empresa está altamente alavancada e pode ter dificuldades para cumprir suas obrigações de dívida se o EBIT não for sustentável. Empresas com múltiplos superiores a 4 estão em uma posição financeira mais vulnerável e podem enfrentar problemas significativos se não conseguirem aumentar seus lucros ou reduzir suas dívidas.</t>
         </is>
       </c>
     </row>
@@ -5069,34 +5089,34 @@
       <c r="E85" s="5" t="n">
         <v>0.14</v>
       </c>
-      <c r="F85" s="6" t="inlineStr">
+      <c r="F85" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitáveis</t>
         </is>
       </c>
     </row>
@@ -5124,34 +5144,34 @@
       <c r="E86" s="5" t="n">
         <v>0.86</v>
       </c>
-      <c r="F86" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Considerado saudável. Significa que a empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -5179,34 +5199,34 @@
       <c r="E87" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="F87" s="6" t="inlineStr">
+      <c r="F87" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um valor abaixo de 1 indica que a empresa possui mais passivos circulantes do que ativos circulantes, sugerindo que ela pode ter dificuldades em cumprir suas obrigações de curto prazo. Esse é um sinal de alerta, pois a empresa pode enfrentar problemas de liquidez, especialmente em momentos de pressão financeira</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5254,7 @@
       <c r="E88" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F88" s="6" t="inlineStr">
+      <c r="F88" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -5339,7 +5359,7 @@
       <c r="E90" s="5" t="n">
         <v>0.06</v>
       </c>
-      <c r="F90" s="6" t="inlineStr">
+      <c r="F90" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -5394,7 +5414,7 @@
       <c r="E91" s="5" t="n">
         <v>2.5</v>
       </c>
-      <c r="F91" s="6" t="inlineStr">
+      <c r="F91" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -5447,7 +5467,7 @@
         </is>
       </c>
       <c r="E92" s="5" t="n">
-        <v>15.12</v>
+        <v>15.23</v>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
@@ -5502,7 +5522,7 @@
         </is>
       </c>
       <c r="E93" s="5" t="n">
-        <v>19.03</v>
+        <v>19.18</v>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
@@ -5669,7 +5689,7 @@
       <c r="E96" s="5" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F96" s="6" t="inlineStr">
+      <c r="F96" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -5724,7 +5744,7 @@
       <c r="E97" s="5" t="n">
         <v>0.35</v>
       </c>
-      <c r="F97" s="6" t="inlineStr">
+      <c r="F97" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -5779,7 +5799,7 @@
       <c r="E98" s="5" t="n">
         <v>-0.32</v>
       </c>
-      <c r="F98" s="6" t="inlineStr">
+      <c r="F98" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -5834,7 +5854,7 @@
       <c r="E99" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="F99" s="6" t="inlineStr">
+      <c r="F99" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -5936,10 +5956,10 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E101" s="7" t="n">
+      <c r="E101" s="8" t="n">
         <v>1.4</v>
       </c>
-      <c r="F101" s="6" t="inlineStr">
+      <c r="F101" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -5991,8 +6011,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E102" s="7" t="n">
-        <v>309067.9</v>
+      <c r="E102" s="8" t="n">
+        <v>294063.91</v>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
@@ -6046,7 +6066,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E103" s="7" t="n">
+      <c r="E103" s="8" t="n">
         <v>287288000</v>
       </c>
       <c r="F103" s="4" t="inlineStr">
@@ -6101,7 +6121,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E104" s="7" t="n">
+      <c r="E104" s="8" t="n">
         <v>2044038000</v>
       </c>
       <c r="F104" s="4" t="inlineStr">
@@ -6156,7 +6176,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E105" s="7" t="n">
+      <c r="E105" s="8" t="n">
         <v>570564000</v>
       </c>
       <c r="F105" s="4" t="inlineStr">
@@ -6211,7 +6231,7 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E106" s="7" t="n">
+      <c r="E106" s="8" t="n">
         <v>644433000</v>
       </c>
       <c r="F106" s="4" t="inlineStr">
@@ -6266,7 +6286,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E107" s="7" t="n">
+      <c r="E107" s="8" t="n">
         <v>9236000</v>
       </c>
       <c r="F107" s="4" t="inlineStr">
@@ -6321,7 +6341,7 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E108" s="7" t="n">
+      <c r="E108" s="8" t="n">
         <v>635197000</v>
       </c>
       <c r="F108" s="4" t="inlineStr">
@@ -6376,8 +6396,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E109" s="7" t="n">
-        <v>708569339</v>
+      <c r="E109" s="8" t="n">
+        <v>718838460</v>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
@@ -6431,8 +6451,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E110" s="7" t="n">
-        <v>1343766339</v>
+      <c r="E110" s="8" t="n">
+        <v>1354035460</v>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
@@ -6544,7 +6564,7 @@
       <c r="E112" s="2" t="n">
         <v>-0.5747</v>
       </c>
-      <c r="F112" s="6" t="inlineStr">
+      <c r="F112" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
@@ -6704,7 +6724,7 @@
       <c r="E115" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="F115" s="6" t="inlineStr">
+      <c r="F115" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -6759,19 +6779,19 @@
       <c r="E116" s="2" t="n">
         <v>0.0005999999999999999</v>
       </c>
-      <c r="F116" s="6" t="inlineStr">
+      <c r="F116" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6786,7 +6806,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem líquida abaixo de 5% sugere que a empresa tem uma margem de lucro relativamente baixa. Isso pode ser típico em setores com alta concorrência e margens reduzidas, como o varejo ou o setor de alimentos e bebidas. Pode indicar baixa eficiência na gestão de custos ou baixa rentabilidade</t>
         </is>
       </c>
     </row>
@@ -6821,12 +6841,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6841,7 +6861,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>descrbom</t>
+          <t>Uma margem EBIT entre 10% e 20% indica uma boa eficiência operacional. A empresa consegue gerar uma quantidade significativa de lucro operacional em relação à receita líquida. Esse nível é comum em setores menos intensivos em capital e com uma boa capacidade de controle de custos</t>
         </is>
       </c>
     </row>
@@ -6876,12 +6896,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6896,7 +6916,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.</t>
         </is>
       </c>
     </row>
@@ -6924,19 +6944,19 @@
       <c r="E119" s="2" t="n">
         <v>0.2053</v>
       </c>
-      <c r="F119" s="8" t="inlineStr">
+      <c r="F119" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6951,7 +6971,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>descregular.</t>
+          <t xml:space="preserve"> Uma margem bruta nessa faixa é geralmente considerada moderada e pode ser típica de empresas com uma estrutura de custos mais equilibrada. Indica que a empresa está conseguindo controlar seus custos de produção de maneira razoável.</t>
         </is>
       </c>
     </row>
@@ -6979,34 +6999,34 @@
       <c r="E120" s="5" t="n">
         <v>1.51</v>
       </c>
-      <c r="F120" s="8" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="F120" s="7" t="inlineStr">
+        <is>
+          <t>ruim</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>descregular.</t>
+          <t>Empresas com múltiplos nessa faixa estão mais alavancadas, o que pode aumentar o risco financeiro, especialmente em períodos de incerteza econômica. Essas empresas dependem mais de financiamento por dívida, o que pode afetar sua capacidade de enfrentar crises ou de expandir</t>
         </is>
       </c>
     </row>
@@ -7034,34 +7054,34 @@
       <c r="E121" s="5" t="n">
         <v>6.05</v>
       </c>
-      <c r="F121" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F121" s="7" t="inlineStr">
+        <is>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentável.</t>
         </is>
       </c>
     </row>
@@ -7089,34 +7109,34 @@
       <c r="E122" s="5" t="n">
         <v>11.21</v>
       </c>
-      <c r="F122" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+      <c r="F122" s="7" t="inlineStr">
+        <is>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Este valor sugere que a empresa está altamente alavancada e pode ter dificuldades para cumprir suas obrigações de dívida se o EBIT não for sustentável. Empresas com múltiplos superiores a 4 estão em uma posição financeira mais vulnerável e podem enfrentar problemas significativos se não conseguirem aumentar seus lucros ou reduzir suas dívidas.</t>
         </is>
       </c>
     </row>
@@ -7144,34 +7164,34 @@
       <c r="E123" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="F123" s="6" t="inlineStr">
+      <c r="F123" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitáveis</t>
         </is>
       </c>
     </row>
@@ -7199,34 +7219,34 @@
       <c r="E124" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="F124" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Considerado saudável. Significa que a empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -7256,32 +7276,32 @@
       </c>
       <c r="F125" s="6" t="inlineStr">
         <is>
-          <t>ruim</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um múltiplo nesta faixa é geralmente considerado aceitável, significando que a empresa possui ativos circulantes suficientes para cobrir suas obrigações de curto prazo. No entanto, esse nível de liquidez pode ser considerado baixo em setores com alta volatilidade nos fluxos de caixa ou onde os ciclos de pagamento e recebimento são longos.</t>
         </is>
       </c>
     </row>
@@ -7307,9 +7327,9 @@
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>0.005600000000000001</v>
-      </c>
-      <c r="F126" s="6" t="inlineStr">
+        <v>0.005699999999999999</v>
+      </c>
+      <c r="F126" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -7362,7 +7382,7 @@
         </is>
       </c>
       <c r="E127" s="5" t="n">
-        <v>1824.07</v>
+        <v>1807.82</v>
       </c>
       <c r="F127" s="4" t="inlineStr">
         <is>
@@ -7417,9 +7437,9 @@
         </is>
       </c>
       <c r="E128" s="5" t="n">
-        <v>-17.89</v>
-      </c>
-      <c r="F128" s="6" t="inlineStr">
+        <v>-17.73</v>
+      </c>
+      <c r="F128" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
@@ -7472,9 +7492,9 @@
         </is>
       </c>
       <c r="E129" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F129" s="6" t="inlineStr">
+        <v>0.79</v>
+      </c>
+      <c r="F129" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -7527,7 +7547,7 @@
         </is>
       </c>
       <c r="E130" s="5" t="n">
-        <v>9.27</v>
+        <v>9.24</v>
       </c>
       <c r="F130" s="3" t="inlineStr">
         <is>
@@ -7582,7 +7602,7 @@
         </is>
       </c>
       <c r="E131" s="5" t="n">
-        <v>17.17</v>
+        <v>17.11</v>
       </c>
       <c r="F131" s="4" t="inlineStr">
         <is>
@@ -7637,9 +7657,9 @@
         </is>
       </c>
       <c r="E132" s="5" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="F132" s="8" t="inlineStr">
+        <v>3.18</v>
+      </c>
+      <c r="F132" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -7692,9 +7712,9 @@
         </is>
       </c>
       <c r="E133" s="5" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F133" s="8" t="inlineStr">
+        <v>5.9</v>
+      </c>
+      <c r="F133" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -7804,7 +7824,7 @@
       <c r="E135" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="F135" s="6" t="inlineStr">
+      <c r="F135" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -7859,7 +7879,7 @@
       <c r="E136" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="F136" s="6" t="inlineStr">
+      <c r="F136" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -7912,9 +7932,9 @@
         </is>
       </c>
       <c r="E137" s="5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F137" s="6" t="inlineStr">
+        <v>1.09</v>
+      </c>
+      <c r="F137" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -8016,8 +8036,8 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E139" s="7" t="n">
-        <v>10.14</v>
+      <c r="E139" s="8" t="n">
+        <v>10.01</v>
       </c>
       <c r="F139" s="4" t="inlineStr">
         <is>
@@ -8071,8 +8091,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E140" s="7" t="n">
-        <v>40010930.9</v>
+      <c r="E140" s="8" t="n">
+        <v>38191698.14</v>
       </c>
       <c r="F140" s="4" t="inlineStr">
         <is>
@@ -8126,7 +8146,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E141" s="7" t="n">
+      <c r="E141" s="8" t="n">
         <v>13251517000</v>
       </c>
       <c r="F141" s="4" t="inlineStr">
@@ -8181,7 +8201,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E142" s="7" t="n">
+      <c r="E142" s="8" t="n">
         <v>52266696000</v>
       </c>
       <c r="F142" s="4" t="inlineStr">
@@ -8236,7 +8256,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E143" s="7" t="n">
+      <c r="E143" s="8" t="n">
         <v>11093981000</v>
       </c>
       <c r="F143" s="4" t="inlineStr">
@@ -8291,7 +8311,7 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E144" s="7" t="n">
+      <c r="E144" s="8" t="n">
         <v>26161764000</v>
       </c>
       <c r="F144" s="4" t="inlineStr">
@@ -8346,7 +8366,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E145" s="7" t="n">
+      <c r="E145" s="8" t="n">
         <v>6162476000</v>
       </c>
       <c r="F145" s="4" t="inlineStr">
@@ -8401,7 +8421,7 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E146" s="7" t="n">
+      <c r="E146" s="8" t="n">
         <v>19999288000</v>
       </c>
       <c r="F146" s="4" t="inlineStr">
@@ -8456,8 +8476,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E147" s="7" t="n">
-        <v>10619321317</v>
+      <c r="E147" s="8" t="n">
+        <v>10514283520</v>
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
@@ -8511,8 +8531,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E148" s="7" t="n">
-        <v>30618609317</v>
+      <c r="E148" s="8" t="n">
+        <v>30513571520</v>
       </c>
       <c r="F148" s="4" t="inlineStr">
         <is>
@@ -8624,7 +8644,7 @@
       <c r="E150" s="2" t="n">
         <v>0.0004</v>
       </c>
-      <c r="F150" s="6" t="inlineStr">
+      <c r="F150" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -8679,7 +8699,7 @@
       <c r="E151" s="2" t="n">
         <v>0.0001</v>
       </c>
-      <c r="F151" s="6" t="inlineStr">
+      <c r="F151" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -8734,7 +8754,7 @@
       <c r="E152" s="2" t="n">
         <v>0.0358</v>
       </c>
-      <c r="F152" s="8" t="inlineStr">
+      <c r="F152" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -8789,7 +8809,7 @@
       <c r="E153" s="5" t="n">
         <v>0.18</v>
       </c>
-      <c r="F153" s="6" t="inlineStr">
+      <c r="F153" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -8851,12 +8871,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8871,7 +8891,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma margem líquida acima de 20% sugere alta eficiência e rentabilidade. Empresas com margens líquidas altas geralmente operam em setores com altas barreiras de entrada, produtos ou serviços de alto valor agregado, ou que têm uma forte vantagem competitiva. Isso pode ser visto em setores como tecnologia, software ou bens de luxo</t>
         </is>
       </c>
     </row>
@@ -8906,12 +8926,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8926,7 +8946,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma margem EBIT acima de 20% sugere alta eficiência operacional e uma forte capacidade de gerar lucro operacional a partir das vendas. Isso pode ser típico de setores com altos margens brutas e controle eficaz dos custos operacionais, como tecnologia, software e alguns serviços especializados</t>
         </is>
       </c>
     </row>
@@ -8961,12 +8981,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8981,7 +9001,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma margem EBITDA acima de 30% sugere uma alta eficiência operacional e uma forte capacidade de gerar EBITDA a partir das vendas. Isso pode ser típico de setores com alta margem bruta e baixo custo de produção, como tecnologia, software e serviços financeiros.</t>
         </is>
       </c>
     </row>
@@ -9016,12 +9036,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9036,7 +9056,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma margem bruta acima de 60% sugere uma alta eficiência na produção e venda, com um custo relativamente baixo em relação à receita. Isso é típico em setores com altas barreiras de entrada, baixo custo de produção, ou produtos/serviços de alto valor agregado, como tecnologia e software</t>
         </is>
       </c>
     </row>
@@ -9071,27 +9091,27 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma relação negativa sugere que a empresa está em uma posição financeira confortável, com recursos suficientes para quitar todas as suas dívidas e ainda manter excedentes em caixa</t>
         </is>
       </c>
     </row>
@@ -9126,27 +9146,27 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>A empresa possui mais caixa e ativos líquidos do que o total de suas dívidas. Nesse caso, a dívida líquida é menor que zero, indicando uma posição financeira confortável e baixo risco de insolvência</t>
         </is>
       </c>
     </row>
@@ -9174,34 +9194,34 @@
       <c r="E160" s="5" t="n">
         <v>0.06</v>
       </c>
-      <c r="F160" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F160" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>A empresa possui mais caixa e equivalentes de caixa do que dívidas financeiras. Nesse caso, o numerador (dívida líquida) é negativo, o que geralmente é considerado um sinal positivo, indicando solidez financeira e baixo risco de insolvência. A empresa teria recursos suficientes para quitar todas as dívidas e ainda manter excedente em caixa</t>
         </is>
       </c>
     </row>
@@ -9231,32 +9251,32 @@
       </c>
       <c r="F161" s="6" t="inlineStr">
         <is>
-          <t>ruim</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t xml:space="preserve"> Um índice nessa faixa sugere uma estrutura de capital com uma proporção razoável de patrimônio líquido em relação aos ativos. A empresa tem um equilíbrio entre o financiamento próprio e o financiamento externo. Esse nível de alavancagem é geralmente considerado moderado e pode ser típico em muitos setores.</t>
         </is>
       </c>
     </row>
@@ -9284,34 +9304,34 @@
       <c r="E162" s="5" t="n">
         <v>0.59</v>
       </c>
-      <c r="F162" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F162" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Considerado saudável. Significa que a empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -9339,34 +9359,34 @@
       <c r="E163" s="5" t="n">
         <v>2.13</v>
       </c>
-      <c r="F163" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F163" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um valor acima de 2 sugere que a empresa tem uma posição de liquidez muito forte, com ativos circulantes significativamente superiores aos passivos circulantes. Enquanto isso pode indicar uma gestão financeira conservadora, em alguns casos pode também sinalizar que a empresa não está utilizando seus ativos de forma eficiente para gerar retornos</t>
         </is>
       </c>
     </row>
@@ -9392,9 +9412,9 @@
         </is>
       </c>
       <c r="E164" s="2" t="n">
-        <v>0.0217</v>
-      </c>
-      <c r="F164" s="6" t="inlineStr">
+        <v>0.0209</v>
+      </c>
+      <c r="F164" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -9447,7 +9467,7 @@
         </is>
       </c>
       <c r="E165" s="5" t="n">
-        <v>15.12</v>
+        <v>15.69</v>
       </c>
       <c r="F165" s="4" t="inlineStr">
         <is>
@@ -9502,9 +9522,9 @@
         </is>
       </c>
       <c r="E166" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F166" s="6" t="inlineStr">
+        <v>0.85</v>
+      </c>
+      <c r="F166" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -9557,9 +9577,9 @@
         </is>
       </c>
       <c r="E167" s="5" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="F167" s="8" t="inlineStr">
+        <v>3.95</v>
+      </c>
+      <c r="F167" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -9612,7 +9632,7 @@
         </is>
       </c>
       <c r="E168" s="5" t="n">
-        <v>10.55</v>
+        <v>11.02</v>
       </c>
       <c r="F168" s="4" t="inlineStr">
         <is>
@@ -9667,7 +9687,7 @@
         </is>
       </c>
       <c r="E169" s="5" t="n">
-        <v>11.2</v>
+        <v>11.69</v>
       </c>
       <c r="F169" s="4" t="inlineStr">
         <is>
@@ -9722,7 +9742,7 @@
         </is>
       </c>
       <c r="E170" s="5" t="n">
-        <v>10.57</v>
+        <v>10.96</v>
       </c>
       <c r="F170" s="4" t="inlineStr">
         <is>
@@ -9777,7 +9797,7 @@
         </is>
       </c>
       <c r="E171" s="5" t="n">
-        <v>11.22</v>
+        <v>11.64</v>
       </c>
       <c r="F171" s="4" t="inlineStr">
         <is>
@@ -9834,7 +9854,7 @@
       <c r="E172" s="5" t="n">
         <v>3.57</v>
       </c>
-      <c r="F172" s="8" t="inlineStr">
+      <c r="F172" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -9887,9 +9907,9 @@
         </is>
       </c>
       <c r="E173" s="5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="F173" s="6" t="inlineStr">
+        <v>1.6</v>
+      </c>
+      <c r="F173" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -9944,7 +9964,7 @@
       <c r="E174" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="F174" s="6" t="inlineStr">
+      <c r="F174" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -9997,7 +10017,7 @@
         </is>
       </c>
       <c r="E175" s="5" t="n">
-        <v>6.65</v>
+        <v>6.9</v>
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
@@ -10052,7 +10072,7 @@
         </is>
       </c>
       <c r="E176" s="5" t="n">
-        <v>-2.37</v>
+        <v>-2.46</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -10101,8 +10121,8 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E177" s="7" t="n">
-        <v>13.58</v>
+      <c r="E177" s="8" t="n">
+        <v>14.1</v>
       </c>
       <c r="F177" s="4" t="inlineStr">
         <is>
@@ -10156,8 +10176,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E178" s="7" t="n">
-        <v>548209890.1900001</v>
+      <c r="E178" s="8" t="n">
+        <v>541668777.55</v>
       </c>
       <c r="F178" s="4" t="inlineStr">
         <is>
@@ -10211,7 +10231,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E179" s="7" t="n">
+      <c r="E179" s="8" t="n">
         <v>18794551000</v>
       </c>
       <c r="F179" s="4" t="inlineStr">
@@ -10266,7 +10286,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E180" s="7" t="n">
+      <c r="E180" s="8" t="n">
         <v>46292029000</v>
       </c>
       <c r="F180" s="4" t="inlineStr">
@@ -10321,7 +10341,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E181" s="7" t="n">
+      <c r="E181" s="8" t="n">
         <v>16116282000</v>
       </c>
       <c r="F181" s="4" t="inlineStr">
@@ -10376,7 +10396,7 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E182" s="7" t="n">
+      <c r="E182" s="8" t="n">
         <v>14881775000</v>
       </c>
       <c r="F182" s="4" t="inlineStr">
@@ -10431,7 +10451,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E183" s="7" t="n">
+      <c r="E183" s="8" t="n">
         <v>14519084000</v>
       </c>
       <c r="F183" s="4" t="inlineStr">
@@ -10486,7 +10506,7 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E184" s="7" t="n">
+      <c r="E184" s="8" t="n">
         <v>362691000</v>
       </c>
       <c r="F184" s="4" t="inlineStr">
@@ -10541,8 +10561,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E185" s="7" t="n">
-        <v>71097750000</v>
+      <c r="E185" s="8" t="n">
+        <v>74257650000</v>
       </c>
       <c r="F185" s="4" t="inlineStr">
         <is>
@@ -10596,8 +10616,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E186" s="7" t="n">
-        <v>71460441000</v>
+      <c r="E186" s="8" t="n">
+        <v>74620341000</v>
       </c>
       <c r="F186" s="4" t="inlineStr">
         <is>
@@ -10874,7 +10894,7 @@
       <c r="E191" s="5" t="n">
         <v>0.23</v>
       </c>
-      <c r="F191" s="6" t="inlineStr">
+      <c r="F191" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -10929,19 +10949,19 @@
       <c r="E192" s="2" t="n">
         <v>0.0886</v>
       </c>
-      <c r="F192" s="8" t="inlineStr">
+      <c r="F192" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -10956,7 +10976,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>descregular.</t>
+          <t>Uma margem líquida nessa faixa é considerada moderada e pode ser típica de empresas que operam em setores com margens mais equilibradas, como algumas indústrias ou serviços. Reflete uma eficiência razoável em converter receita em lucro líquido.</t>
         </is>
       </c>
     </row>
@@ -10984,19 +11004,19 @@
       <c r="E193" s="2" t="n">
         <v>0.06660000000000001</v>
       </c>
-      <c r="F193" s="8" t="inlineStr">
+      <c r="F193" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -11011,7 +11031,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>descregular.</t>
+          <t>Uma margem EBIT nessa faixa é considerada moderada e pode ser típica de empresas em setores com margens mais equilibradas. Reflete uma eficiência operacional razoável, mas pode haver espaço para melhorar a rentabilidade operacional.</t>
         </is>
       </c>
     </row>
@@ -11039,19 +11059,19 @@
       <c r="E194" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F194" s="6" t="inlineStr">
+      <c r="F194" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -11066,7 +11086,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem EBITDA abaixo de 10% pode indicar que a empresa tem uma baixa eficiência operacional ou enfrenta altos custos operacionais. Isso pode ser comum em setores com alta concorrência e margens reduzidas, como o varejo ou indústrias com alta estrutura de custos</t>
         </is>
       </c>
     </row>
@@ -11094,19 +11114,19 @@
       <c r="E195" s="2" t="n">
         <v>0.3683</v>
       </c>
-      <c r="F195" s="8" t="inlineStr">
+      <c r="F195" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -11121,7 +11141,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>descregular.</t>
+          <t xml:space="preserve"> Uma margem bruta nessa faixa é geralmente considerada moderada e pode ser típica de empresas com uma estrutura de custos mais equilibrada. Indica que a empresa está conseguindo controlar seus custos de produção de maneira razoável.</t>
         </is>
       </c>
     </row>
@@ -11156,27 +11176,27 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma relação negativa sugere que a empresa está em uma posição financeira confortável, com recursos suficientes para quitar todas as suas dívidas e ainda manter excedentes em caixa</t>
         </is>
       </c>
     </row>
@@ -11211,27 +11231,27 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>A empresa possui mais caixa e ativos líquidos do que o total de suas dívidas. Nesse caso, a dívida líquida é menor que zero, indicando uma posição financeira confortável e baixo risco de insolvência</t>
         </is>
       </c>
     </row>
@@ -11259,34 +11279,34 @@
       <c r="E198" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F198" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F198" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>A empresa possui mais caixa e equivalentes de caixa do que dívidas financeiras. Nesse caso, o numerador (dívida líquida) é negativo, o que geralmente é considerado um sinal positivo, indicando solidez financeira e baixo risco de insolvência. A empresa teria recursos suficientes para quitar todas as dívidas e ainda manter excedente em caixa</t>
         </is>
       </c>
     </row>
@@ -11314,34 +11334,34 @@
       <c r="E199" s="5" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F199" s="6" t="inlineStr">
+      <c r="F199" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitáveis</t>
         </is>
       </c>
     </row>
@@ -11369,34 +11389,34 @@
       <c r="E200" s="5" t="n">
         <v>0.92</v>
       </c>
-      <c r="F200" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F200" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t xml:space="preserve"> empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -11431,27 +11451,27 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Um valor acima de 2 sugere que a empresa tem uma posição de liquidez muito forte, com ativos circulantes significativamente superiores aos passivos circulantes. Enquanto isso pode indicar uma gestão financeira conservadora, em alguns casos pode também sinalizar que a empresa não está utilizando seus ativos de forma eficiente para gerar retornos</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11497,7 @@
         </is>
       </c>
       <c r="E202" s="2" t="n">
-        <v>0.1127</v>
+        <v>0.1099</v>
       </c>
       <c r="F202" s="4" t="inlineStr">
         <is>
@@ -11532,9 +11552,9 @@
         </is>
       </c>
       <c r="E203" s="5" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="F203" s="8" t="inlineStr">
+        <v>5.05</v>
+      </c>
+      <c r="F203" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -11587,7 +11607,7 @@
         </is>
       </c>
       <c r="E204" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -11637,9 +11657,9 @@
         </is>
       </c>
       <c r="E205" s="5" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F205" s="6" t="inlineStr">
+        <v>0.68</v>
+      </c>
+      <c r="F205" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -11694,7 +11714,7 @@
       <c r="E206" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F206" s="6" t="inlineStr">
+      <c r="F206" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -11747,7 +11767,7 @@
         </is>
       </c>
       <c r="E207" s="5" t="n">
-        <v>6.54</v>
+        <v>6.71</v>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
@@ -11804,7 +11824,7 @@
       <c r="E208" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F208" s="6" t="inlineStr">
+      <c r="F208" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -11857,7 +11877,7 @@
         </is>
       </c>
       <c r="E209" s="5" t="n">
-        <v>6.54</v>
+        <v>6.71</v>
       </c>
       <c r="F209" s="3" t="inlineStr">
         <is>
@@ -11969,7 +11989,7 @@
       <c r="E211" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="F211" s="6" t="inlineStr">
+      <c r="F211" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -12024,7 +12044,7 @@
       <c r="E212" s="5" t="n">
         <v>4.3</v>
       </c>
-      <c r="F212" s="8" t="inlineStr">
+      <c r="F212" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -12077,9 +12097,9 @@
         </is>
       </c>
       <c r="E213" s="5" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F213" s="6" t="inlineStr">
+        <v>0.45</v>
+      </c>
+      <c r="F213" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -12181,8 +12201,8 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E215" s="7" t="n">
-        <v>21.23</v>
+      <c r="E215" s="8" t="n">
+        <v>21.72</v>
       </c>
       <c r="F215" s="4" t="inlineStr">
         <is>
@@ -12236,8 +12256,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E216" s="7" t="n">
-        <v>723517817.76</v>
+      <c r="E216" s="8" t="n">
+        <v>724360794.14</v>
       </c>
       <c r="F216" s="4" t="inlineStr">
         <is>
@@ -12291,7 +12311,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E217" s="7" t="n">
+      <c r="E217" s="8" t="n">
         <v>181793664000</v>
       </c>
       <c r="F217" s="4" t="inlineStr">
@@ -12346,7 +12366,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E218" s="7" t="n">
+      <c r="E218" s="8" t="n">
         <v>2427051877000</v>
       </c>
       <c r="F218" s="4" t="inlineStr">
@@ -12401,7 +12421,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E219" s="7" t="n">
+      <c r="E219" s="8" t="n">
         <v>71510833000</v>
       </c>
       <c r="F219" s="4" t="inlineStr">
@@ -12456,10 +12476,10 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E220" s="7" t="n">
+      <c r="E220" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F220" s="6" t="inlineStr">
+      <c r="F220" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -12511,7 +12531,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E221" s="7" t="n">
+      <c r="E221" s="8" t="n">
         <v>71510833000</v>
       </c>
       <c r="F221" s="4" t="inlineStr">
@@ -12566,10 +12586,10 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E222" s="7" t="n">
+      <c r="E222" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F222" s="6" t="inlineStr">
+      <c r="F222" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -12621,8 +12641,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E223" s="7" t="n">
-        <v>121321756627</v>
+      <c r="E223" s="8" t="n">
+        <v>124473715349</v>
       </c>
       <c r="F223" s="4" t="inlineStr">
         <is>
@@ -12676,8 +12696,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E224" s="7" t="n">
-        <v>121321756627</v>
+      <c r="E224" s="8" t="n">
+        <v>124473715349</v>
       </c>
       <c r="F224" s="4" t="inlineStr">
         <is>
@@ -12844,7 +12864,7 @@
       <c r="E227" s="2" t="n">
         <v>0.0102</v>
       </c>
-      <c r="F227" s="6" t="inlineStr">
+      <c r="F227" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -12899,7 +12919,7 @@
       <c r="E228" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F228" s="6" t="inlineStr">
+      <c r="F228" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -12954,7 +12974,7 @@
       <c r="E229" s="5" t="n">
         <v>0.11</v>
       </c>
-      <c r="F229" s="6" t="inlineStr">
+      <c r="F229" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -13009,19 +13029,19 @@
       <c r="E230" s="2" t="n">
         <v>0.0862</v>
       </c>
-      <c r="F230" s="8" t="inlineStr">
+      <c r="F230" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -13036,7 +13056,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>descregular.</t>
+          <t>Uma margem líquida nessa faixa é considerada moderada e pode ser típica de empresas que operam em setores com margens mais equilibradas, como algumas indústrias ou serviços. Reflete uma eficiência razoável em converter receita em lucro líquido.</t>
         </is>
       </c>
     </row>
@@ -13064,19 +13084,19 @@
       <c r="E231" s="2" t="n">
         <v>0.08460000000000001</v>
       </c>
-      <c r="F231" s="8" t="inlineStr">
+      <c r="F231" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -13091,7 +13111,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>descregular.</t>
+          <t>Uma margem EBIT nessa faixa é considerada moderada e pode ser típica de empresas em setores com margens mais equilibradas. Reflete uma eficiência operacional razoável, mas pode haver espaço para melhorar a rentabilidade operacional.</t>
         </is>
       </c>
     </row>
@@ -13119,19 +13139,19 @@
       <c r="E232" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F232" s="6" t="inlineStr">
+      <c r="F232" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -13146,7 +13166,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem EBITDA abaixo de 10% pode indicar que a empresa tem uma baixa eficiência operacional ou enfrenta altos custos operacionais. Isso pode ser comum em setores com alta concorrência e margens reduzidas, como o varejo ou indústrias com alta estrutura de custos</t>
         </is>
       </c>
     </row>
@@ -13174,19 +13194,19 @@
       <c r="E233" s="2" t="n">
         <v>0.3269</v>
       </c>
-      <c r="F233" s="8" t="inlineStr">
+      <c r="F233" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -13201,7 +13221,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>descregular.</t>
+          <t xml:space="preserve"> Uma margem bruta nessa faixa é geralmente considerada moderada e pode ser típica de empresas com uma estrutura de custos mais equilibrada. Indica que a empresa está conseguindo controlar seus custos de produção de maneira razoável.</t>
         </is>
       </c>
     </row>
@@ -13236,27 +13256,27 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma relação negativa sugere que a empresa está em uma posição financeira confortável, com recursos suficientes para quitar todas as suas dívidas e ainda manter excedentes em caixa</t>
         </is>
       </c>
     </row>
@@ -13291,27 +13311,27 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>A empresa possui mais caixa e ativos líquidos do que o total de suas dívidas. Nesse caso, a dívida líquida é menor que zero, indicando uma posição financeira confortável e baixo risco de insolvência</t>
         </is>
       </c>
     </row>
@@ -13339,34 +13359,34 @@
       <c r="E236" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F236" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F236" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>A empresa possui mais caixa e equivalentes de caixa do que dívidas financeiras. Nesse caso, o numerador (dívida líquida) é negativo, o que geralmente é considerado um sinal positivo, indicando solidez financeira e baixo risco de insolvência. A empresa teria recursos suficientes para quitar todas as dívidas e ainda manter excedente em caixa</t>
         </is>
       </c>
     </row>
@@ -13394,34 +13414,34 @@
       <c r="E237" s="5" t="n">
         <v>0.08</v>
       </c>
-      <c r="F237" s="6" t="inlineStr">
+      <c r="F237" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitáveis</t>
         </is>
       </c>
     </row>
@@ -13449,34 +13469,34 @@
       <c r="E238" s="5" t="n">
         <v>0.92</v>
       </c>
-      <c r="F238" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F238" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t xml:space="preserve"> empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -13511,27 +13531,27 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Um valor acima de 2 sugere que a empresa tem uma posição de liquidez muito forte, com ativos circulantes significativamente superiores aos passivos circulantes. Enquanto isso pode indicar uma gestão financeira conservadora, em alguns casos pode também sinalizar que a empresa não está utilizando seus ativos de forma eficiente para gerar retornos</t>
         </is>
       </c>
     </row>
@@ -13557,9 +13577,9 @@
         </is>
       </c>
       <c r="E240" s="2" t="n">
-        <v>0.0573</v>
-      </c>
-      <c r="F240" s="8" t="inlineStr">
+        <v>0.0571</v>
+      </c>
+      <c r="F240" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -13612,7 +13632,7 @@
         </is>
       </c>
       <c r="E241" s="5" t="n">
-        <v>9.210000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="F241" s="3" t="inlineStr">
         <is>
@@ -13669,7 +13689,7 @@
       <c r="E242" s="5" t="n">
         <v>0.21</v>
       </c>
-      <c r="F242" s="6" t="inlineStr">
+      <c r="F242" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -13724,7 +13744,7 @@
       <c r="E243" s="5" t="n">
         <v>1.03</v>
       </c>
-      <c r="F243" s="6" t="inlineStr">
+      <c r="F243" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -13779,7 +13799,7 @@
       <c r="E244" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F244" s="6" t="inlineStr">
+      <c r="F244" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -13832,7 +13852,7 @@
         </is>
       </c>
       <c r="E245" s="5" t="n">
-        <v>8.720000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="F245" s="3" t="inlineStr">
         <is>
@@ -13889,7 +13909,7 @@
       <c r="E246" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F246" s="6" t="inlineStr">
+      <c r="F246" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -13942,7 +13962,7 @@
         </is>
       </c>
       <c r="E247" s="5" t="n">
-        <v>9.390000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="F247" s="3" t="inlineStr">
         <is>
@@ -14054,7 +14074,7 @@
       <c r="E249" s="5" t="n">
         <v>0.09</v>
       </c>
-      <c r="F249" s="6" t="inlineStr">
+      <c r="F249" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -14109,7 +14129,7 @@
       <c r="E250" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="F250" s="6" t="inlineStr">
+      <c r="F250" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -14162,9 +14182,9 @@
         </is>
       </c>
       <c r="E251" s="5" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F251" s="6" t="inlineStr">
+        <v>0.8</v>
+      </c>
+      <c r="F251" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -14266,8 +14286,8 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E253" s="7" t="n">
-        <v>16.56</v>
+      <c r="E253" s="8" t="n">
+        <v>16.6</v>
       </c>
       <c r="F253" s="4" t="inlineStr">
         <is>
@@ -14321,8 +14341,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E254" s="7" t="n">
-        <v>527880478.9</v>
+      <c r="E254" s="8" t="n">
+        <v>521733897.68</v>
       </c>
       <c r="F254" s="4" t="inlineStr">
         <is>
@@ -14376,7 +14396,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E255" s="7" t="n">
+      <c r="E255" s="8" t="n">
         <v>170501799000</v>
       </c>
       <c r="F255" s="4" t="inlineStr">
@@ -14431,7 +14451,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E256" s="7" t="n">
+      <c r="E256" s="8" t="n">
         <v>2054649704000</v>
       </c>
       <c r="F256" s="4" t="inlineStr">
@@ -14486,7 +14506,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E257" s="7" t="n">
+      <c r="E257" s="8" t="n">
         <v>171220729000</v>
       </c>
       <c r="F257" s="4" t="inlineStr">
@@ -14541,10 +14561,10 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E258" s="7" t="n">
+      <c r="E258" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F258" s="6" t="inlineStr">
+      <c r="F258" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -14596,7 +14616,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E259" s="7" t="n">
+      <c r="E259" s="8" t="n">
         <v>171220729000</v>
       </c>
       <c r="F259" s="4" t="inlineStr">
@@ -14651,10 +14671,10 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E260" s="7" t="n">
+      <c r="E260" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F260" s="6" t="inlineStr">
+      <c r="F260" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -14706,8 +14726,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E261" s="7" t="n">
-        <v>162675373081</v>
+      <c r="E261" s="8" t="n">
+        <v>163416342037</v>
       </c>
       <c r="F261" s="4" t="inlineStr">
         <is>
@@ -14761,8 +14781,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E262" s="7" t="n">
-        <v>162675373081</v>
+      <c r="E262" s="8" t="n">
+        <v>163416342037</v>
       </c>
       <c r="F262" s="4" t="inlineStr">
         <is>
@@ -14929,7 +14949,7 @@
       <c r="E265" s="2" t="n">
         <v>0.009300000000000001</v>
       </c>
-      <c r="F265" s="6" t="inlineStr">
+      <c r="F265" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -14984,7 +15004,7 @@
       <c r="E266" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F266" s="6" t="inlineStr">
+      <c r="F266" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -15039,7 +15059,7 @@
       <c r="E267" s="5" t="n">
         <v>0.11</v>
       </c>
-      <c r="F267" s="6" t="inlineStr">
+      <c r="F267" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -15094,19 +15114,19 @@
       <c r="E268" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F268" s="6" t="inlineStr">
+      <c r="F268" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -15121,7 +15141,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem líquida abaixo de 5% sugere que a empresa tem uma margem de lucro relativamente baixa. Isso pode ser típico em setores com alta concorrência e margens reduzidas, como o varejo ou o setor de alimentos e bebidas. Pode indicar baixa eficiência na gestão de custos ou baixa rentabilidade</t>
         </is>
       </c>
     </row>
@@ -15149,19 +15169,19 @@
       <c r="E269" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F269" s="6" t="inlineStr">
+      <c r="F269" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -15176,7 +15196,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem EBIT abaixo de 5% sugere que a empresa tem uma baixa eficiência operacional. Isso pode ser comum em setores com alta concorrência e baixos níveis de diferenciação, como o varejo e alguns segmentos industriais. Indica que a empresa pode estar enfrentando desafios significativos em controlar seus custos operacionais.</t>
         </is>
       </c>
     </row>
@@ -15204,19 +15224,19 @@
       <c r="E270" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F270" s="6" t="inlineStr">
+      <c r="F270" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -15231,7 +15251,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem EBITDA abaixo de 10% pode indicar que a empresa tem uma baixa eficiência operacional ou enfrenta altos custos operacionais. Isso pode ser comum em setores com alta concorrência e margens reduzidas, como o varejo ou indústrias com alta estrutura de custos</t>
         </is>
       </c>
     </row>
@@ -15259,19 +15279,19 @@
       <c r="E271" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F271" s="6" t="inlineStr">
+      <c r="F271" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -15286,7 +15306,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem bruta abaixo de 20% pode indicar que a empresa tem um custo de produção relativamente alto em relação à sua receita. Isso é comum em setores com altos custos de matéria-prima ou produção, como o varejo de alimentos e algumas indústrias manufatureiras</t>
         </is>
       </c>
     </row>
@@ -15321,27 +15341,27 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma relação negativa sugere que a empresa está em uma posição financeira confortável, com recursos suficientes para quitar todas as suas dívidas e ainda manter excedentes em caixa</t>
         </is>
       </c>
     </row>
@@ -15376,27 +15396,27 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>A empresa possui mais caixa e ativos líquidos do que o total de suas dívidas. Nesse caso, a dívida líquida é menor que zero, indicando uma posição financeira confortável e baixo risco de insolvência</t>
         </is>
       </c>
     </row>
@@ -15424,34 +15444,34 @@
       <c r="E274" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F274" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F274" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>A empresa possui mais caixa e equivalentes de caixa do que dívidas financeiras. Nesse caso, o numerador (dívida líquida) é negativo, o que geralmente é considerado um sinal positivo, indicando solidez financeira e baixo risco de insolvência. A empresa teria recursos suficientes para quitar todas as dívidas e ainda manter excedente em caixa</t>
         </is>
       </c>
     </row>
@@ -15479,34 +15499,34 @@
       <c r="E275" s="5" t="n">
         <v>0.63</v>
       </c>
-      <c r="F275" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F275" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um índice entre 0,50 e 0,70 indica que a empresa possui uma boa proporção de patrimônio líquido em relação aos ativos, o que sugere uma sólida base financeira e uma menor dependência de dívidas. Empresas com valores nessa faixa geralmente têm uma estrutura de capital mais conservadora e são menos suscetíveis a riscos financeiros</t>
         </is>
       </c>
     </row>
@@ -15534,34 +15554,34 @@
       <c r="E276" s="5" t="n">
         <v>0.37</v>
       </c>
-      <c r="F276" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F276" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Considerado saudável. Significa que a empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -15589,34 +15609,34 @@
       <c r="E277" s="5" t="n">
         <v>2.5</v>
       </c>
-      <c r="F277" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F277" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um valor acima de 2 sugere que a empresa tem uma posição de liquidez muito forte, com ativos circulantes significativamente superiores aos passivos circulantes. Enquanto isso pode indicar uma gestão financeira conservadora, em alguns casos pode também sinalizar que a empresa não está utilizando seus ativos de forma eficiente para gerar retornos</t>
         </is>
       </c>
     </row>
@@ -15642,7 +15662,7 @@
         </is>
       </c>
       <c r="E278" s="2" t="n">
-        <v>0.1059</v>
+        <v>0.1049</v>
       </c>
       <c r="F278" s="4" t="inlineStr">
         <is>
@@ -15697,7 +15717,7 @@
         </is>
       </c>
       <c r="E279" s="5" t="n">
-        <v>8.1</v>
+        <v>8.19</v>
       </c>
       <c r="F279" s="3" t="inlineStr">
         <is>
@@ -15752,9 +15772,9 @@
         </is>
       </c>
       <c r="E280" s="5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F280" s="6" t="inlineStr">
+        <v>1.31</v>
+      </c>
+      <c r="F280" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -15807,7 +15827,7 @@
         </is>
       </c>
       <c r="E281" s="5" t="n">
-        <v>6.01</v>
+        <v>6.07</v>
       </c>
       <c r="F281" s="3" t="inlineStr">
         <is>
@@ -15864,7 +15884,7 @@
       <c r="E282" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F282" s="6" t="inlineStr">
+      <c r="F282" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -15917,7 +15937,7 @@
         </is>
       </c>
       <c r="E283" s="5" t="n">
-        <v>7.22</v>
+        <v>7.31</v>
       </c>
       <c r="F283" s="3" t="inlineStr">
         <is>
@@ -15974,7 +15994,7 @@
       <c r="E284" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F284" s="6" t="inlineStr">
+      <c r="F284" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -16027,7 +16047,7 @@
         </is>
       </c>
       <c r="E285" s="5" t="n">
-        <v>7.24</v>
+        <v>7.31</v>
       </c>
       <c r="F285" s="3" t="inlineStr">
         <is>
@@ -16084,7 +16104,7 @@
       <c r="E286" s="5" t="n">
         <v>5.83</v>
       </c>
-      <c r="F286" s="8" t="inlineStr">
+      <c r="F286" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -16137,9 +16157,9 @@
         </is>
       </c>
       <c r="E287" s="5" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F287" s="8" t="inlineStr">
+        <v>3.82</v>
+      </c>
+      <c r="F287" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -16194,7 +16214,7 @@
       <c r="E288" s="5" t="n">
         <v>4.32</v>
       </c>
-      <c r="F288" s="8" t="inlineStr">
+      <c r="F288" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -16249,7 +16269,7 @@
       <c r="E289" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F289" s="6" t="inlineStr">
+      <c r="F289" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -16302,7 +16322,7 @@
         </is>
       </c>
       <c r="E290" s="5" t="n">
-        <v>-6.53</v>
+        <v>-6.6</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -16351,8 +16371,8 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E291" s="7" t="n">
-        <v>35.09</v>
+      <c r="E291" s="8" t="n">
+        <v>35.39</v>
       </c>
       <c r="F291" s="4" t="inlineStr">
         <is>
@@ -16406,8 +16426,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E292" s="7" t="n">
-        <v>174139213.48</v>
+      <c r="E292" s="8" t="n">
+        <v>170549869.77</v>
       </c>
       <c r="F292" s="4" t="inlineStr">
         <is>
@@ -16461,7 +16481,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E293" s="7" t="n">
+      <c r="E293" s="8" t="n">
         <v>11661962000</v>
       </c>
       <c r="F293" s="4" t="inlineStr">
@@ -16516,7 +16536,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E294" s="7" t="n">
+      <c r="E294" s="8" t="n">
         <v>18524267000</v>
       </c>
       <c r="F294" s="4" t="inlineStr">
@@ -16571,7 +16591,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E295" s="7" t="n">
+      <c r="E295" s="8" t="n">
         <v>7793681000</v>
       </c>
       <c r="F295" s="4" t="inlineStr">
@@ -16626,10 +16646,10 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E296" s="7" t="n">
+      <c r="E296" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F296" s="6" t="inlineStr">
+      <c r="F296" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -16681,7 +16701,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E297" s="7" t="n">
+      <c r="E297" s="8" t="n">
         <v>6455132000</v>
       </c>
       <c r="F297" s="4" t="inlineStr">
@@ -16736,10 +16756,10 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E298" s="7" t="n">
+      <c r="E298" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F298" s="6" t="inlineStr">
+      <c r="F298" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -16791,8 +16811,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E299" s="7" t="n">
-        <v>69920000000</v>
+      <c r="E299" s="8" t="n">
+        <v>70780000000</v>
       </c>
       <c r="F299" s="4" t="inlineStr">
         <is>
@@ -16846,8 +16866,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E300" s="7" t="n">
-        <v>69920000000</v>
+      <c r="E300" s="8" t="n">
+        <v>70780000000</v>
       </c>
       <c r="F300" s="4" t="inlineStr">
         <is>
@@ -17069,7 +17089,7 @@
       <c r="E304" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F304" s="6" t="inlineStr">
+      <c r="F304" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -17124,7 +17144,7 @@
       <c r="E305" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F305" s="6" t="inlineStr">
+      <c r="F305" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -17179,19 +17199,19 @@
       <c r="E306" s="2" t="n">
         <v>-0.05980000000000001</v>
       </c>
-      <c r="F306" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F306" s="7" t="inlineStr">
+        <is>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -17206,7 +17226,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem líquida negativa revela que a empresa está gastando mais do que arrecada, seja por custos operacionais elevados, despesas financeiras, impostos altos, ou queda nas receitas</t>
         </is>
       </c>
     </row>
@@ -17234,19 +17254,19 @@
       <c r="E307" s="2" t="n">
         <v>-0.0182</v>
       </c>
-      <c r="F307" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F307" s="7" t="inlineStr">
+        <is>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -17261,7 +17281,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem EBIT negativa indica que a empresa está enfrentando problemas em sua operação principal, não conseguindo gerar lucro operacional. Isso pode ser resultado de custos elevados, queda nas vendas ou ineficiência na gestão</t>
         </is>
       </c>
     </row>
@@ -17289,19 +17309,19 @@
       <c r="E308" s="2" t="n">
         <v>0.0211</v>
       </c>
-      <c r="F308" s="6" t="inlineStr">
+      <c r="F308" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -17316,7 +17336,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem EBITDA abaixo de 10% pode indicar que a empresa tem uma baixa eficiência operacional ou enfrenta altos custos operacionais. Isso pode ser comum em setores com alta concorrência e margens reduzidas, como o varejo ou indústrias com alta estrutura de custos</t>
         </is>
       </c>
     </row>
@@ -17344,19 +17364,19 @@
       <c r="E309" s="2" t="n">
         <v>0.3006</v>
       </c>
-      <c r="F309" s="8" t="inlineStr">
+      <c r="F309" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -17371,7 +17391,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>descregular.</t>
+          <t xml:space="preserve"> Uma margem bruta nessa faixa é geralmente considerada moderada e pode ser típica de empresas com uma estrutura de custos mais equilibrada. Indica que a empresa está conseguindo controlar seus custos de produção de maneira razoável.</t>
         </is>
       </c>
     </row>
@@ -17399,34 +17419,34 @@
       <c r="E310" s="5" t="n">
         <v>2.15</v>
       </c>
-      <c r="F310" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F310" s="7" t="inlineStr">
+        <is>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Este nível indica que a empresa está altamente alavancada, com um montante significativo de dívida em relação ao patrimônio líquido. Isso pode sinalizar um alto risco financeiro e a possibilidade de dificuldades para cumprir obrigações de dívida, especialmente se a empresa enfrentar quedas nos lucros ou aumento nos custos de financiamento</t>
         </is>
       </c>
     </row>
@@ -17454,34 +17474,34 @@
       <c r="E311" s="5" t="n">
         <v>12.38</v>
       </c>
-      <c r="F311" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F311" s="7" t="inlineStr">
+        <is>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Este múltiplo sugere que a empresa está altamente alavancada e pode enfrentar dificuldades em cumprir suas obrigações financeiras. Empresas com múltiplos acima de 4 estão em uma posição financeira mais vulnerável e podem estar em risco de insolvência ou precisar de reestruturação financeira se o EBITDA não for sustentável.</t>
         </is>
       </c>
     </row>
@@ -17509,34 +17529,34 @@
       <c r="E312" s="5" t="n">
         <v>-14.38</v>
       </c>
-      <c r="F312" s="6" t="inlineStr">
-        <is>
-          <t>pessimo</t>
+      <c r="F312" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>descrpessimo</t>
+          <t>A empresa possui mais caixa e equivalentes de caixa do que dívidas financeiras. Nesse caso, o numerador (dívida líquida) é negativo, o que geralmente é considerado um sinal positivo, indicando solidez financeira e baixo risco de insolvência. A empresa teria recursos suficientes para quitar todas as dívidas e ainda manter excedente em caixa</t>
         </is>
       </c>
     </row>
@@ -17564,34 +17584,34 @@
       <c r="E313" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="F313" s="6" t="inlineStr">
+      <c r="F313" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um índice abaixo de 0,30 indica que a empresa tem uma alta proporção de ativos financiados por dívidas, o que pode indicar uma estrutura de capital altamente alavancada. Isso pode ser um sinal de risco financeiro elevado, pois a empresa depende fortemente de financiamento externo para operar. Em setores onde o capital é intensivo e o endividamento é comum, como o setor imobiliário ou de infraestrutura, valores baixos podem ser mais aceitáveis</t>
         </is>
       </c>
     </row>
@@ -17619,34 +17639,34 @@
       <c r="E314" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="F314" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F314" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t xml:space="preserve"> empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -17674,34 +17694,34 @@
       <c r="E315" s="5" t="n">
         <v>0.76</v>
       </c>
-      <c r="F315" s="6" t="inlineStr">
+      <c r="F315" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um valor abaixo de 1 indica que a empresa possui mais passivos circulantes do que ativos circulantes, sugerindo que ela pode ter dificuldades em cumprir suas obrigações de curto prazo. Esse é um sinal de alerta, pois a empresa pode enfrentar problemas de liquidez, especialmente em momentos de pressão financeira</t>
         </is>
       </c>
     </row>
@@ -17729,7 +17749,7 @@
       <c r="E316" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F316" s="6" t="inlineStr">
+      <c r="F316" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -17782,7 +17802,7 @@
         </is>
       </c>
       <c r="E317" s="5" t="n">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -17834,7 +17854,7 @@
       <c r="E318" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="F318" s="6" t="inlineStr">
+      <c r="F318" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -17889,7 +17909,7 @@
       <c r="E319" s="5" t="n">
         <v>0.09</v>
       </c>
-      <c r="F319" s="6" t="inlineStr">
+      <c r="F319" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -17942,7 +17962,7 @@
         </is>
       </c>
       <c r="E320" s="5" t="n">
-        <v>12.92</v>
+        <v>12.91</v>
       </c>
       <c r="F320" s="4" t="inlineStr">
         <is>
@@ -17997,9 +18017,9 @@
         </is>
       </c>
       <c r="E321" s="5" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F321" s="6" t="inlineStr">
+        <v>-14.99</v>
+      </c>
+      <c r="F321" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
@@ -18052,9 +18072,9 @@
         </is>
       </c>
       <c r="E322" s="5" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="F322" s="6" t="inlineStr">
+        <v>0.52</v>
+      </c>
+      <c r="F322" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -18107,7 +18127,7 @@
         </is>
       </c>
       <c r="E323" s="5" t="n">
-        <v>-0.62</v>
+        <v>-0.61</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -18214,7 +18234,7 @@
       <c r="E325" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="F325" s="6" t="inlineStr">
+      <c r="F325" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -18269,7 +18289,7 @@
       <c r="E326" s="5" t="n">
         <v>-16.75</v>
       </c>
-      <c r="F326" s="6" t="inlineStr">
+      <c r="F326" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
@@ -18324,7 +18344,7 @@
       <c r="E327" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="F327" s="6" t="inlineStr">
+      <c r="F327" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -18426,10 +18446,10 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E329" s="7" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F329" s="8" t="inlineStr">
+      <c r="E329" s="8" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F329" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -18481,8 +18501,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E330" s="7" t="n">
-        <v>17295773.24</v>
+      <c r="E330" s="8" t="n">
+        <v>17169921.59</v>
       </c>
       <c r="F330" s="4" t="inlineStr">
         <is>
@@ -18536,7 +18556,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E331" s="7" t="n">
+      <c r="E331" s="8" t="n">
         <v>3242000000</v>
       </c>
       <c r="F331" s="4" t="inlineStr">
@@ -18591,7 +18611,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E332" s="7" t="n">
+      <c r="E332" s="8" t="n">
         <v>31176000000</v>
       </c>
       <c r="F332" s="4" t="inlineStr">
@@ -18646,7 +18666,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E333" s="7" t="n">
+      <c r="E333" s="8" t="n">
         <v>12733000000</v>
       </c>
       <c r="F333" s="4" t="inlineStr">
@@ -18701,7 +18721,7 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E334" s="7" t="n">
+      <c r="E334" s="8" t="n">
         <v>8817000000</v>
       </c>
       <c r="F334" s="4" t="inlineStr">
@@ -18756,7 +18776,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E335" s="7" t="n">
+      <c r="E335" s="8" t="n">
         <v>1858000000</v>
       </c>
       <c r="F335" s="4" t="inlineStr">
@@ -18811,7 +18831,7 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E336" s="7" t="n">
+      <c r="E336" s="8" t="n">
         <v>6959000000</v>
       </c>
       <c r="F336" s="4" t="inlineStr">
@@ -18866,8 +18886,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E337" s="7" t="n">
-        <v>299524041</v>
+      <c r="E337" s="8" t="n">
+        <v>293818821</v>
       </c>
       <c r="F337" s="4" t="inlineStr">
         <is>
@@ -18921,8 +18941,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E338" s="7" t="n">
-        <v>7258524041</v>
+      <c r="E338" s="8" t="n">
+        <v>7252818821</v>
       </c>
       <c r="F338" s="4" t="inlineStr">
         <is>
@@ -19034,7 +19054,7 @@
       <c r="E340" s="2" t="n">
         <v>-0.4914</v>
       </c>
-      <c r="F340" s="6" t="inlineStr">
+      <c r="F340" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
@@ -19139,7 +19159,7 @@
       <c r="E342" s="2" t="n">
         <v>-0.114</v>
       </c>
-      <c r="F342" s="6" t="inlineStr">
+      <c r="F342" s="7" t="inlineStr">
         <is>
           <t>pessimo</t>
         </is>
@@ -19194,7 +19214,7 @@
       <c r="E343" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="F343" s="6" t="inlineStr">
+      <c r="F343" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -19249,19 +19269,19 @@
       <c r="E344" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F344" s="6" t="inlineStr">
+      <c r="F344" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -19276,7 +19296,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem líquida abaixo de 5% sugere que a empresa tem uma margem de lucro relativamente baixa. Isso pode ser típico em setores com alta concorrência e margens reduzidas, como o varejo ou o setor de alimentos e bebidas. Pode indicar baixa eficiência na gestão de custos ou baixa rentabilidade</t>
         </is>
       </c>
     </row>
@@ -19304,19 +19324,19 @@
       <c r="E345" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F345" s="6" t="inlineStr">
+      <c r="F345" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -19331,7 +19351,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem EBIT abaixo de 5% sugere que a empresa tem uma baixa eficiência operacional. Isso pode ser comum em setores com alta concorrência e baixos níveis de diferenciação, como o varejo e alguns segmentos industriais. Indica que a empresa pode estar enfrentando desafios significativos em controlar seus custos operacionais.</t>
         </is>
       </c>
     </row>
@@ -19359,19 +19379,19 @@
       <c r="E346" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F346" s="6" t="inlineStr">
+      <c r="F346" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -19386,7 +19406,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem EBITDA abaixo de 10% pode indicar que a empresa tem uma baixa eficiência operacional ou enfrenta altos custos operacionais. Isso pode ser comum em setores com alta concorrência e margens reduzidas, como o varejo ou indústrias com alta estrutura de custos</t>
         </is>
       </c>
     </row>
@@ -19414,19 +19434,19 @@
       <c r="E347" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F347" s="6" t="inlineStr">
+      <c r="F347" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -19441,7 +19461,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem bruta abaixo de 20% pode indicar que a empresa tem um custo de produção relativamente alto em relação à sua receita. Isso é comum em setores com altos custos de matéria-prima ou produção, como o varejo de alimentos e algumas indústrias manufatureiras</t>
         </is>
       </c>
     </row>
@@ -19476,27 +19496,27 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma relação negativa sugere que a empresa está em uma posição financeira confortável, com recursos suficientes para quitar todas as suas dívidas e ainda manter excedentes em caixa</t>
         </is>
       </c>
     </row>
@@ -19531,27 +19551,27 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>A empresa possui mais caixa e ativos líquidos do que o total de suas dívidas. Nesse caso, a dívida líquida é menor que zero, indicando uma posição financeira confortável e baixo risco de insolvência</t>
         </is>
       </c>
     </row>
@@ -19579,29 +19599,34 @@
       <c r="E350" s="5" t="n">
         <v>-0.17</v>
       </c>
+      <c r="F350" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>A empresa possui mais caixa e equivalentes de caixa do que dívidas financeiras. Nesse caso, o numerador (dívida líquida) é negativo, o que geralmente é considerado um sinal positivo, indicando solidez financeira e baixo risco de insolvência. A empresa teria recursos suficientes para quitar todas as dívidas e ainda manter excedente em caixa</t>
         </is>
       </c>
     </row>
@@ -19629,34 +19654,34 @@
       <c r="E351" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="F351" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F351" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um índice acima de 0,70 mostra que a empresa possui uma alta proporção de patrimônio líquido em relação aos seus ativos, indicando baixa alavancagem. Isso sugere que a empresa é financeiramente sólida e menos dependente de financiamento externo. No entanto, uma estrutura de capital com alta proporção de patrimônio líquido também pode indicar que a empresa não está aproveitando oportunidades de alavancagem financeira para expandir seus negócios</t>
         </is>
       </c>
     </row>
@@ -19684,34 +19709,34 @@
       <c r="E352" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="F352" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F352" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Considerado saudável. Significa que a empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -19739,34 +19764,34 @@
       <c r="E353" s="5" t="n">
         <v>5.41</v>
       </c>
-      <c r="F353" s="8" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="F353" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>descregular.</t>
+          <t>Um valor acima de 2 sugere que a empresa tem uma posição de liquidez muito forte, com ativos circulantes significativamente superiores aos passivos circulantes. Enquanto isso pode indicar uma gestão financeira conservadora, em alguns casos pode também sinalizar que a empresa não está utilizando seus ativos de forma eficiente para gerar retornos</t>
         </is>
       </c>
     </row>
@@ -19792,7 +19817,7 @@
         </is>
       </c>
       <c r="E354" s="2" t="n">
-        <v>0.1356</v>
+        <v>0.13</v>
       </c>
       <c r="F354" s="4" t="inlineStr">
         <is>
@@ -19847,9 +19872,9 @@
         </is>
       </c>
       <c r="E355" s="5" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F355" s="8" t="inlineStr">
+        <v>3.4</v>
+      </c>
+      <c r="F355" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -19902,7 +19927,7 @@
         </is>
       </c>
       <c r="E356" s="5" t="n">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -19952,9 +19977,9 @@
         </is>
       </c>
       <c r="E357" s="5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F357" s="6" t="inlineStr">
+        <v>0.73</v>
+      </c>
+      <c r="F357" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -20009,7 +20034,7 @@
       <c r="E358" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F358" s="6" t="inlineStr">
+      <c r="F358" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -20062,9 +20087,9 @@
         </is>
       </c>
       <c r="E359" s="5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="F359" s="8" t="inlineStr">
+        <v>3.26</v>
+      </c>
+      <c r="F359" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -20119,7 +20144,7 @@
       <c r="E360" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F360" s="6" t="inlineStr">
+      <c r="F360" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -20172,9 +20197,9 @@
         </is>
       </c>
       <c r="E361" s="5" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F361" s="8" t="inlineStr">
+        <v>3.51</v>
+      </c>
+      <c r="F361" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -20282,9 +20307,9 @@
         </is>
       </c>
       <c r="E363" s="5" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F363" s="6" t="inlineStr">
+        <v>0.72</v>
+      </c>
+      <c r="F363" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -20339,7 +20364,7 @@
       <c r="E364" s="5" t="n">
         <v>4.59</v>
       </c>
-      <c r="F364" s="8" t="inlineStr">
+      <c r="F364" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -20394,7 +20419,7 @@
       <c r="E365" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F365" s="6" t="inlineStr">
+      <c r="F365" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -20447,7 +20472,7 @@
         </is>
       </c>
       <c r="E366" s="5" t="n">
-        <v>-0.72</v>
+        <v>-0.75</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -20496,8 +20521,8 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E367" s="7" t="n">
-        <v>14.94</v>
+      <c r="E367" s="8" t="n">
+        <v>15.6</v>
       </c>
       <c r="F367" s="4" t="inlineStr">
         <is>
@@ -20551,8 +20576,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E368" s="7" t="n">
-        <v>62692984.43</v>
+      <c r="E368" s="8" t="n">
+        <v>56800277.82</v>
       </c>
       <c r="F368" s="4" t="inlineStr">
         <is>
@@ -20606,7 +20631,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E369" s="7" t="n">
+      <c r="E369" s="8" t="n">
         <v>8451831000</v>
       </c>
       <c r="F369" s="4" t="inlineStr">
@@ -20661,7 +20686,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E370" s="7" t="n">
+      <c r="E370" s="8" t="n">
         <v>8508543000</v>
       </c>
       <c r="F370" s="4" t="inlineStr">
@@ -20716,7 +20741,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E371" s="7" t="n">
+      <c r="E371" s="8" t="n">
         <v>294978000</v>
       </c>
       <c r="F371" s="4" t="inlineStr">
@@ -20771,10 +20796,10 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E372" s="7" t="n">
+      <c r="E372" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F372" s="6" t="inlineStr">
+      <c r="F372" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -20826,7 +20851,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E373" s="7" t="n">
+      <c r="E373" s="8" t="n">
         <v>294731000</v>
       </c>
       <c r="F373" s="4" t="inlineStr">
@@ -20881,7 +20906,7 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E374" s="7" t="n">
+      <c r="E374" s="8" t="n">
         <v>-294731000</v>
       </c>
       <c r="G374" t="inlineStr">
@@ -20931,8 +20956,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E375" s="7" t="n">
-        <v>5800609928</v>
+      <c r="E375" s="8" t="n">
+        <v>5992937319</v>
       </c>
       <c r="F375" s="4" t="inlineStr">
         <is>
@@ -20986,8 +21011,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E376" s="7" t="n">
-        <v>5505878928</v>
+      <c r="E376" s="8" t="n">
+        <v>5698206319</v>
       </c>
       <c r="F376" s="4" t="inlineStr">
         <is>
@@ -21264,7 +21289,7 @@
       <c r="E381" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F381" s="6" t="inlineStr">
+      <c r="F381" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -21326,12 +21351,12 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -21346,7 +21371,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>descrbom</t>
+          <t xml:space="preserve"> Uma margem líquida entre 10% e 20% é geralmente considerada boa e indica uma empresa que é eficiente na gestão de suas despesas e custos, resultando em uma rentabilidade sólida. É comum em setores com menos concorrência e mais poder de precificação</t>
         </is>
       </c>
     </row>
@@ -21381,12 +21406,12 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -21401,7 +21426,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma margem EBIT acima de 20% sugere alta eficiência operacional e uma forte capacidade de gerar lucro operacional a partir das vendas. Isso pode ser típico de setores com altos margens brutas e controle eficaz dos custos operacionais, como tecnologia, software e alguns serviços especializados</t>
         </is>
       </c>
     </row>
@@ -21436,12 +21461,12 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -21456,7 +21481,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>descrbom</t>
+          <t xml:space="preserve"> Uma margem EBITDA entre 20% e 30% indica uma boa eficiência operacional, com a empresa gerando uma quantidade significativa de EBITDA em relação à receita líquida. Isso é comum em setores com menos pressão sobre margens e onde as empresas conseguem manter um controle eficiente dos custos</t>
         </is>
       </c>
     </row>
@@ -21484,19 +21509,19 @@
       <c r="E385" s="2" t="n">
         <v>0.1963</v>
       </c>
-      <c r="F385" s="6" t="inlineStr">
+      <c r="F385" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -21511,7 +21536,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Uma margem bruta abaixo de 20% pode indicar que a empresa tem um custo de produção relativamente alto em relação à sua receita. Isso é comum em setores com altos custos de matéria-prima ou produção, como o varejo de alimentos e algumas indústrias manufatureiras</t>
         </is>
       </c>
     </row>
@@ -21546,27 +21571,27 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma relação negativa sugere que a empresa está em uma posição financeira confortável, com recursos suficientes para quitar todas as suas dívidas e ainda manter excedentes em caixa</t>
         </is>
       </c>
     </row>
@@ -21601,27 +21626,27 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>A empresa possui mais caixa e ativos líquidos do que o total de suas dívidas. Nesse caso, a dívida líquida é menor que zero, indicando uma posição financeira confortável e baixo risco de insolvência</t>
         </is>
       </c>
     </row>
@@ -21649,34 +21674,34 @@
       <c r="E388" s="5" t="n">
         <v>1.09</v>
       </c>
-      <c r="F388" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F388" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>A empresa possui mais caixa e equivalentes de caixa do que dívidas financeiras. Nesse caso, o numerador (dívida líquida) é negativo, o que geralmente é considerado um sinal positivo, indicando solidez financeira e baixo risco de insolvência. A empresa teria recursos suficientes para quitar todas as dívidas e ainda manter excedente em caixa</t>
         </is>
       </c>
     </row>
@@ -21706,32 +21731,32 @@
       </c>
       <c r="F389" s="6" t="inlineStr">
         <is>
-          <t>ruim</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t xml:space="preserve"> Um índice nessa faixa sugere uma estrutura de capital com uma proporção razoável de patrimônio líquido em relação aos ativos. A empresa tem um equilíbrio entre o financiamento próprio e o financiamento externo. Esse nível de alavancagem é geralmente considerado moderado e pode ser típico em muitos setores.</t>
         </is>
       </c>
     </row>
@@ -21759,34 +21784,34 @@
       <c r="E390" s="5" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F390" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F390" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Considerado saudável. Significa que a empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -21816,32 +21841,32 @@
       </c>
       <c r="F391" s="6" t="inlineStr">
         <is>
-          <t>ruim</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um múltiplo nesta faixa é geralmente considerado aceitável, significando que a empresa possui ativos circulantes suficientes para cobrir suas obrigações de curto prazo. No entanto, esse nível de liquidez pode ser considerado baixo em setores com alta volatilidade nos fluxos de caixa ou onde os ciclos de pagamento e recebimento são longos.</t>
         </is>
       </c>
     </row>
@@ -21867,7 +21892,7 @@
         </is>
       </c>
       <c r="E392" s="2" t="n">
-        <v>0.1776</v>
+        <v>0.1746</v>
       </c>
       <c r="F392" s="4" t="inlineStr">
         <is>
@@ -21922,9 +21947,9 @@
         </is>
       </c>
       <c r="E393" s="5" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F393" s="8" t="inlineStr">
+        <v>4.29</v>
+      </c>
+      <c r="F393" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -21979,7 +22004,7 @@
       <c r="E394" s="5" t="n">
         <v>0.16</v>
       </c>
-      <c r="F394" s="6" t="inlineStr">
+      <c r="F394" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -22032,9 +22057,9 @@
         </is>
       </c>
       <c r="E395" s="5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="F395" s="6" t="inlineStr">
+        <v>1.08</v>
+      </c>
+      <c r="F395" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -22087,9 +22112,9 @@
         </is>
       </c>
       <c r="E396" s="5" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F396" s="8" t="inlineStr">
+        <v>4.05</v>
+      </c>
+      <c r="F396" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -22142,9 +22167,9 @@
         </is>
       </c>
       <c r="E397" s="5" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="F397" s="8" t="inlineStr">
+        <v>4.64</v>
+      </c>
+      <c r="F397" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -22197,9 +22222,9 @@
         </is>
       </c>
       <c r="E398" s="5" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F398" s="6" t="inlineStr">
+        <v>2.71</v>
+      </c>
+      <c r="F398" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -22252,9 +22277,9 @@
         </is>
       </c>
       <c r="E399" s="5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="F399" s="8" t="inlineStr">
+        <v>3.11</v>
+      </c>
+      <c r="F399" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -22362,9 +22387,9 @@
         </is>
       </c>
       <c r="E401" s="5" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="F401" s="6" t="inlineStr">
+        <v>0.47</v>
+      </c>
+      <c r="F401" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -22419,7 +22444,7 @@
       <c r="E402" s="5" t="n">
         <v>2.45</v>
       </c>
-      <c r="F402" s="6" t="inlineStr">
+      <c r="F402" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -22472,9 +22497,9 @@
         </is>
       </c>
       <c r="E403" s="5" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="F403" s="6" t="inlineStr">
+        <v>0.74</v>
+      </c>
+      <c r="F403" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -22527,7 +22552,7 @@
         </is>
       </c>
       <c r="E404" s="5" t="n">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -22576,8 +22601,8 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E405" s="7" t="n">
-        <v>10.39</v>
+      <c r="E405" s="8" t="n">
+        <v>10.49</v>
       </c>
       <c r="F405" s="4" t="inlineStr">
         <is>
@@ -22631,8 +22656,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E406" s="7" t="n">
-        <v>108373555.62</v>
+      <c r="E406" s="8" t="n">
+        <v>109925697.27</v>
       </c>
       <c r="F406" s="4" t="inlineStr">
         <is>
@@ -22686,7 +22711,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E407" s="7" t="n">
+      <c r="E407" s="8" t="n">
         <v>27914455000</v>
       </c>
       <c r="F407" s="4" t="inlineStr">
@@ -22741,7 +22766,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E408" s="7" t="n">
+      <c r="E408" s="8" t="n">
         <v>63901931000</v>
       </c>
       <c r="F408" s="4" t="inlineStr">
@@ -22796,7 +22821,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E409" s="7" t="n">
+      <c r="E409" s="8" t="n">
         <v>15471501000</v>
       </c>
       <c r="F409" s="4" t="inlineStr">
@@ -22851,7 +22876,7 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E410" s="7" t="n">
+      <c r="E410" s="8" t="n">
         <v>15242574000</v>
       </c>
       <c r="F410" s="4" t="inlineStr">
@@ -22906,7 +22931,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E411" s="7" t="n">
+      <c r="E411" s="8" t="n">
         <v>4700460000</v>
       </c>
       <c r="F411" s="4" t="inlineStr">
@@ -22961,7 +22986,7 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E412" s="7" t="n">
+      <c r="E412" s="8" t="n">
         <v>10542114000</v>
       </c>
       <c r="F412" s="4" t="inlineStr">
@@ -23016,8 +23041,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E413" s="7" t="n">
-        <v>34086853776</v>
+      <c r="E413" s="8" t="n">
+        <v>34267404563</v>
       </c>
       <c r="F413" s="4" t="inlineStr">
         <is>
@@ -23071,8 +23096,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E414" s="7" t="n">
-        <v>44628967776</v>
+      <c r="E414" s="8" t="n">
+        <v>44809518563</v>
       </c>
       <c r="F414" s="4" t="inlineStr">
         <is>
@@ -23349,7 +23374,7 @@
       <c r="E419" s="5" t="n">
         <v>0.64</v>
       </c>
-      <c r="F419" s="6" t="inlineStr">
+      <c r="F419" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -23411,12 +23436,12 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Mínimo = -10, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -23431,7 +23456,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>descrbom</t>
+          <t xml:space="preserve"> Uma margem líquida entre 10% e 20% é geralmente considerada boa e indica uma empresa que é eficiente na gestão de suas despesas e custos, resultando em uma rentabilidade sólida. É comum em setores com menos concorrência e mais poder de precificação</t>
         </is>
       </c>
     </row>
@@ -23466,12 +23491,12 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -23486,7 +23511,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma margem EBIT acima de 20% sugere alta eficiência operacional e uma forte capacidade de gerar lucro operacional a partir das vendas. Isso pode ser típico de setores com altos margens brutas e controle eficaz dos custos operacionais, como tecnologia, software e alguns serviços especializados</t>
         </is>
       </c>
     </row>
@@ -23521,12 +23546,12 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 10</t>
+          <t>Mínimo = 0, Máximo = 10</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -23541,7 +23566,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>descrbom</t>
+          <t xml:space="preserve"> Uma margem EBITDA entre 20% e 30% indica uma boa eficiência operacional, com a empresa gerando uma quantidade significativa de EBITDA em relação à receita líquida. Isso é comum em setores com menos pressão sobre margens e onde as empresas conseguem manter um controle eficiente dos custos</t>
         </is>
       </c>
     </row>
@@ -23576,12 +23601,12 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Mínimo = -50, Máximo = 20</t>
+          <t>Mínimo = 0, Máximo = 20</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -23596,7 +23621,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Uma margem bruta acima de 60% sugere uma alta eficiência na produção e venda, com um custo relativamente baixo em relação à receita. Isso é típico em setores com altas barreiras de entrada, baixo custo de produção, ou produtos/serviços de alto valor agregado, como tecnologia e software</t>
         </is>
       </c>
     </row>
@@ -23624,34 +23649,34 @@
       <c r="E424" s="5" t="n">
         <v>0.44</v>
       </c>
-      <c r="F424" s="4" t="inlineStr">
-        <is>
-          <t>otimo</t>
+      <c r="F424" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = inf</t>
+          <t>Mínimo = 1, Máximo = 2</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Mínimo = 1, Máximo = 2</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Mínimo = 0.5, Máximo = 1</t>
+          <t>Mínimo = 0.4, Máximo = 0.5</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>descotimo</t>
+          <t>Indica que a empresa tem um nível relativamente baixo de dívida em comparação ao seu patrimônio líquido. Empresas nessa faixa são geralmente consideradas financeiramente conservadoras e menos arriscadas, com menor dependência de financiamento por dívida</t>
         </is>
       </c>
     </row>
@@ -23679,34 +23704,34 @@
       <c r="E425" s="5" t="n">
         <v>2.92</v>
       </c>
-      <c r="F425" s="3" t="inlineStr">
-        <is>
-          <t>bom</t>
+      <c r="F425" s="6" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Mínimo = 4, Máximo = inf</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 4</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Mínimo = 2, Máximo = 3</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>descrbom</t>
+          <t>Um múltiplo nesta faixa é considerado aceitável, especialmente em setores onde é comum operar com algum nível de alavancagem. Indica que a empresa está gerenciando bem sua dívida, mas existe uma exposição maior ao risco se houver uma queda no EBITDA ou aumento na dívida.</t>
         </is>
       </c>
     </row>
@@ -23734,34 +23759,34 @@
       <c r="E426" s="5" t="n">
         <v>3.83</v>
       </c>
-      <c r="F426" s="8" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="F426" s="7" t="inlineStr">
+        <is>
+          <t>ruim</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 4, Máximo = inf</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 3, Máximo = 4</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 2, Máximo = 3</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.9, Máximo = 2</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>descregular.</t>
+          <t>Um múltiplo nesta faixa começa a indicar um nível elevado de alavancagem. Isso pode ser preocupante, especialmente se a empresa tiver fluxos de caixa voláteis ou se houver uma queda inesperada nos lucros. Embora possa ser administrável em setores com fluxos de caixa estáveis, é necessário cautela</t>
         </is>
       </c>
     </row>
@@ -23789,34 +23814,34 @@
       <c r="E427" s="5" t="n">
         <v>0.51</v>
       </c>
-      <c r="F427" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F427" s="3" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = -150, Máximo = 0</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0, Máximo = 0.3</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 0.3, Máximo = 0.5</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 0.7</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um índice entre 0,50 e 0,70 indica que a empresa possui uma boa proporção de patrimônio líquido em relação aos ativos, o que sugere uma sólida base financeira e uma menor dependência de dívidas. Empresas com valores nessa faixa geralmente têm uma estrutura de capital mais conservadora e são menos suscetíveis a riscos financeiros</t>
         </is>
       </c>
     </row>
@@ -23844,34 +23869,34 @@
       <c r="E428" s="5" t="n">
         <v>0.44</v>
       </c>
-      <c r="F428" s="6" t="inlineStr">
-        <is>
-          <t>ruim</t>
+      <c r="F428" s="4" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 1.5, Máximo = inf</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 0.9, Máximo = 1</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Considerado saudável. Significa que a empresa possui mais ativos do que passivos e, portanto, tem capacidade de saldar todas as dívidas com seus próprios recursos</t>
         </is>
       </c>
     </row>
@@ -23901,32 +23926,32 @@
       </c>
       <c r="F429" s="6" t="inlineStr">
         <is>
-          <t>ruim</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>Mínimo = -150, Máximo = -10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 3</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Mínimo = 3, Máximo = 6</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Mínimo = 6, Máximo = 10</t>
+          <t>Mínimo = 1.5, Máximo = 2</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>descrruim</t>
+          <t>Um múltiplo nesta faixa é geralmente considerado aceitável, significando que a empresa possui ativos circulantes suficientes para cobrir suas obrigações de curto prazo. No entanto, esse nível de liquidez pode ser considerado baixo em setores com alta volatilidade nos fluxos de caixa ou onde os ciclos de pagamento e recebimento são longos.</t>
         </is>
       </c>
     </row>
@@ -23952,9 +23977,9 @@
         </is>
       </c>
       <c r="E430" s="2" t="n">
-        <v>0.0239</v>
-      </c>
-      <c r="F430" s="6" t="inlineStr">
+        <v>0.0238</v>
+      </c>
+      <c r="F430" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -24007,9 +24032,9 @@
         </is>
       </c>
       <c r="E431" s="5" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F431" s="8" t="inlineStr">
+        <v>5.34</v>
+      </c>
+      <c r="F431" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -24114,7 +24139,7 @@
       <c r="E433" s="5" t="n">
         <v>0.42</v>
       </c>
-      <c r="F433" s="6" t="inlineStr">
+      <c r="F433" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -24167,9 +24192,9 @@
         </is>
       </c>
       <c r="E434" s="5" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="F434" s="8" t="inlineStr">
+        <v>5.73</v>
+      </c>
+      <c r="F434" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -24222,7 +24247,7 @@
         </is>
       </c>
       <c r="E435" s="5" t="n">
-        <v>7.5</v>
+        <v>7.52</v>
       </c>
       <c r="F435" s="3" t="inlineStr">
         <is>
@@ -24277,9 +24302,9 @@
         </is>
       </c>
       <c r="E436" s="5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F436" s="6" t="inlineStr">
+        <v>2.81</v>
+      </c>
+      <c r="F436" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -24332,9 +24357,9 @@
         </is>
       </c>
       <c r="E437" s="5" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="F437" s="8" t="inlineStr">
+        <v>3.69</v>
+      </c>
+      <c r="F437" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -24444,7 +24469,7 @@
       <c r="E439" s="5" t="n">
         <v>0.22</v>
       </c>
-      <c r="F439" s="6" t="inlineStr">
+      <c r="F439" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -24499,7 +24524,7 @@
       <c r="E440" s="5" t="n">
         <v>0.52</v>
       </c>
-      <c r="F440" s="6" t="inlineStr">
+      <c r="F440" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -24554,7 +24579,7 @@
       <c r="E441" s="5" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="F441" s="6" t="inlineStr">
+      <c r="F441" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -24656,10 +24681,10 @@
           <t>Valor atual</t>
         </is>
       </c>
-      <c r="E443" s="7" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="F443" s="6" t="inlineStr">
+      <c r="E443" s="8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F443" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
@@ -24711,8 +24736,8 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="E444" s="7" t="n">
-        <v>99094331.05</v>
+      <c r="E444" s="8" t="n">
+        <v>97696091.41</v>
       </c>
       <c r="F444" s="4" t="inlineStr">
         <is>
@@ -24766,7 +24791,7 @@
           <t>Patrimonio liquido</t>
         </is>
       </c>
-      <c r="E445" s="7" t="n">
+      <c r="E445" s="8" t="n">
         <v>12444512000</v>
       </c>
       <c r="F445" s="4" t="inlineStr">
@@ -24821,7 +24846,7 @@
           <t>Ativos</t>
         </is>
       </c>
-      <c r="E446" s="7" t="n">
+      <c r="E446" s="8" t="n">
         <v>24203940000</v>
       </c>
       <c r="F446" s="4" t="inlineStr">
@@ -24876,7 +24901,7 @@
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E447" s="7" t="n">
+      <c r="E447" s="8" t="n">
         <v>4711693000</v>
       </c>
       <c r="F447" s="4" t="inlineStr">
@@ -24931,7 +24956,7 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="E448" s="7" t="n">
+      <c r="E448" s="8" t="n">
         <v>6873792000</v>
       </c>
       <c r="F448" s="4" t="inlineStr">
@@ -24986,7 +25011,7 @@
           <t>Disponibilidade</t>
         </is>
       </c>
-      <c r="E449" s="7" t="n">
+      <c r="E449" s="8" t="n">
         <v>1421705000</v>
       </c>
       <c r="F449" s="4" t="inlineStr">
@@ -25041,7 +25066,7 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="E450" s="7" t="n">
+      <c r="E450" s="8" t="n">
         <v>5452087000</v>
       </c>
       <c r="F450" s="4" t="inlineStr">
@@ -25096,8 +25121,8 @@
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E451" s="7" t="n">
-        <v>5216965264</v>
+      <c r="E451" s="8" t="n">
+        <v>5254497388</v>
       </c>
       <c r="F451" s="4" t="inlineStr">
         <is>
@@ -25151,8 +25176,8 @@
           <t>Valor de firma</t>
         </is>
       </c>
-      <c r="E452" s="7" t="n">
-        <v>10669052264</v>
+      <c r="E452" s="8" t="n">
+        <v>10706584388</v>
       </c>
       <c r="F452" s="4" t="inlineStr">
         <is>
@@ -25319,7 +25344,7 @@
       <c r="E455" s="2" t="n">
         <v>0.0406</v>
       </c>
-      <c r="F455" s="8" t="inlineStr">
+      <c r="F455" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -25374,7 +25399,7 @@
       <c r="E456" s="2" t="n">
         <v>0.05429999999999999</v>
       </c>
-      <c r="F456" s="8" t="inlineStr">
+      <c r="F456" s="6" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
@@ -25429,7 +25454,7 @@
       <c r="E457" s="5" t="n">
         <v>0.27</v>
       </c>
-      <c r="F457" s="6" t="inlineStr">
+      <c r="F457" s="7" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="IndiRentabilidade" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.0694</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>8.69</v>
+        <v>8.51</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6.59</v>
+        <v>6.45</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>9.44</v>
+        <v>9.26</v>
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>7.16</v>
+        <v>7.02</v>
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>14.81</v>
+        <v>14.53</v>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-2.31</v>
+        <v>-2.3</v>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-2.63</v>
+        <v>-2.62</v>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>18.81</v>
+        <v>18.38</v>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>14.94</v>
+        <v>14.6</v>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>9.890000000000001</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="F73" s="7" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>7.86</v>
+        <v>7.45</v>
       </c>
       <c r="F74" s="6" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>-4.23</v>
+        <v>-4.01</v>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F77" s="6" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="E89" s="4" t="n">
-        <v>0.0058</v>
+        <v>0.0063</v>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>17.02</v>
+        <v>16.56</v>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>9.19</v>
+        <v>8.94</v>
       </c>
       <c r="F91" s="6" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>5.8</v>
+        <v>5.34</v>
       </c>
       <c r="F101" s="7" t="inlineStr">
         <is>
@@ -6559,11 +6559,11 @@
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F102" s="7" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>2.88</v>
+      </c>
+      <c r="F102" s="5" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração, VALE3). Investidores devem confirmar fluxo de caixa livre e sustentabilidade do EBITDA.</t>
+          <t>Extremamente subvalorizada, sugere oportunidade ou EBITDA inflado. Comum em setores em recuperação (ex.: PETR4). Investidores devem verificar fluxo de caixa livre e ROIC.</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>1778.92</v>
+        <v>1638.06</v>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="F104" s="7" t="inlineStr">
         <is>
@@ -6739,11 +6739,11 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>ruim</t>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Alavancagem elevada, patrimônio financia 20-30% dos ativos, indicando risco moderado. Investidores devem monitorar gestão da dívida e geração de caixa.</t>
+          <t>Alta alavancagem, patrimônio representa menos de 20% dos ativos, indicando dependência de dívidas. Comum em setores com dívidas elevadas (ex.: construção). Investidores devem analisar capacidade de pagamento de juros.</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="E117" s="4" t="n">
-        <v>0.0206</v>
+        <v>0.0215</v>
       </c>
       <c r="F117" s="5" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>11.95</v>
+        <v>11.37</v>
       </c>
       <c r="F118" s="6" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>11.26</v>
+        <v>10.71</v>
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>11.83</v>
+        <v>11.31</v>
       </c>
       <c r="F129" s="6" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>11.15</v>
+        <v>10.66</v>
       </c>
       <c r="F130" s="3" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>15.96</v>
+        <v>15.26</v>
       </c>
       <c r="F131" s="3" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>4.02</v>
+        <v>3.84</v>
       </c>
       <c r="F132" s="3" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="F133" s="5" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="E145" s="4" t="n">
-        <v>0.109</v>
+        <v>0.1126</v>
       </c>
       <c r="F145" s="5" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         </is>
       </c>
       <c r="E146" s="2" t="n">
-        <v>6.74</v>
+        <v>6.55</v>
       </c>
       <c r="F146" s="7" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         </is>
       </c>
       <c r="E157" s="2" t="n">
-        <v>6.76</v>
+        <v>6.55</v>
       </c>
       <c r="F157" s="7" t="inlineStr">
         <is>
@@ -9979,11 +9979,11 @@
         </is>
       </c>
       <c r="E159" s="2" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F159" s="7" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>4.93</v>
+      </c>
+      <c r="F159" s="5" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração, VALE3). Investidores devem confirmar fluxo de caixa livre e sustentabilidade do lucro.</t>
+          <t>Extremamente subvalorizada, sugere oportunidade ou lucro inflado. Comum em setores em recuperação (ex.: PETR4). Investidores devem verificar fluxo de caixa livre e ROE.</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="E160" s="2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F160" s="7" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="E173" s="4" t="n">
-        <v>0.07580000000000001</v>
+        <v>0.07769999999999999</v>
       </c>
       <c r="F173" s="5" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         </is>
       </c>
       <c r="E174" s="2" t="n">
-        <v>8.65</v>
+        <v>8.44</v>
       </c>
       <c r="F174" s="6" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="E185" s="2" t="n">
-        <v>9.31</v>
+        <v>9.09</v>
       </c>
       <c r="F185" s="7" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         </is>
       </c>
       <c r="E187" s="2" t="n">
-        <v>9.140000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="F187" s="7" t="inlineStr">
         <is>
@@ -11719,11 +11719,11 @@
         </is>
       </c>
       <c r="E188" s="2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F188" s="6" t="inlineStr">
-        <is>
-          <t>moderado</t>
+        <v>0.99</v>
+      </c>
+      <c r="F188" s="7" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Avaliação razoável, comum em setores maduros (ex.: varejo, LREN3). Investidores devem verificar consistência do patrimônio e tendências setoriais.</t>
+          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração, VALE3). Investidores devem confirmar qualidade do patrimônio e fluxo de caixa livre.</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -12499,7 +12499,7 @@
         </is>
       </c>
       <c r="E201" s="4" t="n">
-        <v>0.1029</v>
+        <v>0.1052</v>
       </c>
       <c r="F201" s="5" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         </is>
       </c>
       <c r="E202" s="2" t="n">
-        <v>7.46</v>
+        <v>7.28</v>
       </c>
       <c r="F202" s="7" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="E213" s="2" t="n">
-        <v>7.45</v>
+        <v>7.28</v>
       </c>
       <c r="F213" s="7" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="E215" s="2" t="n">
-        <v>8.35</v>
+        <v>8.16</v>
       </c>
       <c r="F215" s="7" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="E216" s="2" t="n">
-        <v>6.19</v>
+        <v>6.05</v>
       </c>
       <c r="F216" s="3" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         </is>
       </c>
       <c r="E217" s="2" t="n">
-        <v>3.89</v>
+        <v>3.81</v>
       </c>
       <c r="F217" s="5" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         </is>
       </c>
       <c r="E230" s="2" t="n">
-        <v>-14.99</v>
+        <v>-14.97</v>
       </c>
       <c r="F230" s="3" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         </is>
       </c>
       <c r="E231" s="2" t="n">
-        <v>12.91</v>
+        <v>12.89</v>
       </c>
       <c r="F231" s="3" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         </is>
       </c>
       <c r="E241" s="2" t="n">
-        <v>-0.61</v>
+        <v>-0.59</v>
       </c>
       <c r="F241" s="3" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         </is>
       </c>
       <c r="E242" s="2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F242" s="5" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         </is>
       </c>
       <c r="E243" s="2" t="n">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="F243" s="3" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         </is>
       </c>
       <c r="E257" s="4" t="n">
-        <v>0.1235</v>
+        <v>0.1218</v>
       </c>
       <c r="F257" s="5" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         </is>
       </c>
       <c r="E258" s="2" t="n">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
       <c r="F258" s="5" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         </is>
       </c>
       <c r="E269" s="2" t="n">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
       <c r="F269" s="5" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         </is>
       </c>
       <c r="E271" s="2" t="n">
-        <v>3.58</v>
+        <v>3.63</v>
       </c>
       <c r="F271" s="5" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         </is>
       </c>
       <c r="E272" s="2" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="F272" s="7" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         </is>
       </c>
       <c r="E273" s="2" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="F273" s="7" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         </is>
       </c>
       <c r="E285" s="4" t="n">
-        <v>0.1669</v>
+        <v>0.1696</v>
       </c>
       <c r="F285" s="5" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         </is>
       </c>
       <c r="E286" s="2" t="n">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="F286" s="7" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         </is>
       </c>
       <c r="E287" s="2" t="n">
-        <v>4.18</v>
+        <v>4.14</v>
       </c>
       <c r="F287" s="7" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         </is>
       </c>
       <c r="E297" s="2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="F297" s="5" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         </is>
       </c>
       <c r="E298" s="2" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="F298" s="5" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         </is>
       </c>
       <c r="E299" s="2" t="n">
-        <v>4.48</v>
+        <v>4.41</v>
       </c>
       <c r="F299" s="5" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         </is>
       </c>
       <c r="E300" s="2" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F300" s="6" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         </is>
       </c>
       <c r="E301" s="2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="F301" s="6" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         </is>
       </c>
       <c r="E313" s="4" t="n">
-        <v>0.0236</v>
+        <v>0.0253</v>
       </c>
       <c r="F313" s="5" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         </is>
       </c>
       <c r="E314" s="2" t="n">
-        <v>7.56</v>
+        <v>7.31</v>
       </c>
       <c r="F314" s="7" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         </is>
       </c>
       <c r="E315" s="2" t="n">
-        <v>5.76</v>
+        <v>5.57</v>
       </c>
       <c r="F315" s="7" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         </is>
       </c>
       <c r="E325" s="2" t="n">
-        <v>3.73</v>
+        <v>3.48</v>
       </c>
       <c r="F325" s="5" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         </is>
       </c>
       <c r="E326" s="2" t="n">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="F326" s="5" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         </is>
       </c>
       <c r="E327" s="2" t="n">
-        <v>5.4</v>
+        <v>5.04</v>
       </c>
       <c r="F327" s="7" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         </is>
       </c>
       <c r="E328" s="2" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="F328" s="5" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         </is>
       </c>
       <c r="E329" s="2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.57</v>
+        <v>-0.51</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.0694</v>
+        <v>0.06860000000000001</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>8.51</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
@@ -869,11 +869,11 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>moderado</t>
+        <v>5.88</v>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Avaliação equilibrada, comum em setores maduros (ex.: varejo). Investidores devem verificar consistência do EBITDA e perspectivas de crescimento.</t>
+          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração). Investidores devem confirmar fluxo de caixa livre e tendências setoriais.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0.3255</v>
+        <v>0.3621</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>9.26</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>7.02</v>
+        <v>6.39</v>
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>14.53</v>
+        <v>14.7</v>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="E27" s="4" t="n">
-        <v>0.1785</v>
+        <v>0.174</v>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-2.23</v>
+        <v>-2.48</v>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-2.3</v>
+        <v>-2.32</v>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-2.62</v>
+        <v>-2.94</v>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="E41" s="4" t="n">
-        <v>-0.5576</v>
+        <v>-0.5014999999999999</v>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>-0.39</v>
+        <v>-0.46</v>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2.4</v>
+        <v>2.51</v>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="E55" s="4" t="n">
-        <v>-0.469</v>
+        <v>-0.476</v>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>7.15</v>
+        <v>4.35</v>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>18.38</v>
+        <v>18.52</v>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
@@ -4219,11 +4219,11 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F63" s="3" t="inlineStr">
-        <is>
-          <t>pessimo</t>
+        <v>8.960000000000001</v>
+      </c>
+      <c r="F63" s="6" t="inlineStr">
+        <is>
+          <t>moderado</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Empresa extremamente cara, EV é mais de 12 vezes o EBITDA, sugerindo sobrevalorização. Comum em setores de tecnologia (ex.: Nubank). Investidores devem comparar com peers e avaliar crescimento projetado.</t>
+          <t>Avaliação equilibrada, comum em setores maduros (ex.: varejo). Investidores devem verificar consistência do EBITDA e perspectivas de crescimento.</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="E69" s="4" t="n">
-        <v>0.0619</v>
+        <v>0.1016</v>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>9.380000000000001</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F73" s="7" t="inlineStr">
         <is>
@@ -4879,11 +4879,11 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="F74" s="6" t="inlineStr">
-        <is>
-          <t>moderado</t>
+        <v>4.61</v>
+      </c>
+      <c r="F74" s="7" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Avaliação razoável, comum em setores maduros (ex.: varejo, LREN3). Investidores devem verificar consistência do EBITDA e tendências setoriais.</t>
+          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração, VALE3). Investidores devem confirmar fluxo de caixa livre e sustentabilidade do EBITDA.</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>-4.01</v>
+        <v>-4.07</v>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F77" s="6" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>6.05</v>
+        <v>6.12</v>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="E89" s="4" t="n">
-        <v>0.0063</v>
+        <v>0.0064</v>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>16.56</v>
+        <v>16.49</v>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>8.94</v>
+        <v>9</v>
       </c>
       <c r="F91" s="6" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="E97" s="4" t="n">
-        <v>0.3436</v>
+        <v>0.3399</v>
       </c>
       <c r="F97" s="5" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>5.34</v>
+        <v>5.27</v>
       </c>
       <c r="F101" s="7" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>1638.06</v>
+        <v>1616.38</v>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="F104" s="7" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="E111" s="4" t="n">
-        <v>0.0358</v>
+        <v>0.0369</v>
       </c>
       <c r="F111" s="5" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F115" s="7" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="E117" s="4" t="n">
-        <v>0.0215</v>
+        <v>0.0214</v>
       </c>
       <c r="F117" s="5" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>11.37</v>
+        <v>11.42</v>
       </c>
       <c r="F118" s="6" t="inlineStr">
         <is>
@@ -7579,11 +7579,11 @@
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="F119" s="3" t="inlineStr">
-        <is>
-          <t>ruim</t>
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F119" s="6" t="inlineStr">
+        <is>
+          <t>moderado</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Empresa cara, comum em setores de crescimento (ex.: saúde). Investidores devem analisar se o crescimento futuro justifica o preço e comparar com média setorial.</t>
+          <t>Avaliação equilibrada, comum em setores maduros (ex.: varejo). Investidores devem verificar consistência do EBITDA e perspectivas de crescimento.</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="E125" s="4" t="n">
-        <v>0.6292</v>
+        <v>0.7709</v>
       </c>
       <c r="F125" s="5" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>11.31</v>
+        <v>11.36</v>
       </c>
       <c r="F129" s="6" t="inlineStr">
         <is>
@@ -8239,11 +8239,11 @@
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="F130" s="3" t="inlineStr">
-        <is>
-          <t>ruim</t>
+        <v>8.74</v>
+      </c>
+      <c r="F130" s="6" t="inlineStr">
+        <is>
+          <t>moderado</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Empresa cara, comum em setores de crescimento (ex.: saúde, RDOR3). Investidores devem analisar se o crescimento justifica o preço e comparar com média setorial.</t>
+          <t>Avaliação razoável, comum em setores maduros (ex.: varejo, LREN3). Investidores devem verificar consistência do EBITDA e tendências setoriais.</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>15.26</v>
+        <v>15.32</v>
       </c>
       <c r="F131" s="3" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>3.84</v>
+        <v>3.86</v>
       </c>
       <c r="F132" s="3" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="F133" s="5" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         </is>
       </c>
       <c r="E139" s="4" t="n">
-        <v>0.1391</v>
+        <v>0.099</v>
       </c>
       <c r="F139" s="5" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="E145" s="4" t="n">
-        <v>0.1126</v>
+        <v>0.1148</v>
       </c>
       <c r="F145" s="5" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         </is>
       </c>
       <c r="E146" s="2" t="n">
-        <v>6.55</v>
+        <v>6.42</v>
       </c>
       <c r="F146" s="7" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         </is>
       </c>
       <c r="E157" s="2" t="n">
-        <v>6.55</v>
+        <v>6.42</v>
       </c>
       <c r="F157" s="7" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         </is>
       </c>
       <c r="E159" s="2" t="n">
-        <v>4.93</v>
+        <v>4.83</v>
       </c>
       <c r="F159" s="5" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="E160" s="2" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F160" s="7" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="E173" s="4" t="n">
-        <v>0.07769999999999999</v>
+        <v>0.0779</v>
       </c>
       <c r="F173" s="5" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         </is>
       </c>
       <c r="E174" s="2" t="n">
-        <v>8.44</v>
+        <v>8.43</v>
       </c>
       <c r="F174" s="6" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="E185" s="2" t="n">
-        <v>9.09</v>
+        <v>9.07</v>
       </c>
       <c r="F185" s="7" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         </is>
       </c>
       <c r="E187" s="2" t="n">
-        <v>8.92</v>
+        <v>8.9</v>
       </c>
       <c r="F187" s="7" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         </is>
       </c>
       <c r="E201" s="4" t="n">
-        <v>0.1052</v>
+        <v>0.1065</v>
       </c>
       <c r="F201" s="5" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         </is>
       </c>
       <c r="E202" s="2" t="n">
-        <v>7.28</v>
+        <v>7.19</v>
       </c>
       <c r="F202" s="7" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="E213" s="2" t="n">
-        <v>7.28</v>
+        <v>7.19</v>
       </c>
       <c r="F213" s="7" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="E215" s="2" t="n">
-        <v>8.16</v>
+        <v>8.06</v>
       </c>
       <c r="F215" s="7" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="E216" s="2" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="F216" s="3" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         </is>
       </c>
       <c r="E217" s="2" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="F217" s="5" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         </is>
       </c>
       <c r="E230" s="2" t="n">
-        <v>-14.97</v>
+        <v>-15</v>
       </c>
       <c r="F230" s="3" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         </is>
       </c>
       <c r="E231" s="2" t="n">
-        <v>12.89</v>
+        <v>12.92</v>
       </c>
       <c r="F231" s="3" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         </is>
       </c>
       <c r="E241" s="2" t="n">
-        <v>-0.59</v>
+        <v>-0.62</v>
       </c>
       <c r="F241" s="3" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         </is>
       </c>
       <c r="E242" s="2" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="F242" s="5" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         </is>
       </c>
       <c r="E243" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="F243" s="3" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         </is>
       </c>
       <c r="E254" s="2" t="n">
-        <v>-0.17</v>
+        <v>-0.64</v>
       </c>
       <c r="F254" s="3" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         </is>
       </c>
       <c r="E256" s="2" t="n">
-        <v>-0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="F256" s="3" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         </is>
       </c>
       <c r="E257" s="4" t="n">
-        <v>0.1218</v>
+        <v>0.126</v>
       </c>
       <c r="F257" s="5" t="inlineStr">
         <is>
@@ -15914,11 +15914,11 @@
         </is>
       </c>
       <c r="E258" s="2" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="F258" s="5" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>4.95</v>
+      </c>
+      <c r="F258" s="7" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Extremamente subvalorizada, EV muito baixo em relação ao EBIT, sugerindo oportunidade ou EBIT inflado. Investidores devem verificar fluxo de caixa livre e sustentabilidade do EBIT para confirmar oportunidade.</t>
+          <t>Subvalorizada, EV abaixo de 8x o EBIT indica empresa barata, com potencial de valorização. Comum em setores cíclicos em recuperação (ex.: mineração). Investidores devem confirmar fluxo de caixa livre e tendências setoriais.</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -16094,7 +16094,7 @@
         </is>
       </c>
       <c r="E261" s="2" t="n">
-        <v>5.41</v>
+        <v>5.83</v>
       </c>
       <c r="F261" s="5" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         </is>
       </c>
       <c r="E262" s="2" t="n">
-        <v>4.59</v>
+        <v>2.97</v>
       </c>
       <c r="F262" s="5" t="inlineStr">
         <is>
@@ -16574,11 +16574,11 @@
         </is>
       </c>
       <c r="E269" s="2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="F269" s="5" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>5.72</v>
+      </c>
+      <c r="F269" s="7" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -16603,7 +16603,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Extremamente subvalorizada, sugere oportunidade ou EBIT inflado. Comum em setores em recuperação (ex.: PETR4). Investidores devem verificar fluxo de caixa livre e ROIC.</t>
+          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração, VALE3). Investidores devem confirmar fluxo de caixa livre e sustentabilidade do EBIT.</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -16694,11 +16694,11 @@
         </is>
       </c>
       <c r="E271" s="2" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="F271" s="5" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>5.42</v>
+      </c>
+      <c r="F271" s="7" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Extremamente subvalorizada, sugere oportunidade ou lucro inflado. Comum em setores em recuperação (ex.: PETR4). Investidores devem verificar fluxo de caixa livre e ROE.</t>
+          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração, VALE3). Investidores devem confirmar fluxo de caixa livre e sustentabilidade do lucro.</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -16754,7 +16754,7 @@
         </is>
       </c>
       <c r="E272" s="2" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="F272" s="7" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         </is>
       </c>
       <c r="E273" s="2" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="F273" s="7" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         </is>
       </c>
       <c r="E277" s="4" t="n">
-        <v>0.2119</v>
+        <v>0.1327</v>
       </c>
       <c r="F277" s="5" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         </is>
       </c>
       <c r="E278" s="4" t="n">
-        <v>0.2133</v>
+        <v>0.1347</v>
       </c>
       <c r="F278" s="5" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         </is>
       </c>
       <c r="E279" s="4" t="n">
-        <v>0.2063</v>
+        <v>0.1272</v>
       </c>
       <c r="F279" s="5" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         </is>
       </c>
       <c r="E280" s="2" t="n">
-        <v>21.5</v>
+        <v>22.05</v>
       </c>
       <c r="F280" s="5" t="inlineStr">
         <is>
@@ -17294,11 +17294,11 @@
         </is>
       </c>
       <c r="E281" s="4" t="n">
-        <v>0.0866</v>
-      </c>
-      <c r="F281" s="5" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>0</v>
+      </c>
+      <c r="F281" s="3" t="inlineStr">
+        <is>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -17323,7 +17323,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Crescimento excepcional, refletindo forte expansão. Comum em setores de alta margem ou inovação (ex.: TOTS3). Investidores devem verificar sustentabilidade frente a riscos setoriais.</t>
+          <t>Crescimento muito baixo, indicando estagnação. Comum em setores maduros com baixa inovação (ex.: varejo tradicional). Investidores devem investigar potencial de melhoria.</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -17414,11 +17414,11 @@
         </is>
       </c>
       <c r="E283" s="2" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F283" s="7" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>2.04</v>
+      </c>
+      <c r="F283" s="6" t="inlineStr">
+        <is>
+          <t>moderado</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Endividamento baixo, dívida quitável rapidamente, indicando forte capacidade de pagamento. Comum em empresas com margens altas (ex.: Weg). Sinal positivo, mas deve-se avaliar se limita crescimento.</t>
+          <t>Endividamento moderado, pagável em 1-2,5 anos de EBITDA, aceitável em setores com investimentos moderados (ex.: varejo). Investidores devem monitorar tendência do EBITDA e gestão de dívidas para garantir sustentabilidade.</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -17534,7 +17534,7 @@
         </is>
       </c>
       <c r="E285" s="4" t="n">
-        <v>0.1696</v>
+        <v>0.1747</v>
       </c>
       <c r="F285" s="5" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         </is>
       </c>
       <c r="E286" s="2" t="n">
-        <v>4.75</v>
+        <v>4.64</v>
       </c>
       <c r="F286" s="7" t="inlineStr">
         <is>
@@ -17654,11 +17654,11 @@
         </is>
       </c>
       <c r="E287" s="2" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F287" s="7" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>8.68</v>
+      </c>
+      <c r="F287" s="6" t="inlineStr">
+        <is>
+          <t>moderado</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração). Investidores devem confirmar fluxo de caixa livre e tendências setoriais.</t>
+          <t>Avaliação equilibrada, comum em setores maduros (ex.: varejo). Investidores devem verificar consistência do EBITDA e perspectivas de crescimento.</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -18014,7 +18014,7 @@
         </is>
       </c>
       <c r="E293" s="4" t="n">
-        <v>0.2726</v>
+        <v>0.127</v>
       </c>
       <c r="F293" s="5" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         </is>
       </c>
       <c r="E297" s="2" t="n">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="F297" s="5" t="inlineStr">
         <is>
@@ -18314,11 +18314,11 @@
         </is>
       </c>
       <c r="E298" s="2" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="F298" s="5" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>5.81</v>
+      </c>
+      <c r="F298" s="7" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Extremamente subvalorizada, sugere oportunidade ou EBITDA inflado. Comum em setores em recuperação (ex.: PETR4). Investidores devem verificar fluxo de caixa livre e ROIC.</t>
+          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração, VALE3). Investidores devem confirmar fluxo de caixa livre e sustentabilidade do EBITDA.</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -18374,7 +18374,7 @@
         </is>
       </c>
       <c r="E299" s="2" t="n">
-        <v>4.41</v>
+        <v>4.28</v>
       </c>
       <c r="F299" s="5" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         </is>
       </c>
       <c r="E300" s="2" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="F300" s="6" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         </is>
       </c>
       <c r="E301" s="2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="F301" s="6" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         </is>
       </c>
       <c r="E307" s="4" t="n">
-        <v>0.176</v>
+        <v>0.1772</v>
       </c>
       <c r="F307" s="5" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         </is>
       </c>
       <c r="E311" s="2" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="F311" s="3" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         </is>
       </c>
       <c r="E313" s="4" t="n">
-        <v>0.0253</v>
+        <v>0.0244</v>
       </c>
       <c r="F313" s="5" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         </is>
       </c>
       <c r="E314" s="2" t="n">
-        <v>7.31</v>
+        <v>7.43</v>
       </c>
       <c r="F314" s="7" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         </is>
       </c>
       <c r="E315" s="2" t="n">
-        <v>5.57</v>
+        <v>5.71</v>
       </c>
       <c r="F315" s="7" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         </is>
       </c>
       <c r="E321" s="4" t="n">
-        <v>0.2876</v>
+        <v>0.2848</v>
       </c>
       <c r="F321" s="5" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         </is>
       </c>
       <c r="E325" s="2" t="n">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="F325" s="5" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         </is>
       </c>
       <c r="E326" s="2" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="F326" s="5" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         </is>
       </c>
       <c r="E327" s="2" t="n">
-        <v>5.04</v>
+        <v>5.21</v>
       </c>
       <c r="F327" s="7" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         </is>
       </c>
       <c r="E328" s="2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="F328" s="5" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         </is>
       </c>
       <c r="E329" s="2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         </is>
       </c>
       <c r="E335" s="4" t="n">
-        <v>0.05429999999999999</v>
+        <v>0.0534</v>
       </c>
       <c r="F335" s="5" t="inlineStr">
         <is>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.51</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.06860000000000001</v>
+        <v>0.0684</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
@@ -869,11 +869,11 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>6.37</v>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>moderado</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração). Investidores devem confirmar fluxo de caixa livre e tendências setoriais.</t>
+          <t>Avaliação equilibrada, comum em setores maduros (ex.: varejo). Investidores devem verificar consistência do EBITDA e perspectivas de crescimento.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0.3621</v>
+        <v>0.3341</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>9.369999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>6.39</v>
+        <v>6.94</v>
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>14.7</v>
+        <v>14.73</v>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-2.48</v>
+        <v>-2.39</v>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-2.32</v>
+        <v>-2.3</v>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-2.94</v>
+        <v>-2.81</v>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="E41" s="4" t="n">
-        <v>-0.5014999999999999</v>
+        <v>-0.5214</v>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.34</v>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.42</v>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2.51</v>
+        <v>2.38</v>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>4.35</v>
+        <v>4.48</v>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>18.52</v>
+        <v>18.16</v>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>8.960000000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F63" s="6" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="E69" s="4" t="n">
-        <v>0.1016</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>9.529999999999999</v>
+        <v>9.16</v>
       </c>
       <c r="F73" s="7" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
       <c r="F74" s="7" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>-4.07</v>
+        <v>-3.92</v>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F77" s="6" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>6.12</v>
+        <v>6.44</v>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="E89" s="4" t="n">
-        <v>0.0064</v>
+        <v>0.0061</v>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>16.49</v>
+        <v>16.73</v>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="F91" s="6" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="E97" s="4" t="n">
-        <v>0.3399</v>
+        <v>0.3232</v>
       </c>
       <c r="F97" s="5" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>5.27</v>
+        <v>5.48</v>
       </c>
       <c r="F101" s="7" t="inlineStr">
         <is>
@@ -6559,11 +6559,11 @@
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="F102" s="5" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>3.15</v>
+      </c>
+      <c r="F102" s="7" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Extremamente subvalorizada, sugere oportunidade ou EBITDA inflado. Comum em setores em recuperação (ex.: PETR4). Investidores devem verificar fluxo de caixa livre e ROIC.</t>
+          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração, VALE3). Investidores devem confirmar fluxo de caixa livre e sustentabilidade do EBITDA.</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>1616.38</v>
+        <v>1681.4</v>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="F104" s="7" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="E117" s="4" t="n">
-        <v>0.0214</v>
+        <v>0.0225</v>
       </c>
       <c r="F117" s="5" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>11.42</v>
+        <v>10.92</v>
       </c>
       <c r="F118" s="6" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>8.779999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="F119" s="6" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="E125" s="4" t="n">
-        <v>0.7709</v>
+        <v>0.7914</v>
       </c>
       <c r="F125" s="5" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>11.36</v>
+        <v>10.84</v>
       </c>
       <c r="F129" s="6" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>8.74</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F130" s="6" t="inlineStr">
         <is>
@@ -8299,11 +8299,11 @@
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="F131" s="3" t="inlineStr">
-        <is>
-          <t>ruim</t>
+        <v>14.61</v>
+      </c>
+      <c r="F131" s="6" t="inlineStr">
+        <is>
+          <t>moderado</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Empresa cara, comum em setores de crescimento (ex.: saúde, RDOR3). Investidores devem analisar se o crescimento justifica o preço e comparar com média setorial.</t>
+          <t>Avaliação razoável, comum em setores maduros (ex.: varejo, LREN3). Investidores devem verificar consistência do lucro e tendências setoriais.</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>3.86</v>
+        <v>3.68</v>
       </c>
       <c r="F132" s="3" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="F133" s="5" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="E145" s="4" t="n">
-        <v>0.1148</v>
+        <v>0.1198</v>
       </c>
       <c r="F145" s="5" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         </is>
       </c>
       <c r="E146" s="2" t="n">
-        <v>6.42</v>
+        <v>6.15</v>
       </c>
       <c r="F146" s="7" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         </is>
       </c>
       <c r="E157" s="2" t="n">
-        <v>6.42</v>
+        <v>6.15</v>
       </c>
       <c r="F157" s="7" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         </is>
       </c>
       <c r="E159" s="2" t="n">
-        <v>4.83</v>
+        <v>4.63</v>
       </c>
       <c r="F159" s="5" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="E160" s="2" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="F160" s="7" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="E173" s="4" t="n">
-        <v>0.0779</v>
+        <v>0.0795</v>
       </c>
       <c r="F173" s="5" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         </is>
       </c>
       <c r="E174" s="2" t="n">
-        <v>8.43</v>
+        <v>8.26</v>
       </c>
       <c r="F174" s="6" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="E185" s="2" t="n">
-        <v>9.07</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F185" s="7" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         </is>
       </c>
       <c r="E187" s="2" t="n">
-        <v>8.9</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F187" s="7" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         </is>
       </c>
       <c r="E188" s="2" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F188" s="7" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         </is>
       </c>
       <c r="E201" s="4" t="n">
-        <v>0.1065</v>
+        <v>0.1096</v>
       </c>
       <c r="F201" s="5" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         </is>
       </c>
       <c r="E202" s="2" t="n">
-        <v>7.19</v>
+        <v>7.01</v>
       </c>
       <c r="F202" s="7" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="E213" s="2" t="n">
-        <v>7.19</v>
+        <v>7</v>
       </c>
       <c r="F213" s="7" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="E215" s="2" t="n">
-        <v>8.06</v>
+        <v>7.84</v>
       </c>
       <c r="F215" s="7" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="E216" s="2" t="n">
-        <v>5.97</v>
+        <v>5.81</v>
       </c>
       <c r="F216" s="3" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         </is>
       </c>
       <c r="E217" s="2" t="n">
-        <v>3.76</v>
+        <v>3.66</v>
       </c>
       <c r="F217" s="5" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         </is>
       </c>
       <c r="E230" s="2" t="n">
-        <v>-15</v>
+        <v>-14.96</v>
       </c>
       <c r="F230" s="3" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         </is>
       </c>
       <c r="E231" s="2" t="n">
-        <v>12.92</v>
+        <v>12.88</v>
       </c>
       <c r="F231" s="3" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         </is>
       </c>
       <c r="E241" s="2" t="n">
-        <v>-0.62</v>
+        <v>-0.58</v>
       </c>
       <c r="F241" s="3" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         </is>
       </c>
       <c r="E242" s="2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="F242" s="5" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         </is>
       </c>
       <c r="E243" s="2" t="n">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="F243" s="3" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         </is>
       </c>
       <c r="E257" s="4" t="n">
-        <v>0.126</v>
+        <v>0.119</v>
       </c>
       <c r="F257" s="5" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         </is>
       </c>
       <c r="E258" s="2" t="n">
-        <v>4.95</v>
+        <v>5.23</v>
       </c>
       <c r="F258" s="7" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         </is>
       </c>
       <c r="E269" s="2" t="n">
-        <v>5.72</v>
+        <v>6.06</v>
       </c>
       <c r="F269" s="7" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         </is>
       </c>
       <c r="E271" s="2" t="n">
-        <v>5.42</v>
+        <v>5.74</v>
       </c>
       <c r="F271" s="7" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         </is>
       </c>
       <c r="E272" s="2" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="F272" s="7" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         </is>
       </c>
       <c r="E273" s="2" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="F273" s="7" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         </is>
       </c>
       <c r="E283" s="2" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="F283" s="6" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         </is>
       </c>
       <c r="E285" s="4" t="n">
-        <v>0.1747</v>
+        <v>0.1763</v>
       </c>
       <c r="F285" s="5" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         </is>
       </c>
       <c r="E286" s="2" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="F286" s="7" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         </is>
       </c>
       <c r="E287" s="2" t="n">
-        <v>8.68</v>
+        <v>9.26</v>
       </c>
       <c r="F287" s="6" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         </is>
       </c>
       <c r="E293" s="4" t="n">
-        <v>0.127</v>
+        <v>0.1189</v>
       </c>
       <c r="F293" s="5" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         </is>
       </c>
       <c r="E297" s="2" t="n">
-        <v>3.11</v>
+        <v>3.08</v>
       </c>
       <c r="F297" s="5" t="inlineStr">
         <is>
@@ -18314,11 +18314,11 @@
         </is>
       </c>
       <c r="E298" s="2" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="F298" s="7" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>6.16</v>
+      </c>
+      <c r="F298" s="6" t="inlineStr">
+        <is>
+          <t>moderado</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração, VALE3). Investidores devem confirmar fluxo de caixa livre e sustentabilidade do EBITDA.</t>
+          <t>Avaliação razoável, comum em setores maduros (ex.: varejo, LREN3). Investidores devem verificar consistência do EBITDA e tendências setoriais.</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -18374,7 +18374,7 @@
         </is>
       </c>
       <c r="E299" s="2" t="n">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="F299" s="5" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         </is>
       </c>
       <c r="E311" s="2" t="n">
-        <v>2.94</v>
+        <v>3.14</v>
       </c>
       <c r="F311" s="3" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         </is>
       </c>
       <c r="E313" s="4" t="n">
-        <v>0.0244</v>
+        <v>0.0268</v>
       </c>
       <c r="F313" s="5" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         </is>
       </c>
       <c r="E314" s="2" t="n">
-        <v>7.43</v>
+        <v>7.11</v>
       </c>
       <c r="F314" s="7" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         </is>
       </c>
       <c r="E315" s="2" t="n">
-        <v>5.71</v>
+        <v>5.83</v>
       </c>
       <c r="F315" s="7" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         </is>
       </c>
       <c r="E321" s="4" t="n">
-        <v>0.2848</v>
+        <v>0.2673</v>
       </c>
       <c r="F321" s="5" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         </is>
       </c>
       <c r="E325" s="2" t="n">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="F325" s="5" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         </is>
       </c>
       <c r="E326" s="2" t="n">
-        <v>2.77</v>
+        <v>2.69</v>
       </c>
       <c r="F326" s="5" t="inlineStr">
         <is>
@@ -20054,11 +20054,11 @@
         </is>
       </c>
       <c r="E327" s="2" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="F327" s="7" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>4.75</v>
+      </c>
+      <c r="F327" s="5" t="inlineStr">
+        <is>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -20083,7 +20083,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração, VALE3). Investidores devem confirmar fluxo de caixa livre e sustentabilidade do lucro.</t>
+          <t>Extremamente subvalorizada, sugere oportunidade ou lucro inflado. Comum em setores em recuperação (ex.: PETR4). Investidores devem verificar fluxo de caixa livre e ROE.</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -20114,7 +20114,7 @@
         </is>
       </c>
       <c r="E328" s="2" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="F328" s="5" t="inlineStr">
         <is>
@@ -20174,11 +20174,11 @@
         </is>
       </c>
       <c r="E329" s="2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>
-          <t>ruim</t>
+          <t>pessimo</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -20203,7 +20203,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Alavancagem elevada, patrimônio financia 20-30% dos ativos, indicando risco moderado. Investidores devem monitorar gestão da dívida e geração de caixa.</t>
+          <t>Alta alavancagem, patrimônio representa menos de 20% dos ativos, indicando dependência de dívidas. Comum em setores com dívidas elevadas (ex.: construção). Investidores devem analisar capacidade de pagamento de juros.</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.0707</v>
+        <v>0.0699</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>8.34</v>
+        <v>8.44</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6.16</v>
+        <v>6.23</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>9.09</v>
+        <v>9.19</v>
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>6.72</v>
+        <v>6.79</v>
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>14.26</v>
+        <v>14.42</v>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>18.16</v>
+        <v>18.3</v>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>9.050000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F65" s="6" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>9.16</v>
+        <v>9.31</v>
       </c>
       <c r="F75" s="7" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="F76" s="7" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>-3.92</v>
+        <v>-3.98</v>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="E92" s="4" t="n">
-        <v>0.0061</v>
+        <v>0.0062</v>
       </c>
       <c r="F92" s="5" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>16.73</v>
+        <v>16.64</v>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>9.6</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F94" s="6" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>5.51</v>
+        <v>5.42</v>
       </c>
       <c r="F104" s="7" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="F105" s="7" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>1690.43</v>
+        <v>1663.34</v>
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="F107" s="7" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="E121" s="4" t="n">
-        <v>0.0232</v>
+        <v>0.0233</v>
       </c>
       <c r="F121" s="5" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>10.57</v>
+        <v>10.52</v>
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>7.92</v>
+        <v>7.88</v>
       </c>
       <c r="F123" s="6" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>10.51</v>
+        <v>10.46</v>
       </c>
       <c r="F133" s="6" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>7.88</v>
+        <v>7.84</v>
       </c>
       <c r="F134" s="6" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>14.18</v>
+        <v>14.11</v>
       </c>
       <c r="F135" s="6" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="F137" s="5" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="E150" s="4" t="n">
-        <v>0.1195</v>
+        <v>0.1197</v>
       </c>
       <c r="F150" s="5" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="E151" s="2" t="n">
-        <v>6.17</v>
+        <v>6.15</v>
       </c>
       <c r="F151" s="7" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="E162" s="2" t="n">
-        <v>6.17</v>
+        <v>6.15</v>
       </c>
       <c r="F162" s="7" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         </is>
       </c>
       <c r="E164" s="2" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="F164" s="5" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="E179" s="4" t="n">
-        <v>0.0806</v>
+        <v>0.08070000000000001</v>
       </c>
       <c r="F179" s="5" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="E180" s="2" t="n">
-        <v>8.15</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F180" s="6" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         </is>
       </c>
       <c r="E191" s="2" t="n">
-        <v>8.76</v>
+        <v>8.75</v>
       </c>
       <c r="F191" s="7" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="E193" s="2" t="n">
-        <v>8.6</v>
+        <v>8.58</v>
       </c>
       <c r="F193" s="7" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="E208" s="4" t="n">
-        <v>0.1104</v>
+        <v>0.1101</v>
       </c>
       <c r="F208" s="5" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="E209" s="2" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="F209" s="7" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         </is>
       </c>
       <c r="E220" s="2" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
       <c r="F220" s="7" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="E222" s="2" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="F222" s="7" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         </is>
       </c>
       <c r="E223" s="2" t="n">
-        <v>5.76</v>
+        <v>5.78</v>
       </c>
       <c r="F223" s="3" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         </is>
       </c>
       <c r="E224" s="2" t="n">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="F224" s="5" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         </is>
       </c>
       <c r="E266" s="4" t="n">
-        <v>0.1251</v>
+        <v>0.1252</v>
       </c>
       <c r="F266" s="5" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         </is>
       </c>
       <c r="E267" s="2" t="n">
-        <v>4.95</v>
+        <v>4.94</v>
       </c>
       <c r="F267" s="7" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         </is>
       </c>
       <c r="E280" s="2" t="n">
-        <v>5.46</v>
+        <v>5.45</v>
       </c>
       <c r="F280" s="7" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         </is>
       </c>
       <c r="E281" s="2" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="F281" s="7" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         </is>
       </c>
       <c r="E295" s="4" t="n">
-        <v>0.1763</v>
+        <v>0.1751</v>
       </c>
       <c r="F295" s="5" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         </is>
       </c>
       <c r="E296" s="2" t="n">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="F296" s="7" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         </is>
       </c>
       <c r="E297" s="2" t="n">
-        <v>9.23</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F297" s="6" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         </is>
       </c>
       <c r="E307" s="2" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="F307" s="5" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         </is>
       </c>
       <c r="E308" s="2" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="F308" s="6" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="E309" s="2" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="F309" s="5" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="E324" s="4" t="n">
-        <v>0.0257</v>
+        <v>0.0251</v>
       </c>
       <c r="F324" s="5" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         </is>
       </c>
       <c r="E325" s="2" t="n">
-        <v>7.26</v>
+        <v>7.34</v>
       </c>
       <c r="F325" s="7" t="inlineStr">
         <is>
@@ -19997,11 +19997,11 @@
         </is>
       </c>
       <c r="E326" s="2" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F326" s="7" t="inlineStr">
-        <is>
-          <t>bom</t>
+        <v>6.01</v>
+      </c>
+      <c r="F326" s="6" t="inlineStr">
+        <is>
+          <t>moderado</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -20026,7 +20026,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração). Investidores devem confirmar fluxo de caixa livre e tendências setoriais.</t>
+          <t>Avaliação equilibrada, comum em setores maduros (ex.: varejo). Investidores devem verificar consistência do EBITDA e perspectivas de crescimento.</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -20597,7 +20597,7 @@
         </is>
       </c>
       <c r="E336" s="2" t="n">
-        <v>3.43</v>
+        <v>3.51</v>
       </c>
       <c r="F336" s="5" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         </is>
       </c>
       <c r="E337" s="2" t="n">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
       <c r="F337" s="5" t="inlineStr">
         <is>
@@ -20717,11 +20717,11 @@
         </is>
       </c>
       <c r="E338" s="2" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="F338" s="5" t="inlineStr">
-        <is>
-          <t>otimo</t>
+        <v>5.08</v>
+      </c>
+      <c r="F338" s="7" t="inlineStr">
+        <is>
+          <t>bom</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -20746,7 +20746,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Extremamente subvalorizada, sugere oportunidade ou lucro inflado. Comum em setores em recuperação (ex.: PETR4). Investidores devem verificar fluxo de caixa livre e ROE.</t>
+          <t>Subvalorizada, oportunidade em setores cíclicos (ex.: mineração, VALE3). Investidores devem confirmar fluxo de caixa livre e sustentabilidade do lucro.</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="E339" s="2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="F339" s="5" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         </is>
       </c>
       <c r="E340" s="2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F340" s="3" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         </is>
       </c>
       <c r="E353" s="4" t="n">
-        <v>0.0268</v>
+        <v>0.027</v>
       </c>
       <c r="F353" s="5" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="E354" s="2" t="n">
-        <v>18.62</v>
+        <v>18.5</v>
       </c>
       <c r="F354" s="3" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         </is>
       </c>
       <c r="E355" s="2" t="n">
-        <v>32.69</v>
+        <v>32.48</v>
       </c>
       <c r="F355" s="3" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         </is>
       </c>
       <c r="E365" s="2" t="n">
-        <v>19</v>
+        <v>18.88</v>
       </c>
       <c r="F365" s="3" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         </is>
       </c>
       <c r="E366" s="2" t="n">
-        <v>33.35</v>
+        <v>33.15</v>
       </c>
       <c r="F366" s="3" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         </is>
       </c>
       <c r="E367" s="2" t="n">
-        <v>24.07</v>
+        <v>23.92</v>
       </c>
       <c r="F367" s="3" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         </is>
       </c>
       <c r="E368" s="2" t="n">
-        <v>6.95</v>
+        <v>6.9</v>
       </c>
       <c r="F368" s="3" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="E369" s="2" t="n">
-        <v>3.87</v>
+        <v>3.85</v>
       </c>
       <c r="F369" s="5" t="inlineStr">
         <is>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.0699</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>8.44</v>
+        <v>8.43</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>9.19</v>
+        <v>9.18</v>
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>14.42</v>
+        <v>14.41</v>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-2.8</v>
+        <v>-2.81</v>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.35</v>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>16.64</v>
+        <v>16.65</v>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>5.42</v>
+        <v>5.43</v>
       </c>
       <c r="F104" s="7" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="F105" s="7" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>1663.34</v>
+        <v>1665.15</v>
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="E121" s="4" t="n">
-        <v>0.0233</v>
+        <v>0.0232</v>
       </c>
       <c r="F121" s="5" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>10.52</v>
+        <v>10.55</v>
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>7.88</v>
+        <v>7.9</v>
       </c>
       <c r="F123" s="6" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>10.46</v>
+        <v>10.49</v>
       </c>
       <c r="F133" s="6" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>7.84</v>
+        <v>7.86</v>
       </c>
       <c r="F134" s="6" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>14.11</v>
+        <v>14.14</v>
       </c>
       <c r="F135" s="6" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="F137" s="5" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="E150" s="4" t="n">
-        <v>0.1197</v>
+        <v>0.1196</v>
       </c>
       <c r="F150" s="5" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="E151" s="2" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="F151" s="7" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="E162" s="2" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="F162" s="7" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="E180" s="2" t="n">
-        <v>8.130000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F180" s="6" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         </is>
       </c>
       <c r="E267" s="2" t="n">
-        <v>4.94</v>
+        <v>4.95</v>
       </c>
       <c r="F267" s="7" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         </is>
       </c>
       <c r="E295" s="4" t="n">
-        <v>0.1751</v>
+        <v>0.1752</v>
       </c>
       <c r="F295" s="5" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         </is>
       </c>
       <c r="E297" s="2" t="n">
-        <v>9.289999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F297" s="6" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         </is>
       </c>
       <c r="E308" s="2" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="F308" s="6" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="E354" s="2" t="n">
-        <v>18.5</v>
+        <v>18.53</v>
       </c>
       <c r="F354" s="3" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         </is>
       </c>
       <c r="E355" s="2" t="n">
-        <v>32.48</v>
+        <v>32.52</v>
       </c>
       <c r="F355" s="3" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         </is>
       </c>
       <c r="E365" s="2" t="n">
-        <v>18.88</v>
+        <v>18.91</v>
       </c>
       <c r="F365" s="3" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         </is>
       </c>
       <c r="E366" s="2" t="n">
-        <v>33.15</v>
+        <v>33.19</v>
       </c>
       <c r="F366" s="3" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         </is>
       </c>
       <c r="E367" s="2" t="n">
-        <v>23.92</v>
+        <v>23.95</v>
       </c>
       <c r="F367" s="3" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         </is>
       </c>
       <c r="E368" s="2" t="n">
-        <v>6.9</v>
+        <v>6.91</v>
       </c>
       <c r="F368" s="3" t="inlineStr">
         <is>

--- a/StatusInvest.xlsx
+++ b/StatusInvest.xlsx
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13.18</v>
+        <v>13.13</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
@@ -600,14 +600,14 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>P/L indica valuation justo, típico de empresas com crescimento moderado e estabilidade financeira.</t>
+          <t>P/L indica valuation justo, típico de empresas com crescimento estável e fundamentos sólidos. Comum em setores consolidados com margens previsíveis (ex.: varejo, energia). Menos potencial de upside que ações subvalorizadas, mas oferece equilíbrio entre risco e retorno.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Valuetion</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -617,55 +617,55 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AERI3</t>
+          <t>ABEV3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>P/VP</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.28</v>
+        <v>2.09</v>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>Critico</t>
+          <t>Ruim</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PL &lt; 0</t>
+          <t>Mínimo = -inf, Máximo = 0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mínimo = 20, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Mínimo = 15, Máximo = 20</t>
+          <t>2 &lt; P/VP &lt;= 3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = 15</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mínimo = 5, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 5</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>P/L negativo indica que a empresa não está gerando lucro, o que pode sugerir problemas operacionais, má gestão ou dificuldades no mercado.</t>
+          <t>P/VP elevado sugere sobrevalorização moderada, com o mercado precificando crescimento ou ativos intangíveis (ex.: marca, tecnologia). Pode ser justificado em setores dinâmicos, mas exige análise de perspectivas de lucro e comparação com pares do setor.</t>
         </is>
       </c>
     </row>
@@ -682,55 +682,55 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AMAR3</t>
+          <t>ABEV3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>P/EBITDA</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-3.83</v>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>Critico</t>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PL &lt; 0</t>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Mínimo = 20, Máximo = inf</t>
+          <t>Mínimo = 15, Máximo = inf</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Mínimo = 15, Máximo = 20</t>
+          <t>Mínimo = 10, Máximo = 15</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = 15</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mínimo = 5, Máximo = 10</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 5</t>
+          <t>0 &lt;= P/EBITDA &lt;= 5</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>P/L negativo indica que a empresa não está gerando lucro, o que pode sugerir problemas operacionais, má gestão ou dificuldades no mercado.</t>
+          <t>P/EBITDA baixo sugere que a ação está subvalorizada em relação à sua geração de caixa operacional. Comum em setores maduros (ex.: bancos, utilities) ou empresas em recuperação. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
         </is>
       </c>
     </row>
@@ -747,25 +747,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AURE3</t>
+          <t>ABEV3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>P/EBIT</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1735.58</v>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>Fora da faixa</t>
+        <v>8.43</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Moderado</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mínimo = -inf, Máximo = 0</t>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = 15</t>
+          <t>6 &lt; P/EBIT &lt;= 10</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -790,12 +790,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>PL &gt; 30</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>P/L extremamente elevado sugere sobrevalorização severa, com alto risco de correção, típico de empresas especulativas ou em bolhas. gestão ou dificuldades no mercado</t>
+          <t>P/EBIT indica valuation justo, típico de empresas com operação estável e crescimento moderado. Comum em setores consolidados como energia e indústria.</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B3SA3</t>
+          <t>AERI3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>Moderado</t>
+        <v>-0.27</v>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Critico</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mínimo = -inf, Máximo = 0</t>
+          <t>PL &lt; 0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10 &lt; PL &lt;= 15</t>
+          <t>Mínimo = 10, Máximo = 15</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -860,14 +860,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>P/L indica valuation justo, típico de empresas com crescimento moderado e estabilidade financeira.</t>
+          <t>P/L negativo indica que a empresa está com prejuízo, sugerindo riscos como problemas operacionais, má gestão ou dificuldades de mercado. Pode ser temporário em setores cíclicos (ex.: celulose, mineração), mas exige análise de fundamentos como EBITDA e fluxo de caixa para avaliar recuperação.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Valuetion</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -877,20 +877,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BBAS3</t>
+          <t>AERI3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>P/VP</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Otimo</t>
+        <v>2.45</v>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>Ruim</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -900,32 +900,32 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Mínimo = 20, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Mínimo = 15, Máximo = 20</t>
+          <t>2 &lt; P/VP &lt;= 3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = 15</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mínimo = 5, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0 &lt;= PL &lt;= 10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>P/L baixo sugere que a ação está subvalorizada, representando uma possível oportunidade de compra, comum em setores maduros como bancos ou utilities.</t>
+          <t>P/VP elevado sugere sobrevalorização moderada, com o mercado precificando crescimento ou ativos intangíveis (ex.: marca, tecnologia). Pode ser justificado em setores dinâmicos, mas exige análise de perspectivas de lucro e comparação com pares do setor.</t>
         </is>
       </c>
     </row>
@@ -942,55 +942,55 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BBDC4</t>
+          <t>AERI3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>P/EBITDA</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>Otimo</t>
+        <v>-0.43</v>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>Critico</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mínimo = -inf, Máximo = 0</t>
+          <t>P/EBITDA &lt; 0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Mínimo = 20, Máximo = inf</t>
+          <t>Mínimo = 15, Máximo = inf</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Mínimo = 15, Máximo = 20</t>
+          <t>Mínimo = 10, Máximo = 15</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = 15</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mínimo = 5, Máximo = 10</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0 &lt;= PL &lt;= 10</t>
+          <t>Mínimo = 0, Máximo = 3</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>P/L baixo sugere que a ação está subvalorizada, representando uma possível oportunidade de compra, comum em setores maduros como bancos ou utilities.</t>
+          <t>P/EBITDA negativo indica EBITDA negativo, sugerindo graves problemas operacionais ou crise financeira. Extremamente raro, exige análise detalhada de fluxo de caixa e perspectivas de recuperação.</t>
         </is>
       </c>
     </row>
@@ -1007,25 +1007,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BBSE3</t>
+          <t>AERI3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>P/EBIT</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>Otimo</t>
+        <v>-0.35</v>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>Critico</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mínimo = -inf, Máximo = 0</t>
+          <t>P/EBIT &lt; 0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0 &lt;= PL &lt;= 10</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>P/L baixo sugere que a ação está subvalorizada, representando uma possível oportunidade de compra, comum em setores maduros como bancos ou utilities.</t>
+          <t>P/EBIT negativo indica prejuízo operacional, sugerindo sérios problemas na geração de lucro antes de juros e impostos. Exige análise detalhada da operação e perspectivas de recuperação.</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BHIA3</t>
+          <t>AMAR3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.19</v>
+        <v>-3.86</v>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
@@ -1120,14 +1120,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>P/L negativo indica que a empresa não está gerando lucro, o que pode sugerir problemas operacionais, má gestão ou dificuldades no mercado.</t>
+          <t>P/L negativo indica que a empresa está com prejuízo, sugerindo riscos como problemas operacionais, má gestão ou dificuldades de mercado. Pode ser temporário em setores cíclicos (ex.: celulose, mineração), mas exige análise de fundamentos como EBITDA e fluxo de caixa para avaliar recuperação.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Valuetion</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1137,20 +1137,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BRAP4</t>
+          <t>AMAR3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>P/VP</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>Otimo</t>
+        <v>2.22</v>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>Ruim</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1160,32 +1160,32 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Mínimo = 20, Máximo = inf</t>
+          <t>Mínimo = 2, Máximo = inf</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Mínimo = 15, Máximo = 20</t>
+          <t>2 &lt; P/VP &lt;= 3</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = 15</t>
+          <t>Mínimo = 1, Máximo = 1.5</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Mínimo = 5, Máximo = 10</t>
+          <t>Mínimo = 0.5, Máximo = 1</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0 &lt;= PL &lt;= 10</t>
+          <t>Mínimo = 0, Máximo = 0.5</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>P/L baixo sugere que a ação está subvalorizada, representando uma possível oportunidade de compra, comum em setores maduros como bancos ou utilities.</t>
+          <t>P/VP elevado sugere sobrevalorização moderada, com o mercado precificando crescimento ou ativos intangíveis (ex.: marca, tecnologia). Pode ser justificado em setores dinâmicos, mas exige análise de perspectivas de lucro e comparação com pares do setor.</t>
         </is>
       </c>
     </row>
@@ -1202,16 +1202,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CMIG4</t>
+          <t>AMAR3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>P/EBITDA</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>4.23</v>
+        <v>4.49</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
@@ -1220,37 +1220,37 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Mínimo = -inf, Máximo = 0</t>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Mínimo = 20, Máximo = inf</t>
+          <t>Mínimo = 15, Máximo = inf</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Mínimo = 15, Máximo = 20</t>
+          <t>Mínimo = 10, Máximo = 15</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = 15</t>
+          <t>Mínimo = 6, Máximo = 10</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Mínimo = 5, Máximo = 10</t>
+          <t>Mínimo = 3, Máximo = 6</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0 &lt;= PL &lt;= 10</t>
+          <t>0 &lt;= P/EBITDA &lt;= 5</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>P/L baixo sugere que a ação está subvalorizada, representando uma possível oportunidade de compra, comum em setores maduros como bancos ou utilities.</t>
+          <t>P/EBITDA baixo sugere que a ação está subvalorizada em relação à sua geração de caixa operacional. Comum em setores maduros (ex.: bancos, utilities) ou empresas em recuperação. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
         </is>
       </c>
     </row>
@@ -1267,25 +1267,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COGN3</t>
+          <t>AMAR3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>P/EBIT</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>Otimo</t>
+        <v>9.02</v>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Moderado</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Mínimo = -inf, Máximo = 0</t>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Mínimo = 10, Máximo = 15</t>
+          <t>6 &lt; P/EBIT &lt;= 10</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0 &lt;= PL &lt;= 10</t>
+          <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>P/L baixo sugere que a ação está subvalorizada, representando uma possível oportunidade de compra, comum em setores maduros como bancos ou utilities.</t>
+          <t>P/EBIT indica valuation justo, típico de empresas com operação estável e crescimento moderado. Comum em setores consolidados como energia e indústria.</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WEGE3</t>
+          <t>AURE3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1341,11 +1341,11 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>Pessimo</t>
+        <v>1742.8</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>Fora da faixa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>20 &lt; PL &lt;= 30</t>
+          <t>Mínimo = 20, Máximo = inf</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1375,77 +1375,2807 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Mínimo = 0, Máximo = 5</t>
+          <t>PL &gt; 30</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>P/L muito alto indica que a ação está cara, com risco significativo, salvo em casos de crescimento excepcional.</t>
+          <t>P/L extremamente elevado sugere sobrevalorização severa, típica de empresas especulativas ou em bolhas de mercado. Pode ser aceitável em setores de crescimento excepcional (ex.: tecnologia, biotech), mas o risco de correção é alto. Análise detalhada do crescimento futuro é essencial.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Valuetion</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AURE3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Mínimo = 2, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Mínimo = 1.5, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Mínimo = 1, Máximo = 1.5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Mínimo = 0.5, Máximo = 1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/VP &lt;= 1</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>P/VP baixo sugere que a ação está subvalorizada, negociada abaixo de seu valor patrimonial. Comum em setores maduros (ex.: bancos, siderurgia) ou empresas com desafios temporários. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Valuation</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AURE3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBITDA &lt;= 5</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>P/EBITDA baixo sugere que a ação está subvalorizada em relação à sua geração de caixa operacional. Comum em setores maduros (ex.: bancos, utilities) ou empresas em recuperação. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AURE3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBIT &lt;= 6</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>P/EBIT baixo sugere que a ação está subvalorizada em relação ao lucro operacional. Pode representar uma oportunidade de compra, especialmente em setores maduros ou empresas em recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>B3SA3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Moderado</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>10 &lt; PL &lt;= 15</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 5</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>P/L indica valuation justo, típico de empresas com crescimento estável e fundamentos sólidos. Comum em setores consolidados com margens previsíveis (ex.: varejo, energia). Menos potencial de upside que ações subvalorizadas, mas oferece equilíbrio entre risco e retorno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Valuetion</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>B3SA3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>Pessimo</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3 &lt; P/VP &lt;= 5</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Mínimo = 1.5, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Mínimo = 1, Máximo = 1.5</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Mínimo = 0.5, Máximo = 1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 0.5</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>P/VP muito alto indica que a ação está cara, com expectativas de crescimento elevadas que podem não se concretizar. Comum em setores de alto crescimento (ex.: tecnologia, varejo online), mas há risco significativo de correção se os resultados desapontarem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B3SA3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>Moderado</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>5 &lt; P/EBITDA &lt;= 8</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>P/EBITDA indica valuation justo, típico de empresas com geração de caixa estável e crescimento moderado. Comum em setores consolidados (ex.: indústria, energia). Oferece equilíbrio entre risco e retorno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B3SA3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>10 &lt; P/EBIT &lt;= 15</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 5</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>P/EBIT elevado sugere sobrevalorização, com o mercado esperando crescimento significativo. Aceitável em setores dinâmicos, mas exige cautela e análise comparativa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0 &lt;= PL &lt;= 10</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>P/L baixo sugere que a ação está subvalorizada ou que o mercado tem perspectiva negativa sobre o futuro da empresa. Comum em setores maduros (ex.: bancos, utilities) ou em empresas com desafios financeiros temporários. Pode representar uma oportunidade de valor se o mercado estiver subestimando o potencial de recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Valuetion</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Mínimo = 2, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Mínimo = 1.5, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Mínimo = 1, Máximo = 1.5</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Mínimo = 0.5, Máximo = 1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/VP &lt;= 1</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>P/VP baixo sugere que a ação está subvalorizada, negociada abaixo de seu valor patrimonial. Comum em setores maduros (ex.: bancos, siderurgia) ou empresas com desafios temporários. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBITDA &lt;= 5</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>P/EBITDA baixo sugere que a ação está subvalorizada em relação à sua geração de caixa operacional. Comum em setores maduros (ex.: bancos, utilities) ou empresas em recuperação. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBIT &lt;= 6</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>P/EBIT baixo sugere que a ação está subvalorizada em relação ao lucro operacional. Pode representar uma oportunidade de compra, especialmente em setores maduros ou empresas em recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>BBDC4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0 &lt;= PL &lt;= 10</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>P/L baixo sugere que a ação está subvalorizada ou que o mercado tem perspectiva negativa sobre o futuro da empresa. Comum em setores maduros (ex.: bancos, utilities) ou em empresas com desafios financeiros temporários. Pode representar uma oportunidade de valor se o mercado estiver subestimando o potencial de recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Valuetion</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BBDC4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Mínimo = 2, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Mínimo = 1.5, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Mínimo = 1, Máximo = 1.5</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Mínimo = 0.5, Máximo = 1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/VP &lt;= 1</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>P/VP baixo sugere que a ação está subvalorizada, negociada abaixo de seu valor patrimonial. Comum em setores maduros (ex.: bancos, siderurgia) ou empresas com desafios temporários. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BBDC4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBITDA &lt;= 5</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>P/EBITDA baixo sugere que a ação está subvalorizada em relação à sua geração de caixa operacional. Comum em setores maduros (ex.: bancos, utilities) ou empresas em recuperação. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BBDC4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Moderado</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>6 &lt; P/EBIT &lt;= 10</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 5</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>P/EBIT indica valuation justo, típico de empresas com operação estável e crescimento moderado. Comum em setores consolidados como energia e indústria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BBSE3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0 &lt;= PL &lt;= 10</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>P/L baixo sugere que a ação está subvalorizada ou que o mercado tem perspectiva negativa sobre o futuro da empresa. Comum em setores maduros (ex.: bancos, utilities) ou em empresas com desafios financeiros temporários. Pode representar uma oportunidade de valor se o mercado estiver subestimando o potencial de recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Valuetion</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BBSE3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>Fora da faixa</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Mínimo = 2, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Mínimo = 1.5, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Mínimo = 1, Máximo = 1.5</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Mínimo = 0.5, Máximo = 1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>P/VP &gt; 5</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>P/VP extremamente elevado sugere sobrevalorização severa, típica de empresas especulativas ou em bolhas de mercado. Pode ser aceitável em setores de crescimento excepcional (ex.: tecnologia, biotech), mas o risco de correção é alto. Análise detalhada do crescimento futuro é essencial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BBSE3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBITDA &lt;= 5</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>P/EBITDA baixo sugere que a ação está subvalorizada em relação à sua geração de caixa operacional. Comum em setores maduros (ex.: bancos, utilities) ou empresas em recuperação. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BBSE3</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>Moderado</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>6 &lt; P/EBIT &lt;= 10</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 5</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>P/EBIT indica valuation justo, típico de empresas com operação estável e crescimento moderado. Comum em setores consolidados como energia e indústria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BHIA3</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>Critico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>PL &lt; 0</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 5</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>P/L negativo indica que a empresa está com prejuízo, sugerindo riscos como problemas operacionais, má gestão ou dificuldades de mercado. Pode ser temporário em setores cíclicos (ex.: celulose, mineração), mas exige análise de fundamentos como EBITDA e fluxo de caixa para avaliar recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Valuetion</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BHIA3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Mínimo = 2, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Mínimo = 1.5, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Mínimo = 1, Máximo = 1.5</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Mínimo = 0.5, Máximo = 1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/VP &lt;= 1</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>P/VP baixo sugere que a ação está subvalorizada, negociada abaixo de seu valor patrimonial. Comum em setores maduros (ex.: bancos, siderurgia) ou empresas com desafios temporários. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BHIA3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBITDA &lt;= 5</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>P/EBITDA baixo sugere que a ação está subvalorizada em relação à sua geração de caixa operacional. Comum em setores maduros (ex.: bancos, utilities) ou empresas em recuperação. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BHIA3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>Critico</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>P/EBIT &lt; 0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 5</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>P/EBIT negativo indica prejuízo operacional, sugerindo sérios problemas na geração de lucro antes de juros e impostos. Exige análise detalhada da operação e perspectivas de recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BRAP4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0 &lt;= PL &lt;= 10</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>P/L baixo sugere que a ação está subvalorizada ou que o mercado tem perspectiva negativa sobre o futuro da empresa. Comum em setores maduros (ex.: bancos, utilities) ou em empresas com desafios financeiros temporários. Pode representar uma oportunidade de valor se o mercado estiver subestimando o potencial de recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Valuetion</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BRAP4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Mínimo = 2, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Mínimo = 1.5, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Mínimo = 1, Máximo = 1.5</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Mínimo = 0.5, Máximo = 1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/VP &lt;= 1</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>P/VP baixo sugere que a ação está subvalorizada, negociada abaixo de seu valor patrimonial. Comum em setores maduros (ex.: bancos, siderurgia) ou empresas com desafios temporários. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BRAP4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBITDA &lt;= 5</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>P/EBITDA baixo sugere que a ação está subvalorizada em relação à sua geração de caixa operacional. Comum em setores maduros (ex.: bancos, utilities) ou empresas em recuperação. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BRAP4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBIT &lt;= 6</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>P/EBIT baixo sugere que a ação está subvalorizada em relação ao lucro operacional. Pode representar uma oportunidade de compra, especialmente em setores maduros ou empresas em recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CMIG4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0 &lt;= PL &lt;= 10</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>P/L baixo sugere que a ação está subvalorizada ou que o mercado tem perspectiva negativa sobre o futuro da empresa. Comum em setores maduros (ex.: bancos, utilities) ou em empresas com desafios financeiros temporários. Pode representar uma oportunidade de valor se o mercado estiver subestimando o potencial de recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Valuetion</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CMIG4</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>Moderado</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Mínimo = 2, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Mínimo = 1.5, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1 &lt; P/VP &lt;= 2</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Mínimo = 0.5, Máximo = 1</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 0.5</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>P/VP indica valuation justo, típico de empresas com estabilidade financeira e crescimento moderado. Comum em setores consolidados (ex.: energia, celulose). Oferece equilíbrio entre risco e retorno, com potencial de valorização moderado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CMIG4</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>Moderado</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>5 &lt; P/EBITDA &lt;= 8</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>P/EBITDA indica valuation justo, típico de empresas com geração de caixa estável e crescimento moderado. Comum em setores consolidados (ex.: indústria, energia). Oferece equilíbrio entre risco e retorno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CMIG4</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBIT &lt;= 6</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>P/EBIT baixo sugere que a ação está subvalorizada em relação ao lucro operacional. Pode representar uma oportunidade de compra, especialmente em setores maduros ou empresas em recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>COGN3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0 &lt;= PL &lt;= 10</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>P/L baixo sugere que a ação está subvalorizada ou que o mercado tem perspectiva negativa sobre o futuro da empresa. Comum em setores maduros (ex.: bancos, utilities) ou em empresas com desafios financeiros temporários. Pode representar uma oportunidade de valor se o mercado estiver subestimando o potencial de recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Valuetion</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>COGN3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Mínimo = 2, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Mínimo = 1.5, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Mínimo = 1, Máximo = 1.5</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Mínimo = 0.5, Máximo = 1</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/VP &lt;= 1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>P/VP baixo sugere que a ação está subvalorizada, negociada abaixo de seu valor patrimonial. Comum em setores maduros (ex.: bancos, siderurgia) ou empresas com desafios temporários. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>COGN3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBITDA &lt;= 5</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>P/EBITDA baixo sugere que a ação está subvalorizada em relação à sua geração de caixa operacional. Comum em setores maduros (ex.: bancos, utilities) ou empresas em recuperação. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>COGN3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBIT &lt;= 6</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>P/EBIT baixo sugere que a ação está subvalorizada em relação ao lucro operacional. Pode representar uma oportunidade de compra, especialmente em setores maduros ou empresas em recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>WEGE3</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>Pessimo</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>20 &lt; PL &lt;= 30</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 5</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>P/L muito alto indica que a ação está cara, com expectativas de crescimento elevadas que podem não se concretizar. Comum em setores de alto crescimento (ex.: tecnologia), mas há risco significativo de correção se os resultados desapontarem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Valuetion</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>WEGE3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>Fora da faixa</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Mínimo = 2, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Mínimo = 1.5, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Mínimo = 1, Máximo = 1.5</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Mínimo = 0.5, Máximo = 1</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>P/VP &gt; 5</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>P/VP extremamente elevado sugere sobrevalorização severa, típica de empresas especulativas ou em bolhas de mercado. Pode ser aceitável em setores de crescimento excepcional (ex.: tecnologia, biotech), mas o risco de correção é alto. Análise detalhada do crescimento futuro é essencial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>WEGE3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>33.74</v>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>Fora da faixa</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>P/EBITDA &gt; 16</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>P/EBITDA extremamente elevado sugere sobrevalorização severa, típica de empresas especulativas ou em bolhas de mercado. Pode ser justificado em setores de crescimento excepcional (ex.: tecnologia, biotech), mas o risco de correção é alto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>WEGE3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>Pessimo</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>15 &lt; P/EBIT &lt;= 20</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 5</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>P/EBIT muito alto indica que a ação está cara, com expectativas elevadas que podem não se concretizar. Comum em empresas de crescimento acelerado, mas com risco elevado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>SUZB3</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>P/L</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>-68.56</v>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="E54" s="2" t="n">
+        <v>-68.59999999999999</v>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t>Critico</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>PL &lt; 0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Mínimo = 20, Máximo = inf</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Mínimo = 15, Máximo = 20</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = 15</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>Mínimo = 5, Máximo = 10</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>Mínimo = 0, Máximo = 5</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>P/L negativo indica que a empresa não está gerando lucro, o que pode sugerir problemas operacionais, má gestão ou dificuldades no mercado.</t>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>P/L negativo indica que a empresa está com prejuízo, sugerindo riscos como problemas operacionais, má gestão ou dificuldades de mercado. Pode ser temporário em setores cíclicos (ex.: celulose, mineração), mas exige análise de fundamentos como EBITDA e fluxo de caixa para avaliar recuperação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Valuetion</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>Moderado</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = 0</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Mínimo = 2, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Mínimo = 1.5, Máximo = 2</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1 &lt; P/VP &lt;= 2</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Mínimo = 0.5, Máximo = 1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 0.5</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>P/VP indica valuation justo, típico de empresas com estabilidade financeira e crescimento moderado. Comum em setores consolidados (ex.: energia, celulose). Oferece equilíbrio entre risco e retorno, com potencial de valorização moderado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBITDA &lt;= 5</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>P/EBITDA baixo sugere que a ação está subvalorizada em relação à sua geração de caixa operacional. Comum em setores maduros (ex.: bancos, utilities) ou empresas em recuperação. Representa uma oportunidade de compra se os fundamentos forem sólidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>Otimo</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Mínimo = -inf, Máximo = -0.1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Mínimo = 20, Máximo = inf</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Mínimo = 15, Máximo = 20</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = 15</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Mínimo = 5, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0 &lt;= P/EBIT &lt;= 6</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>P/EBIT baixo sugere que a ação está subvalorizada em relação ao lucro operacional. Pode representar uma oportunidade de compra, especialmente em setores maduros ou empresas em recuperação.</t>
         </is>
       </c>
     </row>
